--- a/data/hotels_by_city/Dallas/Dallas_shard_710.xlsx
+++ b/data/hotels_by_city/Dallas/Dallas_shard_710.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
-    <workbookView activeTab="0"/>
+    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="hotel_info" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="review_info" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet name="hotel_info" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="review_info" sheetId="2" state="visible" r:id="rId2"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="44">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="514">
   <si>
     <t>STR#</t>
   </si>
@@ -148,6 +148,1424 @@
   </si>
   <si>
     <t>response_text</t>
+  </si>
+  <si>
+    <t>06/15/2018</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55732-d98786-r573601609-Studio_6_Denton_UNT-Denton_Texas.html</t>
+  </si>
+  <si>
+    <t>55732</t>
+  </si>
+  <si>
+    <t>98786</t>
+  </si>
+  <si>
+    <t>573601609</t>
+  </si>
+  <si>
+    <t>04/15/2018</t>
+  </si>
+  <si>
+    <t>Bad bad bad!</t>
+  </si>
+  <si>
+    <t>First, if you are a non-smoker, beware. Our room was between smoking rooms. In fact, all of the rooms around were for smokers and smelled. They obviously throw the towels and sheets together with smoking rooms, so we could smell stale cigarette smoke all in the bathroom and in the bed. Also, there were people hanging around their doors watching everything we did, as we went to and from our car. It was creepy. Few restaurants in the area, too. MoreShow less</t>
+  </si>
+  <si>
+    <t>April 2018</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> traveled as a couple</t>
+  </si>
+  <si>
+    <t>6Team, Guest Relations Manager at Studio 6 Denton - UNT, responded to this reviewResponded April 17, 2018</t>
+  </si>
+  <si>
+    <t>Responded April 17, 2018</t>
+  </si>
+  <si>
+    <t>First, if you are a non-smoker, beware. Our room was between smoking rooms. In fact, all of the rooms around were for smokers and smelled. They obviously throw the towels and sheets together with smoking rooms, so we could smell stale cigarette smoke all in the bathroom and in the bed. Also, there were people hanging around their doors watching everything we did, as we went to and from our car. It was creepy. Few restaurants in the area, too. More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55732-d98786-r524455670-Studio_6_Denton_UNT-Denton_Texas.html</t>
+  </si>
+  <si>
+    <t>524455670</t>
+  </si>
+  <si>
+    <t>09/14/2017</t>
+  </si>
+  <si>
+    <t>Never stay here</t>
+  </si>
+  <si>
+    <t>So my husband, I and my daughter stayed here, because the pricing was a bit cheaper in the small room with full size double beds.  This wasn't too bad and eventually because the stay was much longer than anticipated due to circumstances beyond our control we moved to a suite with a king size bed.  We have been here almost 4 months, this place is out of control. The police are here at least twice a week, the kids are out of control, the hotel does not care nor help, they say oh we can't do anything call the police.  They also allow people who live/stay here and are running business to control the only two washing machines on site.  A woman informed me she was washing laundry for twelve workers and no one is supposed to use it when she is.  Well you go look, laundry basket is left there with no laundry in the washer or dryer.  I thought the washer and dryer were for hotel guests, not for a business?  Well it looks like they really don't care about the comfort of their guests at all.  Now to talk about the kids, unbearable and little brats.  They allow these uncontrollable kids and parents to control the complex and continue to be rude and berating.  Now lets talk about the room, wasn't too dirty, but cockroaches, the internet is not good at all, you lose connection constantly and...So my husband, I and my daughter stayed here, because the pricing was a bit cheaper in the small room with full size double beds.  This wasn't too bad and eventually because the stay was much longer than anticipated due to circumstances beyond our control we moved to a suite with a king size bed.  We have been here almost 4 months, this place is out of control. The police are here at least twice a week, the kids are out of control, the hotel does not care nor help, they say oh we can't do anything call the police.  They also allow people who live/stay here and are running business to control the only two washing machines on site.  A woman informed me she was washing laundry for twelve workers and no one is supposed to use it when she is.  Well you go look, laundry basket is left there with no laundry in the washer or dryer.  I thought the washer and dryer were for hotel guests, not for a business?  Well it looks like they really don't care about the comfort of their guests at all.  Now to talk about the kids, unbearable and little brats.  They allow these uncontrollable kids and parents to control the complex and continue to be rude and berating.  Now lets talk about the room, wasn't too dirty, but cockroaches, the internet is not good at all, you lose connection constantly and the TV is horrible.  I will never stay here ever again, even if I had to live in my car.MoreShow less</t>
+  </si>
+  <si>
+    <t>June 2017</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> traveled with family</t>
+  </si>
+  <si>
+    <t>Nick P, General Manager at Studio 6 Denton - UNT, responded to this reviewResponded September 20, 2017</t>
+  </si>
+  <si>
+    <t>Responded September 20, 2017</t>
+  </si>
+  <si>
+    <t>So my husband, I and my daughter stayed here, because the pricing was a bit cheaper in the small room with full size double beds.  This wasn't too bad and eventually because the stay was much longer than anticipated due to circumstances beyond our control we moved to a suite with a king size bed.  We have been here almost 4 months, this place is out of control. The police are here at least twice a week, the kids are out of control, the hotel does not care nor help, they say oh we can't do anything call the police.  They also allow people who live/stay here and are running business to control the only two washing machines on site.  A woman informed me she was washing laundry for twelve workers and no one is supposed to use it when she is.  Well you go look, laundry basket is left there with no laundry in the washer or dryer.  I thought the washer and dryer were for hotel guests, not for a business?  Well it looks like they really don't care about the comfort of their guests at all.  Now to talk about the kids, unbearable and little brats.  They allow these uncontrollable kids and parents to control the complex and continue to be rude and berating.  Now lets talk about the room, wasn't too dirty, but cockroaches, the internet is not good at all, you lose connection constantly and...So my husband, I and my daughter stayed here, because the pricing was a bit cheaper in the small room with full size double beds.  This wasn't too bad and eventually because the stay was much longer than anticipated due to circumstances beyond our control we moved to a suite with a king size bed.  We have been here almost 4 months, this place is out of control. The police are here at least twice a week, the kids are out of control, the hotel does not care nor help, they say oh we can't do anything call the police.  They also allow people who live/stay here and are running business to control the only two washing machines on site.  A woman informed me she was washing laundry for twelve workers and no one is supposed to use it when she is.  Well you go look, laundry basket is left there with no laundry in the washer or dryer.  I thought the washer and dryer were for hotel guests, not for a business?  Well it looks like they really don't care about the comfort of their guests at all.  Now to talk about the kids, unbearable and little brats.  They allow these uncontrollable kids and parents to control the complex and continue to be rude and berating.  Now lets talk about the room, wasn't too dirty, but cockroaches, the internet is not good at all, you lose connection constantly and the TV is horrible.  I will never stay here ever again, even if I had to live in my car.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55732-d98786-r482497932-Studio_6_Denton_UNT-Denton_Texas.html</t>
+  </si>
+  <si>
+    <t>482497932</t>
+  </si>
+  <si>
+    <t>05/07/2017</t>
+  </si>
+  <si>
+    <t>Adorable stay</t>
+  </si>
+  <si>
+    <t>Very afordable hotel.Friendly staff.Clean rooms.Bathrooms need some tlc.Nice kitchen with a fullsized fridge.I have seen at least 4 cockaroaches since i have been here but honoselty you get what you pay for.  (:</t>
+  </si>
+  <si>
+    <t>May 2017</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55732-d98786-r422140619-Studio_6_Denton_UNT-Denton_Texas.html</t>
+  </si>
+  <si>
+    <t>422140619</t>
+  </si>
+  <si>
+    <t>09/25/2016</t>
+  </si>
+  <si>
+    <t>Bad</t>
+  </si>
+  <si>
+    <t xml:space="preserve">The room was dirty. Look like mice dropping behind nite stand. Bed was bad mattress was worn out only small bar of soap in bathroom . Tv would not come on had to call front desk. No breakfast . Would not stay for price again. </t>
+  </si>
+  <si>
+    <t>September 2016</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55732-d98786-r405254106-Studio_6_Denton_UNT-Denton_Texas.html</t>
+  </si>
+  <si>
+    <t>405254106</t>
+  </si>
+  <si>
+    <t>08/14/2016</t>
+  </si>
+  <si>
+    <t>Beware, don't stay here, not trustworthy place</t>
+  </si>
+  <si>
+    <t>At first glance, this hotel seemed decent and adequate given the price and good location. We just moved here for a job and were staying for 10 days while waiting on our apartment to free up. It was dog friendly and while not the safest place to stay at night with a small child, it seemed to be ok. Only realized some of our stuff was missing after we checked out. I called the front desk to enquire about it, hoping that it was a mistake and that someone hadn't taken our stuff. But no luck - the front desk was rude and can simply stick by their own story that they have no responsibility over items, even if they disappear during housekeeping visits. You want to believe these things dont happen and that you can trust people and places like this, but evidently notMoreShow less</t>
+  </si>
+  <si>
+    <t>August 2016</t>
+  </si>
+  <si>
+    <t>At first glance, this hotel seemed decent and adequate given the price and good location. We just moved here for a job and were staying for 10 days while waiting on our apartment to free up. It was dog friendly and while not the safest place to stay at night with a small child, it seemed to be ok. Only realized some of our stuff was missing after we checked out. I called the front desk to enquire about it, hoping that it was a mistake and that someone hadn't taken our stuff. But no luck - the front desk was rude and can simply stick by their own story that they have no responsibility over items, even if they disappear during housekeeping visits. You want to believe these things dont happen and that you can trust people and places like this, but evidently notMore</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55732-d98786-r403590653-Studio_6_Denton_UNT-Denton_Texas.html</t>
+  </si>
+  <si>
+    <t>403590653</t>
+  </si>
+  <si>
+    <t>08/10/2016</t>
+  </si>
+  <si>
+    <t>Don't go out after dark</t>
+  </si>
+  <si>
+    <t>Strange, nasty looking men with hoodies and a drink in their hand knocking on your door demanding to be let in is never a good sign that this is a motel you want to stay in! Or lots of cop cars late at night in the parking lot...found used needled in the parking lot.  Desk clerks don't care, just take the money and give em keys..and the dogs? Don't get me started! Never again.MoreShow less</t>
+  </si>
+  <si>
+    <t>July 2016</t>
+  </si>
+  <si>
+    <t>6Team, Brand Experience Team Member at Studio 6 Denton - UNT, responded to this reviewResponded August 11, 2016</t>
+  </si>
+  <si>
+    <t>Responded August 11, 2016</t>
+  </si>
+  <si>
+    <t>Strange, nasty looking men with hoodies and a drink in their hand knocking on your door demanding to be let in is never a good sign that this is a motel you want to stay in! Or lots of cop cars late at night in the parking lot...found used needled in the parking lot.  Desk clerks don't care, just take the money and give em keys..and the dogs? Don't get me started! Never again.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55732-d98786-r368457949-Studio_6_Denton_UNT-Denton_Texas.html</t>
+  </si>
+  <si>
+    <t>368457949</t>
+  </si>
+  <si>
+    <t>04/28/2016</t>
+  </si>
+  <si>
+    <t>Basic but clean, comfortable and fine for the price</t>
+  </si>
+  <si>
+    <t>I stayed here for a week or so 4 years and two hotel chains ago.  I recently ended another extended stay and can report that the hotel is still good value.  When I say that the room looked the same as the one I had 4 years ago-that is a compliment-I am not sure it was updated as bathroom is small and nothing special (slow toilet but good hot water in shower) but the small kitchenette is a good addition.  Soap was small and skimpy and towels very thin but overall, I was comfortable and safe for my time there.  There are as said, some permanent residents and some construction workers there but no odd people or things during my stay.  I would recommend this as basic but good value (prices are higher at some other places that are just as basic) and would stay here again.  I was on the first floor both times I stayed here but see that a second floor room might be better as no overhead noise.MoreShow less</t>
+  </si>
+  <si>
+    <t>April 2016</t>
+  </si>
+  <si>
+    <t>I stayed here for a week or so 4 years and two hotel chains ago.  I recently ended another extended stay and can report that the hotel is still good value.  When I say that the room looked the same as the one I had 4 years ago-that is a compliment-I am not sure it was updated as bathroom is small and nothing special (slow toilet but good hot water in shower) but the small kitchenette is a good addition.  Soap was small and skimpy and towels very thin but overall, I was comfortable and safe for my time there.  There are as said, some permanent residents and some construction workers there but no odd people or things during my stay.  I would recommend this as basic but good value (prices are higher at some other places that are just as basic) and would stay here again.  I was on the first floor both times I stayed here but see that a second floor room might be better as no overhead noise.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55732-d98786-r366212831-Studio_6_Denton_UNT-Denton_Texas.html</t>
+  </si>
+  <si>
+    <t>366212831</t>
+  </si>
+  <si>
+    <t>04/21/2016</t>
+  </si>
+  <si>
+    <t>Well worth the $</t>
+  </si>
+  <si>
+    <t>You don't expect a Hilton for these prices, but it was well worth the money. Good wifi, comfy and clean room (even spacious; I had a handicapped), lots of food options close, full size frig and a microwave.  Glad I gave it a shot.</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55732-d98786-r363198802-Studio_6_Denton_UNT-Denton_Texas.html</t>
+  </si>
+  <si>
+    <t>363198802</t>
+  </si>
+  <si>
+    <t>04/10/2016</t>
+  </si>
+  <si>
+    <t>Narcar race weekend stay</t>
+  </si>
+  <si>
+    <t>First time to stay at these accomodations. They were very nice, clean and within 15 minutes of the track. I was very impresseed with the flooring not being carpet. I think this was much cleaner and attractive. We would certainly stay at this location again. I would recommend it to others. The room was like an efficiency. Very accomodating. The only are that was a little small was the space for the desk area but my laptop fit there. There was just a very small space that would be considered for a desk arae. .</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55732-d98786-r321717817-Studio_6_Denton_UNT-Denton_Texas.html</t>
+  </si>
+  <si>
+    <t>321717817</t>
+  </si>
+  <si>
+    <t>10/25/2015</t>
+  </si>
+  <si>
+    <t>Great Place! Clean and comfortable!</t>
+  </si>
+  <si>
+    <t>I stayed here few weeks ago, I come to denton often to visit my son in college. Great place, very comfortable. Great STAFF!!! Everyone in the front office and housekeeping were very helpful. Wifi is fast, i had no problems with it.  No need to dine out, i make my own food here right in the room. Flatscreen TV in room with great variety of channels. The beds are extremely comfortable.  I would stay no where else but here! EXCELLENT place!</t>
+  </si>
+  <si>
+    <t>September 2015</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55732-d98786-r317880556-Studio_6_Denton_UNT-Denton_Texas.html</t>
+  </si>
+  <si>
+    <t>317880556</t>
+  </si>
+  <si>
+    <t>10/11/2015</t>
+  </si>
+  <si>
+    <t>Not what I expected from the reviews.</t>
+  </si>
+  <si>
+    <t>This was not what I was expecting from the reviews. The room was updated but it was not very clean. Carpet was filthy with wrinkles. Bed sheets where clean but not white. It was a no smoking room that smelled of smoke. While the kitchen was in great condition, the bath room was in poor repair and needed scrubbing. I suppose it was what I should have expected for Motel 6.</t>
+  </si>
+  <si>
+    <t>October 2015</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55732-d98786-r307943877-Studio_6_Denton_UNT-Denton_Texas.html</t>
+  </si>
+  <si>
+    <t>307943877</t>
+  </si>
+  <si>
+    <t>09/07/2015</t>
+  </si>
+  <si>
+    <t>Filthy grounds</t>
+  </si>
+  <si>
+    <t>The room was OK but the grounds were just filthy and littered with garbage.  Not worth it even at the low price.  I just don't understand how management could allow the staff to lift the full trash bags out of the garbage cans in the hallways,  set them next to the can, put a new liner in, and leave them there.  I counted three full bags of rotting garbage next to the can outside my room. If the hallways were clean it would be a fine place to stay.MoreShow less</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> traveled on business</t>
+  </si>
+  <si>
+    <t>Nick P, General Manager at Studio 6 Denton - UNT, responded to this reviewResponded September 9, 2015</t>
+  </si>
+  <si>
+    <t>Responded September 9, 2015</t>
+  </si>
+  <si>
+    <t>The room was OK but the grounds were just filthy and littered with garbage.  Not worth it even at the low price.  I just don't understand how management could allow the staff to lift the full trash bags out of the garbage cans in the hallways,  set them next to the can, put a new liner in, and leave them there.  I counted three full bags of rotting garbage next to the can outside my room. If the hallways were clean it would be a fine place to stay.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55732-d98786-r259502147-Studio_6_Denton_UNT-Denton_Texas.html</t>
+  </si>
+  <si>
+    <t>259502147</t>
+  </si>
+  <si>
+    <t>03/14/2015</t>
+  </si>
+  <si>
+    <t>Clean. Comfortable. And cheap.</t>
+  </si>
+  <si>
+    <t>We had our 6 kids with us and got 2 rooms. We were really impressed with how clean and fresh everything was. Beds were clean and comfortable. Had kitchenettes. Everything was newly decorated. New cupboards. Fridge. Stove. Microwave. Was affordable.  We will stay again. MoreShow less</t>
+  </si>
+  <si>
+    <t>March 2015</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> traveled with friends</t>
+  </si>
+  <si>
+    <t>Nick P, General Manager at Studio 6 Denton - UNT, responded to this reviewResponded March 16, 2015</t>
+  </si>
+  <si>
+    <t>Responded March 16, 2015</t>
+  </si>
+  <si>
+    <t>We had our 6 kids with us and got 2 rooms. We were really impressed with how clean and fresh everything was. Beds were clean and comfortable. Had kitchenettes. Everything was newly decorated. New cupboards. Fridge. Stove. Microwave. Was affordable.  We will stay again. More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55732-d98786-r255438285-Studio_6_Denton_UNT-Denton_Texas.html</t>
+  </si>
+  <si>
+    <t>255438285</t>
+  </si>
+  <si>
+    <t>02/20/2015</t>
+  </si>
+  <si>
+    <t>Most comfortable beds !!!!!</t>
+  </si>
+  <si>
+    <t>I was little worried as the room price was so low that how would the room look like. But trust me the moment I opened the room It was fantastic super clean and pretty much everything you need except "COFFEE MACHINE" it was not an issue as my room was close to the lobby and they had some really strong &amp; fresh coffee in the lobby. At checkout the gentlemen was very nice and generous he helped me with my luggage.MoreShow less</t>
+  </si>
+  <si>
+    <t>February 2015</t>
+  </si>
+  <si>
+    <t>I was little worried as the room price was so low that how would the room look like. But trust me the moment I opened the room It was fantastic super clean and pretty much everything you need except "COFFEE MACHINE" it was not an issue as my room was close to the lobby and they had some really strong &amp; fresh coffee in the lobby. At checkout the gentlemen was very nice and generous he helped me with my luggage.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55732-d98786-r249649475-Studio_6_Denton_UNT-Denton_Texas.html</t>
+  </si>
+  <si>
+    <t>249649475</t>
+  </si>
+  <si>
+    <t>01/16/2015</t>
+  </si>
+  <si>
+    <t>WATCH OUT FOR BED BUGS!</t>
+  </si>
+  <si>
+    <t>I stayed at this hotel on my way through town. The room was missing chunks of carpet and then I woke up at 2 o'clock in the morning to a bed bug on my pillow. The manager wouldn't give me a refund until his bug guy would come... well three week later he hasn't called me back! I've called several times and he is never available. I wouldn't stay here if my life depended on it. Disgusting! You're better off staying in your car!MoreShow less</t>
+  </si>
+  <si>
+    <t>January 2015</t>
+  </si>
+  <si>
+    <t>Nick P, General Manager at Studio 6 Denton - UNT, responded to this reviewResponded January 18, 2015</t>
+  </si>
+  <si>
+    <t>Responded January 18, 2015</t>
+  </si>
+  <si>
+    <t>I stayed at this hotel on my way through town. The room was missing chunks of carpet and then I woke up at 2 o'clock in the morning to a bed bug on my pillow. The manager wouldn't give me a refund until his bug guy would come... well three week later he hasn't called me back! I've called several times and he is never available. I wouldn't stay here if my life depended on it. Disgusting! You're better off staying in your car!More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55732-d98786-r238817660-Studio_6_Denton_UNT-Denton_Texas.html</t>
+  </si>
+  <si>
+    <t>238817660</t>
+  </si>
+  <si>
+    <t>11/08/2014</t>
+  </si>
+  <si>
+    <t>Our first experience of a Motel 6</t>
+  </si>
+  <si>
+    <t>We'd asked for a quiet room, but had been booked for one facing the busy road. Having visited it, we returned to front desk and asked for a swap to the back, that was very pleasantly arranged by Sei. A much less traffic disturbed room on 2nd floor, but there was no fridge unlike the first room (Why not? It was exactly the same size and shape?) At night time there was a lot of noise into the small hours from guests who seemed to be walking and talking loudly along the decks outside the rooms. Internally the room was absolutely fine: very clean, extremely comfortable beds and a neat bathroom arrangement. We thought that for the price and via booking.com we were getting a breakfast, but were told that there was none provided.MoreShow less</t>
+  </si>
+  <si>
+    <t>November 2014</t>
+  </si>
+  <si>
+    <t>Nick P, General Manager at Studio 6 Denton - UNT, responded to this reviewResponded November 11, 2014</t>
+  </si>
+  <si>
+    <t>Responded November 11, 2014</t>
+  </si>
+  <si>
+    <t>We'd asked for a quiet room, but had been booked for one facing the busy road. Having visited it, we returned to front desk and asked for a swap to the back, that was very pleasantly arranged by Sei. A much less traffic disturbed room on 2nd floor, but there was no fridge unlike the first room (Why not? It was exactly the same size and shape?) At night time there was a lot of noise into the small hours from guests who seemed to be walking and talking loudly along the decks outside the rooms. Internally the room was absolutely fine: very clean, extremely comfortable beds and a neat bathroom arrangement. We thought that for the price and via booking.com we were getting a breakfast, but were told that there was none provided.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55732-d98786-r235017046-Studio_6_Denton_UNT-Denton_Texas.html</t>
+  </si>
+  <si>
+    <t>235017046</t>
+  </si>
+  <si>
+    <t>10/18/2014</t>
+  </si>
+  <si>
+    <t>Stay here</t>
+  </si>
+  <si>
+    <t>The cleaning staff and staff up front are very nice.the rooms are very Clean and kept clean.lots of friendly people and kids. Close to the grocery store, food places and the gas station. And very close to unt and twu. Pets allowed. Nice tv's Wi-Fi. Quiet area. MoreShow less</t>
+  </si>
+  <si>
+    <t>Nick P, General Manager at Studio 6 Denton - UNT, responded to this reviewResponded October 20, 2014</t>
+  </si>
+  <si>
+    <t>Responded October 20, 2014</t>
+  </si>
+  <si>
+    <t>The cleaning staff and staff up front are very nice.the rooms are very Clean and kept clean.lots of friendly people and kids. Close to the grocery store, food places and the gas station. And very close to unt and twu. Pets allowed. Nice tv's Wi-Fi. Quiet area. More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55732-d98786-r219553003-Studio_6_Denton_UNT-Denton_Texas.html</t>
+  </si>
+  <si>
+    <t>219553003</t>
+  </si>
+  <si>
+    <t>08/04/2014</t>
+  </si>
+  <si>
+    <t>comfortable</t>
+  </si>
+  <si>
+    <t>I really enjoyed my stay here and I'll be staying here from now on when I visit the denton. It's very clean and cozy. The location is great. The owners are super nice people. You'll love it there. I would recommend this to anyone looking for a good stay in the dentonMoreShow less</t>
+  </si>
+  <si>
+    <t>July 2014</t>
+  </si>
+  <si>
+    <t>Nick P, General Manager at Studio 6 Denton - UNT, responded to this reviewResponded August 6, 2014</t>
+  </si>
+  <si>
+    <t>Responded August 6, 2014</t>
+  </si>
+  <si>
+    <t>I really enjoyed my stay here and I'll be staying here from now on when I visit the denton. It's very clean and cozy. The location is great. The owners are super nice people. You'll love it there. I would recommend this to anyone looking for a good stay in the dentonMore</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55732-d98786-r212406749-Studio_6_Denton_UNT-Denton_Texas.html</t>
+  </si>
+  <si>
+    <t>212406749</t>
+  </si>
+  <si>
+    <t>06/27/2014</t>
+  </si>
+  <si>
+    <t>Bait and Switch</t>
+  </si>
+  <si>
+    <t>Shame on you Motel 6. You advertise one rate and then charge me another without clearing it with me first.  I question the clerk and he says that "all of the rooms that get that rate are already booked."  I say "that's not right - you should have told me before you charged my card", to which he replied, "you should have asked!"  To add insult to injury, the non-smoking room WREAKS of smoke.  I'm tired and it's late or I would go somewhere else...   oh yeah, he has already charged my card...  shame on you Motel 6...  BIG bait and switch!!!!!!!!!MoreShow less</t>
+  </si>
+  <si>
+    <t>June 2014</t>
+  </si>
+  <si>
+    <t>Nick P, General Manager at Studio 6 Denton - UNT, responded to this reviewResponded July 1, 2014</t>
+  </si>
+  <si>
+    <t>Responded July 1, 2014</t>
+  </si>
+  <si>
+    <t>Shame on you Motel 6. You advertise one rate and then charge me another without clearing it with me first.  I question the clerk and he says that "all of the rooms that get that rate are already booked."  I say "that's not right - you should have told me before you charged my card", to which he replied, "you should have asked!"  To add insult to injury, the non-smoking room WREAKS of smoke.  I'm tired and it's late or I would go somewhere else...   oh yeah, he has already charged my card...  shame on you Motel 6...  BIG bait and switch!!!!!!!!!More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55732-d98786-r212074521-Studio_6_Denton_UNT-Denton_Texas.html</t>
+  </si>
+  <si>
+    <t>212074521</t>
+  </si>
+  <si>
+    <t>06/25/2014</t>
+  </si>
+  <si>
+    <t>Rat and Cockaroach Infested</t>
+  </si>
+  <si>
+    <t>This was the worst hotel I ever stayed in . There was finger prints on the walls and the walls were a live . There were cockaroaches running around on the carpet. My Family was mortified . We were suppose to spend a week here , but we had to leave the first night .Dont waste your moneyMoreShow less</t>
+  </si>
+  <si>
+    <t>Nick P, General Manager at Studio 6 Denton - UNT, responded to this reviewResponded June 26, 2014</t>
+  </si>
+  <si>
+    <t>Responded June 26, 2014</t>
+  </si>
+  <si>
+    <t>This was the worst hotel I ever stayed in . There was finger prints on the walls and the walls were a live . There were cockaroaches running around on the carpet. My Family was mortified . We were suppose to spend a week here , but we had to leave the first night .Dont waste your moneyMore</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55732-d98786-r211556131-Studio_6_Denton_UNT-Denton_Texas.html</t>
+  </si>
+  <si>
+    <t>211556131</t>
+  </si>
+  <si>
+    <t>06/22/2014</t>
+  </si>
+  <si>
+    <t>Improve the front desk</t>
+  </si>
+  <si>
+    <t>Always make sure someone is at the main check in desk.  I showed up around 10:45 pm after a very long day of driving, and the front door was locked.  No one answered the phone (I called the hotel number and could hear the phone ringing inside). A couple other potential guests showed up while I was waiting, but they probably went to other hotels.   Finally, I called the 800 number for Motel 6.  I had made a reservation and didn't want to be charged if I was never able to check in.  While on hold, the guy who was supposed to be at the front desk showed up.  He said he'd had to go help another guest with a TV, and didn't immediately apologize for making me wait.  He said he was only gone 10 minutes but it was more like 20.  He did compensate me by giving me the suite for the price I was paying for a regular room.  The next morning I went to get coffee at 7:30 am but it was out.  The same guy was there and he did immediately say he would make another pot.  But seriously, that motel needs to get a bigger coffee pot or make some extra.  The room was okay.  Moderately clean.  It had a fridge, which I used.  One of the like fixtures rattled while the AC was on, but I pushed it a little bit and it...Always make sure someone is at the main check in desk.  I showed up around 10:45 pm after a very long day of driving, and the front door was locked.  No one answered the phone (I called the hotel number and could hear the phone ringing inside). A couple other potential guests showed up while I was waiting, but they probably went to other hotels.   Finally, I called the 800 number for Motel 6.  I had made a reservation and didn't want to be charged if I was never able to check in.  While on hold, the guy who was supposed to be at the front desk showed up.  He said he'd had to go help another guest with a TV, and didn't immediately apologize for making me wait.  He said he was only gone 10 minutes but it was more like 20.  He did compensate me by giving me the suite for the price I was paying for a regular room.  The next morning I went to get coffee at 7:30 am but it was out.  The same guy was there and he did immediately say he would make another pot.  But seriously, that motel needs to get a bigger coffee pot or make some extra.  The room was okay.  Moderately clean.  It had a fridge, which I used.  One of the like fixtures rattled while the AC was on, but I pushed it a little bit and it stopped.MoreShow less</t>
+  </si>
+  <si>
+    <t>Nick P, General Manager at Studio 6 Denton - UNT, responded to this reviewResponded June 24, 2014</t>
+  </si>
+  <si>
+    <t>Responded June 24, 2014</t>
+  </si>
+  <si>
+    <t>Always make sure someone is at the main check in desk.  I showed up around 10:45 pm after a very long day of driving, and the front door was locked.  No one answered the phone (I called the hotel number and could hear the phone ringing inside). A couple other potential guests showed up while I was waiting, but they probably went to other hotels.   Finally, I called the 800 number for Motel 6.  I had made a reservation and didn't want to be charged if I was never able to check in.  While on hold, the guy who was supposed to be at the front desk showed up.  He said he'd had to go help another guest with a TV, and didn't immediately apologize for making me wait.  He said he was only gone 10 minutes but it was more like 20.  He did compensate me by giving me the suite for the price I was paying for a regular room.  The next morning I went to get coffee at 7:30 am but it was out.  The same guy was there and he did immediately say he would make another pot.  But seriously, that motel needs to get a bigger coffee pot or make some extra.  The room was okay.  Moderately clean.  It had a fridge, which I used.  One of the like fixtures rattled while the AC was on, but I pushed it a little bit and it...Always make sure someone is at the main check in desk.  I showed up around 10:45 pm after a very long day of driving, and the front door was locked.  No one answered the phone (I called the hotel number and could hear the phone ringing inside). A couple other potential guests showed up while I was waiting, but they probably went to other hotels.   Finally, I called the 800 number for Motel 6.  I had made a reservation and didn't want to be charged if I was never able to check in.  While on hold, the guy who was supposed to be at the front desk showed up.  He said he'd had to go help another guest with a TV, and didn't immediately apologize for making me wait.  He said he was only gone 10 minutes but it was more like 20.  He did compensate me by giving me the suite for the price I was paying for a regular room.  The next morning I went to get coffee at 7:30 am but it was out.  The same guy was there and he did immediately say he would make another pot.  But seriously, that motel needs to get a bigger coffee pot or make some extra.  The room was okay.  Moderately clean.  It had a fridge, which I used.  One of the like fixtures rattled while the AC was on, but I pushed it a little bit and it stopped.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55732-d98786-r209343337-Studio_6_Denton_UNT-Denton_Texas.html</t>
+  </si>
+  <si>
+    <t>209343337</t>
+  </si>
+  <si>
+    <t>06/07/2014</t>
+  </si>
+  <si>
+    <t>Run From This Place!</t>
+  </si>
+  <si>
+    <t>After coming into Denton for family, this was the only hotel left that had a smoking room. Once we got back to the hotel, we went to lock the door and got locked in. The door would not open or unlock! Called down to the front desk and the clerk said, " Well what do you want me to do about I?" An hour later he finally got up here to get the door fix. Now the door wont lock and we cant get our money back. What a great set up. Will  be up all night to make sure no one comes thru the door. Next time Motel 6, go ahead and turn the night off, no one wants to stay in your pits. Paid $109 for this smoking king suite.MoreShow less</t>
+  </si>
+  <si>
+    <t>After coming into Denton for family, this was the only hotel left that had a smoking room. Once we got back to the hotel, we went to lock the door and got locked in. The door would not open or unlock! Called down to the front desk and the clerk said, " Well what do you want me to do about I?" An hour later he finally got up here to get the door fix. Now the door wont lock and we cant get our money back. What a great set up. Will  be up all night to make sure no one comes thru the door. Next time Motel 6, go ahead and turn the night off, no one wants to stay in your pits. Paid $109 for this smoking king suite.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55732-d98786-r202923551-Studio_6_Denton_UNT-Denton_Texas.html</t>
+  </si>
+  <si>
+    <t>202923551</t>
+  </si>
+  <si>
+    <t>04/27/2014</t>
+  </si>
+  <si>
+    <t>Roaches crawling on the walls</t>
+  </si>
+  <si>
+    <t>After reading all the great reviews, I'm wondering if these folks who wrote them really stayed here.Used to stay here when it was La Quinta, and even then it wasn't a 4 star hotel but at least it was clean. Now that it's a Motel 6, it's gone down hill. Room walls and carpet were filthy! Door lock did not lock and discovered roaches crawling on the walls in the bathroom in the morning. Property is run down. Overall, dirty property suited for a "flop house".MoreShow less</t>
+  </si>
+  <si>
+    <t>April 2014</t>
+  </si>
+  <si>
+    <t>Nick P, General Manager at Studio 6 Denton - UNT, responded to this reviewResponded April 28, 2014</t>
+  </si>
+  <si>
+    <t>Responded April 28, 2014</t>
+  </si>
+  <si>
+    <t>After reading all the great reviews, I'm wondering if these folks who wrote them really stayed here.Used to stay here when it was La Quinta, and even then it wasn't a 4 star hotel but at least it was clean. Now that it's a Motel 6, it's gone down hill. Room walls and carpet were filthy! Door lock did not lock and discovered roaches crawling on the walls in the bathroom in the morning. Property is run down. Overall, dirty property suited for a "flop house".More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55732-d98786-r202624785-Studio_6_Denton_UNT-Denton_Texas.html</t>
+  </si>
+  <si>
+    <t>202624785</t>
+  </si>
+  <si>
+    <t>04/24/2014</t>
+  </si>
+  <si>
+    <t>Cleanest MOTEL6 !!!!!</t>
+  </si>
+  <si>
+    <t>Its an old La Quinta converted to a motel6. Best thing about them is they are still maintaining the quality of rooms and providing it for a way cheaper price. Personally me I loved the place it was nice and clean. It wasn't that highly equipped like expensive hotels but thats acceptable for the price they offered me. They have free wifi and I guess that's all I need.MoreShow less</t>
+  </si>
+  <si>
+    <t>February 2014</t>
+  </si>
+  <si>
+    <t>Its an old La Quinta converted to a motel6. Best thing about them is they are still maintaining the quality of rooms and providing it for a way cheaper price. Personally me I loved the place it was nice and clean. It wasn't that highly equipped like expensive hotels but thats acceptable for the price they offered me. They have free wifi and I guess that's all I need.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55732-d98786-r201180620-Studio_6_Denton_UNT-Denton_Texas.html</t>
+  </si>
+  <si>
+    <t>201180620</t>
+  </si>
+  <si>
+    <t>04/15/2014</t>
+  </si>
+  <si>
+    <t>Best place to stay!!!!!</t>
+  </si>
+  <si>
+    <t>At check inn staff was very professional and extremely fast! Rooms were more clean and beautiful than i expected for the price. I just paid $45.19!In morning they don't free breakfast but the restaurant next door has really good american and greek food.In all best place to stay......MoreShow less</t>
+  </si>
+  <si>
+    <t>Nick P, General Manager at Studio 6 Denton - UNT, responded to this reviewResponded April 16, 2014</t>
+  </si>
+  <si>
+    <t>Responded April 16, 2014</t>
+  </si>
+  <si>
+    <t>At check inn staff was very professional and extremely fast! Rooms were more clean and beautiful than i expected for the price. I just paid $45.19!In morning they don't free breakfast but the restaurant next door has really good american and greek food.In all best place to stay......More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55732-d98786-r201110422-Studio_6_Denton_UNT-Denton_Texas.html</t>
+  </si>
+  <si>
+    <t>201110422</t>
+  </si>
+  <si>
+    <t>04/14/2014</t>
+  </si>
+  <si>
+    <t>Clean at a Reasonable Price</t>
+  </si>
+  <si>
+    <t>THis property formerly was a La Quinta some time ago.. It is a basic facility that does not offer breakfast (not that budget establishment offer much in the way  of breakfast) or bathroom toiletries.. It is adjacent to I-35 but far away so that noise is nopt a concerm. The clmate control worked properly and there was plenty of hot water during my two-night stay. I was never able to figure out the shower operation but did not contact front desk.There is a Greek -American restaurant next door and a hamburger joint next to the restaurant.This motel is about 1.5 miles west of Denton Center on a moderately busy street. THe motel. is apparently in a transition mode as there were numerous tables and chairs in the small lobby propably dating to the a Quinta period. Several very large boxes were in the lobby awainting unpacking..MoreShow less</t>
+  </si>
+  <si>
+    <t>THis property formerly was a La Quinta some time ago.. It is a basic facility that does not offer breakfast (not that budget establishment offer much in the way  of breakfast) or bathroom toiletries.. It is adjacent to I-35 but far away so that noise is nopt a concerm. The clmate control worked properly and there was plenty of hot water during my two-night stay. I was never able to figure out the shower operation but did not contact front desk.There is a Greek -American restaurant next door and a hamburger joint next to the restaurant.This motel is about 1.5 miles west of Denton Center on a moderately busy street. THe motel. is apparently in a transition mode as there were numerous tables and chairs in the small lobby propably dating to the a Quinta period. Several very large boxes were in the lobby awainting unpacking..More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55732-d98786-r198939821-Studio_6_Denton_UNT-Denton_Texas.html</t>
+  </si>
+  <si>
+    <t>198939821</t>
+  </si>
+  <si>
+    <t>03/27/2014</t>
+  </si>
+  <si>
+    <t>Horrible Service</t>
+  </si>
+  <si>
+    <t>Of course, motel 6 is super cheap and known for their "inexpensive" rooms. I called the receptionist to book a room for TWO nights. The receptionist was obviously a non-english speaking person. He did not understand what I was trying to say at all and got frustrated when I asked him to repeat himself. Long story short, after I gave him all my credit info, I decided NOT to book with this motel just because of the unprofessionalism and rudeness of this man. I told him TO NOT book my room for me and if I wanted one, I'll just come IN PERSON to book the room. He assured me that if he even booked it, I will receive an email confirmation (in which I did not). Of course, I never ever went back trying to get a room. I'll rather spend more money elsewhere where I would receive better service.
+Eventually, I noticed a charge come up on my card! I called to speak to a manager and nobody was available. Eventually, my bank got a hold of the manager and he said that he would "further investigate" and get back to me. He assured me that he did not want my money and I will receive a refund after his investigation. I NEVER RECEIVED A CALL BACK NOR DID I RECEIVE A REFUND. He also told me that I was booked for four nights! Um, no you dumb...Of course, motel 6 is super cheap and known for their "inexpensive" rooms. I called the receptionist to book a room for TWO nights. The receptionist was obviously a non-english speaking person. He did not understand what I was trying to say at all and got frustrated when I asked him to repeat himself. Long story short, after I gave him all my credit info, I decided NOT to book with this motel just because of the unprofessionalism and rudeness of this man. I told him TO NOT book my room for me and if I wanted one, I'll just come IN PERSON to book the room. He assured me that if he even booked it, I will receive an email confirmation (in which I did not). Of course, I never ever went back trying to get a room. I'll rather spend more money elsewhere where I would receive better service.Eventually, I noticed a charge come up on my card! I called to speak to a manager and nobody was available. Eventually, my bank got a hold of the manager and he said that he would "further investigate" and get back to me. He assured me that he did not want my money and I will receive a refund after his investigation. I NEVER RECEIVED A CALL BACK NOR DID I RECEIVE A REFUND. He also told me that I was booked for four nights! Um, no you dumb zhit, i asked for two nights because I was there on a business trip. Rude, non-english speaking, money hungry motel and staff! No wonder they are on the BOTTOM of all the motels and hotels in the world. I've never booked at any MOTEL 6 before and this situation proves exactly WHY I will NEVER book from them or from any Motel 6!MoreShow less</t>
+  </si>
+  <si>
+    <t>March 2014</t>
+  </si>
+  <si>
+    <t>Nick P, General Manager at Studio 6 Denton - UNT, responded to this reviewResponded March 29, 2014</t>
+  </si>
+  <si>
+    <t>Responded March 29, 2014</t>
+  </si>
+  <si>
+    <t>Of course, motel 6 is super cheap and known for their "inexpensive" rooms. I called the receptionist to book a room for TWO nights. The receptionist was obviously a non-english speaking person. He did not understand what I was trying to say at all and got frustrated when I asked him to repeat himself. Long story short, after I gave him all my credit info, I decided NOT to book with this motel just because of the unprofessionalism and rudeness of this man. I told him TO NOT book my room for me and if I wanted one, I'll just come IN PERSON to book the room. He assured me that if he even booked it, I will receive an email confirmation (in which I did not). Of course, I never ever went back trying to get a room. I'll rather spend more money elsewhere where I would receive better service.
+Eventually, I noticed a charge come up on my card! I called to speak to a manager and nobody was available. Eventually, my bank got a hold of the manager and he said that he would "further investigate" and get back to me. He assured me that he did not want my money and I will receive a refund after his investigation. I NEVER RECEIVED A CALL BACK NOR DID I RECEIVE A REFUND. He also told me that I was booked for four nights! Um, no you dumb...Of course, motel 6 is super cheap and known for their "inexpensive" rooms. I called the receptionist to book a room for TWO nights. The receptionist was obviously a non-english speaking person. He did not understand what I was trying to say at all and got frustrated when I asked him to repeat himself. Long story short, after I gave him all my credit info, I decided NOT to book with this motel just because of the unprofessionalism and rudeness of this man. I told him TO NOT book my room for me and if I wanted one, I'll just come IN PERSON to book the room. He assured me that if he even booked it, I will receive an email confirmation (in which I did not). Of course, I never ever went back trying to get a room. I'll rather spend more money elsewhere where I would receive better service.Eventually, I noticed a charge come up on my card! I called to speak to a manager and nobody was available. Eventually, my bank got a hold of the manager and he said that he would "further investigate" and get back to me. He assured me that he did not want my money and I will receive a refund after his investigation. I NEVER RECEIVED A CALL BACK NOR DID I RECEIVE A REFUND. He also told me that I was booked for four nights! Um, no you dumb zhit, i asked for two nights because I was there on a business trip. Rude, non-english speaking, money hungry motel and staff! No wonder they are on the BOTTOM of all the motels and hotels in the world. I've never booked at any MOTEL 6 before and this situation proves exactly WHY I will NEVER book from them or from any Motel 6!More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55732-d98786-r173353276-Studio_6_Denton_UNT-Denton_Texas.html</t>
+  </si>
+  <si>
+    <t>173353276</t>
+  </si>
+  <si>
+    <t>08/21/2013</t>
+  </si>
+  <si>
+    <t>Now a motel 6 - but still very good</t>
+  </si>
+  <si>
+    <t>While this property was sold from laquinta to motel 6 the upkeep and service is still very good.
+The Good: staff is eager to help.  pool is meticulous and partially shaded.  A little diner resides adjacent to the property that serves average diner food - but its a good price and good service.  Several good restaurants in the area (try Viet Bites).  The beds are remarkably comfortable.  The bathrooms were cleaned well (this is something I always look for in a hotel).  The room was in good condition.  The air conditioner is overpowered for the room and straight up could refrigerate beer if you wanted it to - so that is a huge plus.  I have been staying a week now on business and there has been no late parties or anything like that so its quiet.  My car has been safe in the parking lot.  Maids do a good job cleaning every day.
+The Bad: Ice machine is either not working or the other guests at the hotel are constantly filling up massive coolers because I can only ever seem to achieve a half a tin of ice.  The guest laundry is not good - I would advise using off site laundry facilities.  the pool is small.  The new management does not provide continental breakfast as indicated.
+Overall: this is a good location close to the colleges and the highway.  If you are not looking for a stay at...While this property was sold from laquinta to motel 6 the upkeep and service is still very good.The Good: staff is eager to help.  pool is meticulous and partially shaded.  A little diner resides adjacent to the property that serves average diner food - but its a good price and good service.  Several good restaurants in the area (try Viet Bites).  The beds are remarkably comfortable.  The bathrooms were cleaned well (this is something I always look for in a hotel).  The room was in good condition.  The air conditioner is overpowered for the room and straight up could refrigerate beer if you wanted it to - so that is a huge plus.  I have been staying a week now on business and there has been no late parties or anything like that so its quiet.  My car has been safe in the parking lot.  Maids do a good job cleaning every day.The Bad: Ice machine is either not working or the other guests at the hotel are constantly filling up massive coolers because I can only ever seem to achieve a half a tin of ice.  The guest laundry is not good - I would advise using off site laundry facilities.  the pool is small.  The new management does not provide continental breakfast as indicated.Overall: this is a good location close to the colleges and the highway.  If you are not looking for a stay at the Taj Mahal this is an economical, clean, well run hotel for a great price.  I have no significant complaints.  I would stay here again and I would suggest to friends and family.MoreShow less</t>
+  </si>
+  <si>
+    <t>August 2013</t>
+  </si>
+  <si>
+    <t>Nick P, General Manager at Studio 6 Denton - UNT, responded to this reviewResponded October 22, 2013</t>
+  </si>
+  <si>
+    <t>Responded October 22, 2013</t>
+  </si>
+  <si>
+    <t>While this property was sold from laquinta to motel 6 the upkeep and service is still very good.
+The Good: staff is eager to help.  pool is meticulous and partially shaded.  A little diner resides adjacent to the property that serves average diner food - but its a good price and good service.  Several good restaurants in the area (try Viet Bites).  The beds are remarkably comfortable.  The bathrooms were cleaned well (this is something I always look for in a hotel).  The room was in good condition.  The air conditioner is overpowered for the room and straight up could refrigerate beer if you wanted it to - so that is a huge plus.  I have been staying a week now on business and there has been no late parties or anything like that so its quiet.  My car has been safe in the parking lot.  Maids do a good job cleaning every day.
+The Bad: Ice machine is either not working or the other guests at the hotel are constantly filling up massive coolers because I can only ever seem to achieve a half a tin of ice.  The guest laundry is not good - I would advise using off site laundry facilities.  the pool is small.  The new management does not provide continental breakfast as indicated.
+Overall: this is a good location close to the colleges and the highway.  If you are not looking for a stay at...While this property was sold from laquinta to motel 6 the upkeep and service is still very good.The Good: staff is eager to help.  pool is meticulous and partially shaded.  A little diner resides adjacent to the property that serves average diner food - but its a good price and good service.  Several good restaurants in the area (try Viet Bites).  The beds are remarkably comfortable.  The bathrooms were cleaned well (this is something I always look for in a hotel).  The room was in good condition.  The air conditioner is overpowered for the room and straight up could refrigerate beer if you wanted it to - so that is a huge plus.  I have been staying a week now on business and there has been no late parties or anything like that so its quiet.  My car has been safe in the parking lot.  Maids do a good job cleaning every day.The Bad: Ice machine is either not working or the other guests at the hotel are constantly filling up massive coolers because I can only ever seem to achieve a half a tin of ice.  The guest laundry is not good - I would advise using off site laundry facilities.  the pool is small.  The new management does not provide continental breakfast as indicated.Overall: this is a good location close to the colleges and the highway.  If you are not looking for a stay at the Taj Mahal this is an economical, clean, well run hotel for a great price.  I have no significant complaints.  I would stay here again and I would suggest to friends and family.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55732-d98786-r168165893-Studio_6_Denton_UNT-Denton_Texas.html</t>
+  </si>
+  <si>
+    <t>168165893</t>
+  </si>
+  <si>
+    <t>07/19/2013</t>
+  </si>
+  <si>
+    <t>A dump. Now a Motel 6.</t>
+  </si>
+  <si>
+    <t>I chose this place based on the LaQuinta name, paying an extra $15 a night over another option. What a mistake.Having reserved a two-bed, non-smoking room, we arrived and were told that there were no more non-smoking rooms. The desk clerk said the woman who assigns the rooms just puts people in smoking rooms by default. After insisting on a non-smoking room, we were "upgraded" to a suite. The rooms were filthy. Dirt on the walls surrounding the air vents, a giant hole burned in the carpet, and furniture with stains on the upholstery. And the door either didn't lock, or when it did, wouldn't open afterward. (Fire hazard!)Midway through our three-night stay, we received a letter saying the hotel would no longer be a LaQuinta and a Motel 6 sign was hoisted into place outside. Whatever the brand, I wouldn't stay here again if you paid me.MoreShow less</t>
+  </si>
+  <si>
+    <t>July 2013</t>
+  </si>
+  <si>
+    <t>I chose this place based on the LaQuinta name, paying an extra $15 a night over another option. What a mistake.Having reserved a two-bed, non-smoking room, we arrived and were told that there were no more non-smoking rooms. The desk clerk said the woman who assigns the rooms just puts people in smoking rooms by default. After insisting on a non-smoking room, we were "upgraded" to a suite. The rooms were filthy. Dirt on the walls surrounding the air vents, a giant hole burned in the carpet, and furniture with stains on the upholstery. And the door either didn't lock, or when it did, wouldn't open afterward. (Fire hazard!)Midway through our three-night stay, we received a letter saying the hotel would no longer be a LaQuinta and a Motel 6 sign was hoisted into place outside. Whatever the brand, I wouldn't stay here again if you paid me.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55732-d98786-r168090478-Studio_6_Denton_UNT-Denton_Texas.html</t>
+  </si>
+  <si>
+    <t>168090478</t>
+  </si>
+  <si>
+    <t>07/18/2013</t>
+  </si>
+  <si>
+    <t>Quick Overnight Visit</t>
+  </si>
+  <si>
+    <t>We were on our way home from seeing a show at Winstar Casino and just needed a place to get a good night's sleep.  We were pleasantly surprised by our entire stay.  The front desk guy was very helpful, the room was extremely clean and fresh-looking, and the breakfast the next morning was tasty and plentiful.  The hotel is just a block from I35, making it convenient and easy to find.  It's near several food places.  We would definitely stay there again, as even the fussy travelers in the family were happy!MoreShow less</t>
+  </si>
+  <si>
+    <t>We were on our way home from seeing a show at Winstar Casino and just needed a place to get a good night's sleep.  We were pleasantly surprised by our entire stay.  The front desk guy was very helpful, the room was extremely clean and fresh-looking, and the breakfast the next morning was tasty and plentiful.  The hotel is just a block from I35, making it convenient and easy to find.  It's near several food places.  We would definitely stay there again, as even the fussy travelers in the family were happy!More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55732-d98786-r165975081-Studio_6_Denton_UNT-Denton_Texas.html</t>
+  </si>
+  <si>
+    <t>165975081</t>
+  </si>
+  <si>
+    <t>07/01/2013</t>
+  </si>
+  <si>
+    <t>Wonderful</t>
+  </si>
+  <si>
+    <t>I stayed at the LaQuinta Inn while attending college orientation with my daughter. I had to get a hotel at the last minute and found that LaQuinta Inn had availabilities and was the most economical. The customer service that I received from the beginning of my stay until the end was excellent. The bed was so comfortable that I slept through breakfast the next day. However, even after doing so the front desk was so wonderful to turn the juice machine back on so that I could get some apple juice. I would definitely stay at this location again.</t>
+  </si>
+  <si>
+    <t>June 2013</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55732-d98786-r165862438-Studio_6_Denton_UNT-Denton_Texas.html</t>
+  </si>
+  <si>
+    <t>165862438</t>
+  </si>
+  <si>
+    <t>Good Value</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Clean room, clean bed.  Great coffee... and very close to UNT, and IH-35.Most of the staff is friendly and helpful.  We have used this La Quinta while visiting the UNT campus.  It is convieniently located near the campus, the mall, and plenty of restaurants just a few exits down on I-35. </t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55732-d98786-r165431839-Studio_6_Denton_UNT-Denton_Texas.html</t>
+  </si>
+  <si>
+    <t>165431839</t>
+  </si>
+  <si>
+    <t>06/27/2013</t>
+  </si>
+  <si>
+    <t>Could have been better</t>
+  </si>
+  <si>
+    <t>I booked this hotel because of it's proximity to UNT during Parent Orientation for incoming freshmen &amp; the best thing I can say about it was the location was convenient. I booked it through Southwest Rapid Rewards &amp; the price was very cheap; sometimes you get what you pay for!The thermostat was erratic, I was in a wheelchair accessible room (which I should have asked to change, but at that point was too exhausted) &amp; the shower had mold &amp; mildew. There were ants &amp; small spiders in the room, which made me wonder what kind of other bugs there were that I couldn't see. Needless to say, I'll never stay there again.MoreShow less</t>
+  </si>
+  <si>
+    <t>I booked this hotel because of it's proximity to UNT during Parent Orientation for incoming freshmen &amp; the best thing I can say about it was the location was convenient. I booked it through Southwest Rapid Rewards &amp; the price was very cheap; sometimes you get what you pay for!The thermostat was erratic, I was in a wheelchair accessible room (which I should have asked to change, but at that point was too exhausted) &amp; the shower had mold &amp; mildew. There were ants &amp; small spiders in the room, which made me wonder what kind of other bugs there were that I couldn't see. Needless to say, I'll never stay there again.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55732-d98786-r161791460-Studio_6_Denton_UNT-Denton_Texas.html</t>
+  </si>
+  <si>
+    <t>161791460</t>
+  </si>
+  <si>
+    <t>05/25/2013</t>
+  </si>
+  <si>
+    <t>It did have a clean room</t>
+  </si>
+  <si>
+    <t>I'm not sure I would stay at this La Quinta again.  I had traveled all day from Kansas City on my way to the Corpus Christie area, so I was really road weary.  The reception I received when I first arrived at the front desk was somewhat cool and could have been more welcoming.  Finding a parking place near my room was tricky, as much of the parking around that side of the building seemed to be reserved for the restaurant next to the hotel, judging by the tow-away warning signs.  Which, by the way, the restaurant wasn't all that impressive, for which I wrote a separate review in another post.  The Continental breakfast was just OK at the hotel.  One thing that did annoy me was when I first walked into the breakfast area, I noticed that the only table facing the TV was occupied by a hotel employee, and I had to choose another table. It wasn't a big deal, but I like to watch the news while eating my breakfast, especially when I'm traveling. I later discovered the employee turned out to be the front desk worker who was getting ready to go off her night shift.  Even though I felt sympathy for her, I still felt it was not justifiable for her to leave the front desk unattended, as she had been sitting there for a good 15 minutes.  The room I stayed in was clean...I'm not sure I would stay at this La Quinta again.  I had traveled all day from Kansas City on my way to the Corpus Christie area, so I was really road weary.  The reception I received when I first arrived at the front desk was somewhat cool and could have been more welcoming.  Finding a parking place near my room was tricky, as much of the parking around that side of the building seemed to be reserved for the restaurant next to the hotel, judging by the tow-away warning signs.  Which, by the way, the restaurant wasn't all that impressive, for which I wrote a separate review in another post.  The Continental breakfast was just OK at the hotel.  One thing that did annoy me was when I first walked into the breakfast area, I noticed that the only table facing the TV was occupied by a hotel employee, and I had to choose another table. It wasn't a big deal, but I like to watch the news while eating my breakfast, especially when I'm traveling. I later discovered the employee turned out to be the front desk worker who was getting ready to go off her night shift.  Even though I felt sympathy for her, I still felt it was not justifiable for her to leave the front desk unattended, as she had been sitting there for a good 15 minutes.  The room I stayed in was clean and comfortable.  But I think some customer service issues needs to be addressed at this particular La Quinta.MoreShow less</t>
+  </si>
+  <si>
+    <t>May 2013</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> traveled solo</t>
+  </si>
+  <si>
+    <t>I'm not sure I would stay at this La Quinta again.  I had traveled all day from Kansas City on my way to the Corpus Christie area, so I was really road weary.  The reception I received when I first arrived at the front desk was somewhat cool and could have been more welcoming.  Finding a parking place near my room was tricky, as much of the parking around that side of the building seemed to be reserved for the restaurant next to the hotel, judging by the tow-away warning signs.  Which, by the way, the restaurant wasn't all that impressive, for which I wrote a separate review in another post.  The Continental breakfast was just OK at the hotel.  One thing that did annoy me was when I first walked into the breakfast area, I noticed that the only table facing the TV was occupied by a hotel employee, and I had to choose another table. It wasn't a big deal, but I like to watch the news while eating my breakfast, especially when I'm traveling. I later discovered the employee turned out to be the front desk worker who was getting ready to go off her night shift.  Even though I felt sympathy for her, I still felt it was not justifiable for her to leave the front desk unattended, as she had been sitting there for a good 15 minutes.  The room I stayed in was clean...I'm not sure I would stay at this La Quinta again.  I had traveled all day from Kansas City on my way to the Corpus Christie area, so I was really road weary.  The reception I received when I first arrived at the front desk was somewhat cool and could have been more welcoming.  Finding a parking place near my room was tricky, as much of the parking around that side of the building seemed to be reserved for the restaurant next to the hotel, judging by the tow-away warning signs.  Which, by the way, the restaurant wasn't all that impressive, for which I wrote a separate review in another post.  The Continental breakfast was just OK at the hotel.  One thing that did annoy me was when I first walked into the breakfast area, I noticed that the only table facing the TV was occupied by a hotel employee, and I had to choose another table. It wasn't a big deal, but I like to watch the news while eating my breakfast, especially when I'm traveling. I later discovered the employee turned out to be the front desk worker who was getting ready to go off her night shift.  Even though I felt sympathy for her, I still felt it was not justifiable for her to leave the front desk unattended, as she had been sitting there for a good 15 minutes.  The room I stayed in was clean and comfortable.  But I think some customer service issues needs to be addressed at this particular La Quinta.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55732-d98786-r161421136-Studio_6_Denton_UNT-Denton_Texas.html</t>
+  </si>
+  <si>
+    <t>161421136</t>
+  </si>
+  <si>
+    <t>05/21/2013</t>
+  </si>
+  <si>
+    <t>Nice older hotel</t>
+  </si>
+  <si>
+    <t>This is a nicer 'old' hotel.Maintenance of the hotel and area seems to have improved since I stayed a few years ago! My room was fresh and clean. AC worked very well. Breakfast was ok, a better selection than many LQ have been offering. The area was a little noisy because of people at the pool, but the room was quiet. A decent place to stay.</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55732-d98786-r160406839-Studio_6_Denton_UNT-Denton_Texas.html</t>
+  </si>
+  <si>
+    <t>160406839</t>
+  </si>
+  <si>
+    <t>05/11/2013</t>
+  </si>
+  <si>
+    <t>April 2013</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55732-d98786-r159128882-Studio_6_Denton_UNT-Denton_Texas.html</t>
+  </si>
+  <si>
+    <t>159128882</t>
+  </si>
+  <si>
+    <t>04/29/2013</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55732-d98786-r158417262-Studio_6_Denton_UNT-Denton_Texas.html</t>
+  </si>
+  <si>
+    <t>158417262</t>
+  </si>
+  <si>
+    <t>04/21/2013</t>
+  </si>
+  <si>
+    <t>Great for visiting UNT</t>
+  </si>
+  <si>
+    <t>We have stayed at this hotel several times when visiting a son at UNT.  It is clean, comfortable and in an excellent location as it only takes us a couple minutes to get to UNT.  The price is right and the breakfast is great with texas shaped waffles and several other options. The staff has always been nice and helpful.</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55732-d98786-r158098293-Studio_6_Denton_UNT-Denton_Texas.html</t>
+  </si>
+  <si>
+    <t>158098293</t>
+  </si>
+  <si>
+    <t>04/18/2013</t>
+  </si>
+  <si>
+    <t>Older but well kept</t>
+  </si>
+  <si>
+    <t>There is a newer LQ nearby but considering the $20+ savings this property was perfectly acceptable.  We actually prefer the outside doors of the older motels because it is SO MUCH easier than loading your luggage onto an unwieldy cart, navigating entry doorways and hauling it down a long hallway; invariably I get one with a rebellious and squeaky wheel.  Room was spacious &amp; spotlessly clean with crisp sheets, fluffy towels, flat screen TV, &amp; free wifi with good signal strength.  Jackie at the front desk was very helpful.  Courtyard area was nicely landscaped &amp; pretty &amp; the pool looked inviting.  There are both high-end and "bargain" motels nearby; would definitely stay here again.MoreShow less</t>
+  </si>
+  <si>
+    <t>There is a newer LQ nearby but considering the $20+ savings this property was perfectly acceptable.  We actually prefer the outside doors of the older motels because it is SO MUCH easier than loading your luggage onto an unwieldy cart, navigating entry doorways and hauling it down a long hallway; invariably I get one with a rebellious and squeaky wheel.  Room was spacious &amp; spotlessly clean with crisp sheets, fluffy towels, flat screen TV, &amp; free wifi with good signal strength.  Jackie at the front desk was very helpful.  Courtyard area was nicely landscaped &amp; pretty &amp; the pool looked inviting.  There are both high-end and "bargain" motels nearby; would definitely stay here again.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55732-d98786-r154898531-Studio_6_Denton_UNT-Denton_Texas.html</t>
+  </si>
+  <si>
+    <t>154898531</t>
+  </si>
+  <si>
+    <t>03/17/2013</t>
+  </si>
+  <si>
+    <t>I won't stay here again.</t>
+  </si>
+  <si>
+    <t>This is an old style hotel, with entry from the outside, not a secure hallway.My suite was spacious and the bed comfortable, but a little soft. The room smelled of cheap air spray. I had to open the windows and run the AC on full to work out the smell. The carpet was vacuumed but old and dirty. The furnishings were old and worn. There were no available outlets at the desk.The small refrigerator was mostly clean and worked well. The Microwave was not clean. Bathroom was small with old fixtures and no fan. The linens were cheap as were the towels.I will not stay here again.Much better options are nearby, try the Marriott Courtyard. I stayed there the 2 years prior and it was top notch, clean and comfortable.http://www.tripadvisor.com/Hotel_Review-g55732-d1100814-Reviews-Courtyard_by_Marriott_Denton-Denton_Texas.htmlMoreShow less</t>
+  </si>
+  <si>
+    <t>March 2013</t>
+  </si>
+  <si>
+    <t>This is an old style hotel, with entry from the outside, not a secure hallway.My suite was spacious and the bed comfortable, but a little soft. The room smelled of cheap air spray. I had to open the windows and run the AC on full to work out the smell. The carpet was vacuumed but old and dirty. The furnishings were old and worn. There were no available outlets at the desk.The small refrigerator was mostly clean and worked well. The Microwave was not clean. Bathroom was small with old fixtures and no fan. The linens were cheap as were the towels.I will not stay here again.Much better options are nearby, try the Marriott Courtyard. I stayed there the 2 years prior and it was top notch, clean and comfortable.http://www.tripadvisor.com/Hotel_Review-g55732-d1100814-Reviews-Courtyard_by_Marriott_Denton-Denton_Texas.htmlMore</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55732-d98786-r153148243-Studio_6_Denton_UNT-Denton_Texas.html</t>
+  </si>
+  <si>
+    <t>153148243</t>
+  </si>
+  <si>
+    <t>02/25/2013</t>
+  </si>
+  <si>
+    <t>MoreShow less</t>
+  </si>
+  <si>
+    <t>February 2013</t>
+  </si>
+  <si>
+    <t>More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55732-d98786-r152878855-Studio_6_Denton_UNT-Denton_Texas.html</t>
+  </si>
+  <si>
+    <t>152878855</t>
+  </si>
+  <si>
+    <t>02/23/2013</t>
+  </si>
+  <si>
+    <t>Texas Shaped Waffles!</t>
+  </si>
+  <si>
+    <t>Traveling with my dog for the first time. La Quinta made it easy. Good place to walk dogs. Nice room. Great breakfast!The room was comfortable and well appointed. No microwave or refrigerator, however.Friendly staff.</t>
+  </si>
+  <si>
+    <t>January 2013</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55732-d98786-r147669094-Studio_6_Denton_UNT-Denton_Texas.html</t>
+  </si>
+  <si>
+    <t>147669094</t>
+  </si>
+  <si>
+    <t>12/18/2012</t>
+  </si>
+  <si>
+    <t>December 2012</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55732-d98786-r146289659-Studio_6_Denton_UNT-Denton_Texas.html</t>
+  </si>
+  <si>
+    <t>146289659</t>
+  </si>
+  <si>
+    <t>11/27/2012</t>
+  </si>
+  <si>
+    <t>Great Hotel</t>
+  </si>
+  <si>
+    <t>We have no complaints about our stay at this great hotel. The room was updated and clean. The outside was well maintained. The breakfast was a nice variety for a free breakfast. The restaurant next door, Michaels, which has not ties to the hotel has great food also, if you like american and greek food. The price was amazing!!!!</t>
+  </si>
+  <si>
+    <t>November 2012</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55732-d98786-r145625103-Studio_6_Denton_UNT-Denton_Texas.html</t>
+  </si>
+  <si>
+    <t>145625103</t>
+  </si>
+  <si>
+    <t>11/17/2012</t>
+  </si>
+  <si>
+    <t>Great Price, Clean</t>
+  </si>
+  <si>
+    <t>This is the 2nd time I have stayed here. Inexpensive, very clean. Beds were very comfortable. Wifi was good.  The continental breakfast could use more variety. I'm not a breakfast eater but my youngest love the make it yourself waffle in the shape of Texas. My oldest goes to UNT so I plan on more stays at La Quinta. If you what an inexpensive clean hotel, then this is it.</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55732-d98786-r143602519-Studio_6_Denton_UNT-Denton_Texas.html</t>
+  </si>
+  <si>
+    <t>143602519</t>
+  </si>
+  <si>
+    <t>10/24/2012</t>
+  </si>
+  <si>
+    <t>October 2012</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55732-d98786-r141098259-Studio_6_Denton_UNT-Denton_Texas.html</t>
+  </si>
+  <si>
+    <t>141098259</t>
+  </si>
+  <si>
+    <t>09/24/2012</t>
+  </si>
+  <si>
+    <t>Great if you're traveling with dogs</t>
+  </si>
+  <si>
+    <t>I have stayed at this Laquinta before and keep coming back.  Moderately priced.  Rooms are clean.  Beds are comfortable.  They are dog-friendly.  The front office staff are very polite and friendly.  It is an older hotel with outside door entrance, which I prefer when traveling with my dogs.  The hotel grounds are kept clean.</t>
+  </si>
+  <si>
+    <t>September 2012</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55732-d98786-r139714869-Studio_6_Denton_UNT-Denton_Texas.html</t>
+  </si>
+  <si>
+    <t>139714869</t>
+  </si>
+  <si>
+    <t>09/08/2012</t>
+  </si>
+  <si>
+    <t>Convenient to highway and well priced</t>
+  </si>
+  <si>
+    <t>I stayed for a week while helping someone move.  It was busy and a little noisy during the weekend but pretty quiet during the week.  If you are a light sleeper, get a second floor room as you can hear people walking overhead sometimes very late or very early.  Breakfast was not fancy but was good enough (make your own waffles, bagels, fruit, coffee) and as said by many there are a few restaurants nearby.  I got a very good weekly rate on hotel's website.  Both the night and day staff were friendly and helpful and the maids would do whatever you wanted (I did not need everyday everything).  My room was clean and the bed very comfortable.  There was a mix of family travelers and business travelers during my week there with parking available for people with small trailers and rental trucks.  I would stay here again and recommend this hotel.  As said it is convenient to the highway (noise is from trains and other travelers not the highway) but also to downtown Denton and UNT.MoreShow less</t>
+  </si>
+  <si>
+    <t>August 2012</t>
+  </si>
+  <si>
+    <t>I stayed for a week while helping someone move.  It was busy and a little noisy during the weekend but pretty quiet during the week.  If you are a light sleeper, get a second floor room as you can hear people walking overhead sometimes very late or very early.  Breakfast was not fancy but was good enough (make your own waffles, bagels, fruit, coffee) and as said by many there are a few restaurants nearby.  I got a very good weekly rate on hotel's website.  Both the night and day staff were friendly and helpful and the maids would do whatever you wanted (I did not need everyday everything).  My room was clean and the bed very comfortable.  There was a mix of family travelers and business travelers during my week there with parking available for people with small trailers and rental trucks.  I would stay here again and recommend this hotel.  As said it is convenient to the highway (noise is from trains and other travelers not the highway) but also to downtown Denton and UNT.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55732-d98786-r135443462-Studio_6_Denton_UNT-Denton_Texas.html</t>
+  </si>
+  <si>
+    <t>135443462</t>
+  </si>
+  <si>
+    <t>07/26/2012</t>
+  </si>
+  <si>
+    <t>Excellent Hotel for any occasion</t>
+  </si>
+  <si>
+    <t>Excellent Hotel.  Room rate is great!  Staff are friendly and helpful. Room was clean and cold and very nice. Close to college,food, shopping and movies.  Great and easy access to main freeway.  Easy on and off.  Walk to 24 hour places to eat..  Great 2 room suite that we used in past.I would recommend this hotel for anyone.  We will certainly use it every time we come to Denton!!</t>
+  </si>
+  <si>
+    <t>July 2012</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55732-d98786-r135115835-Studio_6_Denton_UNT-Denton_Texas.html</t>
+  </si>
+  <si>
+    <t>135115835</t>
+  </si>
+  <si>
+    <t>07/22/2012</t>
+  </si>
+  <si>
+    <t>Other reviewers were right!</t>
+  </si>
+  <si>
+    <t>The review below mine is negative. I did NOT have that kind of experience. I read the reviews of others and  write reviews regularly. On arriving, Rickie was GREAT. He was friendly, respectful and willing to help. I checked in, found that the door was missing weatherstripping and I saw daylight underneath it. He offered to have maintenence fix it, or switch me to another room. I did go to another room and it was nice and cool. Being summer and humid, it is very hot in this area this time of year. The room and bathroom were clean. The beds were very comfortable and once I shut the door to the outside, it was quiet. We really did not hear noise from the street outside, other guests or the pool. When you drive up and around the property it is older and looks can be deceiving. The property appears to be well maintained in spite of its age. The shower head (which another person mentioned was so bad),was to my liking. Most hotels have the water saving heads and they drive me nuts because NO water comes out of the middle of the head. Not so here. The shower was great. The tub had a few scratches and nicks on it, but overall was good! Towels were good quality, not too thick nor too thin. Two improvements I might suggest are that the bathroom needs a vent fan and...The review below mine is negative. I did NOT have that kind of experience. I read the reviews of others and  write reviews regularly. On arriving, Rickie was GREAT. He was friendly, respectful and willing to help. I checked in, found that the door was missing weatherstripping and I saw daylight underneath it. He offered to have maintenence fix it, or switch me to another room. I did go to another room and it was nice and cool. Being summer and humid, it is very hot in this area this time of year. The room and bathroom were clean. The beds were very comfortable and once I shut the door to the outside, it was quiet. We really did not hear noise from the street outside, other guests or the pool. When you drive up and around the property it is older and looks can be deceiving. The property appears to be well maintained in spite of its age. The shower head (which another person mentioned was so bad),was to my liking. Most hotels have the water saving heads and they drive me nuts because NO water comes out of the middle of the head. Not so here. The shower was great. The tub had a few scratches and nicks on it, but overall was good! Towels were good quality, not too thick nor too thin. Two improvements I might suggest are that the bathroom needs a vent fan and the front lobby area could use a computer. I don't take my computer on pleasure trips. Another convenience to note, there is a restaurant in front of the main part of the property called Michael's Kitchen. It is open early AM at 6 until 9 or later at night. Breakfast there was very good and the waitress efficient, giving good service. For most hotels in this price range, it is not easy to find beds of this quality, towels that were nice like these and a good strong shower. I come to Denton fairly reguarly and will stay here again. I have stayed in several nicer hotels including the LaQuinta, Fairfield and Comfort Suites at UNT. They were all nicer but for the price I will return here. The room did not have a frig, so be prepared for that if you need to keep drinks cold. I will post pictures of the pool and bathroom later.MoreShow less</t>
+  </si>
+  <si>
+    <t>The review below mine is negative. I did NOT have that kind of experience. I read the reviews of others and  write reviews regularly. On arriving, Rickie was GREAT. He was friendly, respectful and willing to help. I checked in, found that the door was missing weatherstripping and I saw daylight underneath it. He offered to have maintenence fix it, or switch me to another room. I did go to another room and it was nice and cool. Being summer and humid, it is very hot in this area this time of year. The room and bathroom were clean. The beds were very comfortable and once I shut the door to the outside, it was quiet. We really did not hear noise from the street outside, other guests or the pool. When you drive up and around the property it is older and looks can be deceiving. The property appears to be well maintained in spite of its age. The shower head (which another person mentioned was so bad),was to my liking. Most hotels have the water saving heads and they drive me nuts because NO water comes out of the middle of the head. Not so here. The shower was great. The tub had a few scratches and nicks on it, but overall was good! Towels were good quality, not too thick nor too thin. Two improvements I might suggest are that the bathroom needs a vent fan and...The review below mine is negative. I did NOT have that kind of experience. I read the reviews of others and  write reviews regularly. On arriving, Rickie was GREAT. He was friendly, respectful and willing to help. I checked in, found that the door was missing weatherstripping and I saw daylight underneath it. He offered to have maintenence fix it, or switch me to another room. I did go to another room and it was nice and cool. Being summer and humid, it is very hot in this area this time of year. The room and bathroom were clean. The beds were very comfortable and once I shut the door to the outside, it was quiet. We really did not hear noise from the street outside, other guests or the pool. When you drive up and around the property it is older and looks can be deceiving. The property appears to be well maintained in spite of its age. The shower head (which another person mentioned was so bad),was to my liking. Most hotels have the water saving heads and they drive me nuts because NO water comes out of the middle of the head. Not so here. The shower was great. The tub had a few scratches and nicks on it, but overall was good! Towels were good quality, not too thick nor too thin. Two improvements I might suggest are that the bathroom needs a vent fan and the front lobby area could use a computer. I don't take my computer on pleasure trips. Another convenience to note, there is a restaurant in front of the main part of the property called Michael's Kitchen. It is open early AM at 6 until 9 or later at night. Breakfast there was very good and the waitress efficient, giving good service. For most hotels in this price range, it is not easy to find beds of this quality, towels that were nice like these and a good strong shower. I come to Denton fairly reguarly and will stay here again. I have stayed in several nicer hotels including the LaQuinta, Fairfield and Comfort Suites at UNT. They were all nicer but for the price I will return here. The room did not have a frig, so be prepared for that if you need to keep drinks cold. I will post pictures of the pool and bathroom later.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55732-d98786-r134953308-Studio_6_Denton_UNT-Denton_Texas.html</t>
+  </si>
+  <si>
+    <t>134953308</t>
+  </si>
+  <si>
+    <t>07/20/2012</t>
+  </si>
+  <si>
+    <t>From Bad to Worse to Perfect!</t>
+  </si>
+  <si>
+    <t>Bad: Upon check in everything appeared fine. Decent for the price, I was tired and immediately showered. Very strange shower...maybe I just didnt get it? Shower head was literally about 7 feed high, right on the edge of the ceiling. Anyway, I flipped back the sheets and there were three black bugs dancing happily across my sheets. I went DIRECTLY to the office, photos in hand, and the lady simply handed me new keys and told me to switch rooms. No help offered, no offer to go check out the old or new room. This would not have bothered me if the next morning the manager and clerk werent snotty to me asking me to go to the old room and "show them the bugs". Thats why I had photos and also why the night clerk should have come to see for herself. Room #2, woke up and had bed bug bites. Maybe they were from the hour I spent in the other room, maybe not. Who knows. Room#3. ..broken bathtub, broken tile, blood/mud (?) on the floor and hair. Everywhere. Ew. The kicker? Great TV... But it didnt work. Uhg.Finally, Rickie the night guy turned out to be awesome, got us a GREAT room, conatced the GM, and make me comfy and cozy. All in all, A+ for service and just check your room before settling in.MoreShow less</t>
+  </si>
+  <si>
+    <t>Bad: Upon check in everything appeared fine. Decent for the price, I was tired and immediately showered. Very strange shower...maybe I just didnt get it? Shower head was literally about 7 feed high, right on the edge of the ceiling. Anyway, I flipped back the sheets and there were three black bugs dancing happily across my sheets. I went DIRECTLY to the office, photos in hand, and the lady simply handed me new keys and told me to switch rooms. No help offered, no offer to go check out the old or new room. This would not have bothered me if the next morning the manager and clerk werent snotty to me asking me to go to the old room and "show them the bugs". Thats why I had photos and also why the night clerk should have come to see for herself. Room #2, woke up and had bed bug bites. Maybe they were from the hour I spent in the other room, maybe not. Who knows. Room#3. ..broken bathtub, broken tile, blood/mud (?) on the floor and hair. Everywhere. Ew. The kicker? Great TV... But it didnt work. Uhg.Finally, Rickie the night guy turned out to be awesome, got us a GREAT room, conatced the GM, and make me comfy and cozy. All in all, A+ for service and just check your room before settling in.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55732-d98786-r133472286-Studio_6_Denton_UNT-Denton_Texas.html</t>
+  </si>
+  <si>
+    <t>133472286</t>
+  </si>
+  <si>
+    <t>07/04/2012</t>
+  </si>
+  <si>
+    <t>Very good stay. Will stay again when I go here.</t>
+  </si>
+  <si>
+    <t>I was very happy with this stay. Thank you La Quinta for good service and for allowing pets.I will be staying here again when I come back down this way. :-)</t>
+  </si>
+  <si>
+    <t>June 2012</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55732-d98786-r133351982-Studio_6_Denton_UNT-Denton_Texas.html</t>
+  </si>
+  <si>
+    <t>133351982</t>
+  </si>
+  <si>
+    <t>07/03/2012</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55732-d98786-r132100740-Studio_6_Denton_UNT-Denton_Texas.html</t>
+  </si>
+  <si>
+    <t>132100740</t>
+  </si>
+  <si>
+    <t>06/16/2012</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55732-d98786-r130201590-Studio_6_Denton_UNT-Denton_Texas.html</t>
+  </si>
+  <si>
+    <t>130201590</t>
+  </si>
+  <si>
+    <t>05/19/2012</t>
+  </si>
+  <si>
+    <t>MAGGOT in my bed!!!</t>
+  </si>
+  <si>
+    <t>Everything seemed relatively clean BUT I found a maggot in my bed!! I had been laying down for about an hour, I pulled the sheets down to get in and rolled over. There was a live maggot squirming next to me, it was deep under the covers and disgusting! We got some money back but still payed a good amount for the room and had an early check-out. I will not be coming back.</t>
+  </si>
+  <si>
+    <t>May 2012</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55732-d98786-r130194198-Studio_6_Denton_UNT-Denton_Texas.html</t>
+  </si>
+  <si>
+    <t>130194198</t>
+  </si>
+  <si>
+    <t>05/18/2012</t>
+  </si>
+  <si>
+    <t>Just barely acceptable for us</t>
+  </si>
+  <si>
+    <t>Although the best thing I can say about this hotel was the friendly, helpful staff, the breakfast fell far short. The room and bed were clean for the most part, but I couldn't quite ignore the cob webs up by the ceiling. Location was good, as was the value. I guess you get what you pay for, but I stayed at 3 other La Quinta Inns since last September and this was needed the most attention.</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55732-d98786-r128953998-Studio_6_Denton_UNT-Denton_Texas.html</t>
+  </si>
+  <si>
+    <t>128953998</t>
+  </si>
+  <si>
+    <t>04/27/2012</t>
+  </si>
+  <si>
+    <t>Very nice, clean, dog friendly hotel</t>
+  </si>
+  <si>
+    <t>My husband and I stayed here for one night in March 2012.  The manager and clerks were friendly and helpful.  The room was somewhat small but comfortable and clean.  There was no fee for our dogs which is very nice.  There is an inner courtyard to take dogs out.  There is also a restaurant right next door which we went to for breakfast and it was very good and inexpensive.  We didn't eat at the hotel.  We would definitely recommend this hotel and would stay here again.</t>
+  </si>
+  <si>
+    <t>March 2012</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55732-d98786-r127437489-Studio_6_Denton_UNT-Denton_Texas.html</t>
+  </si>
+  <si>
+    <t>127437489</t>
+  </si>
+  <si>
+    <t>04/07/2012</t>
+  </si>
+  <si>
+    <t>Satisfaction Guaranteed</t>
+  </si>
+  <si>
+    <t>We stayed 2 nights and were quite pleased as to the location and cleanliness of the room.  The staff was cheerful and helpful.  We would stay again since we travel through Texas at least once a year.</t>
+  </si>
+  <si>
+    <t>April 2012</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55732-d98786-r126712597-Studio_6_Denton_UNT-Denton_Texas.html</t>
+  </si>
+  <si>
+    <t>126712597</t>
+  </si>
+  <si>
+    <t>03/26/2012</t>
+  </si>
+  <si>
+    <t>Good price, clean room</t>
+  </si>
+  <si>
+    <t>Given the age of the hotel I was expecting the room to be pretty crappy. I must say I was pleasantly surprised. Don't be mistaken the room is basic but is was clean, bug free and odor free. I'm usually pretty skeeved out by hotel comforters but these weren't scary.I was in town to take my daughter to visit TWU and UNT so the location was great.</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55732-d98786-r125823786-Studio_6_Denton_UNT-Denton_Texas.html</t>
+  </si>
+  <si>
+    <t>125823786</t>
+  </si>
+  <si>
+    <t>03/08/2012</t>
+  </si>
+  <si>
+    <t>Great place to stay when in Denton</t>
+  </si>
+  <si>
+    <t>My work has me out of town for three to four nights a week. When I lay over in Denton, I always look forward to staying at this La Quinta. The staff here is very friendly and outgoing, and it being a new facility everything inside is updated. It is quiet, hardly any outside noise from other clients, a great place to get some quality rest after a long days work. I have never had a problem here, and if it were closer to Lewisville, I would even pick this place over the Hampton Inn.</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55732-d98786-r119508933-Studio_6_Denton_UNT-Denton_Texas.html</t>
+  </si>
+  <si>
+    <t>119508933</t>
+  </si>
+  <si>
+    <t>10/20/2011</t>
+  </si>
+  <si>
+    <t>Not bad for the price!</t>
+  </si>
+  <si>
+    <t>In a bad part of town, a little seedy but the rooms were not too bad, no bed bugs, nice comfortable bed and flat screen tv. Outside doors a little scary in this neighborhood but what do you expect for the price - $49-$59 a night.Looks like a lot of construction crews stay here. A couple of our crew reported bugs in their rooms but I did not see any, however my lights were out and I was sleeping, they were gone when the lights come on I guess.Again not bad for the price, I wouldn't stay here with the kids.</t>
+  </si>
+  <si>
+    <t>October 2011</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55732-d98786-r118908110-Studio_6_Denton_UNT-Denton_Texas.html</t>
+  </si>
+  <si>
+    <t>118908110</t>
+  </si>
+  <si>
+    <t>10/03/2011</t>
+  </si>
+  <si>
+    <t>Going downhill</t>
+  </si>
+  <si>
+    <t xml:space="preserve">We have stayed several times while visiting our daughter in college. Our last visit was enough to say NO MORE!  Torn sheets, cockroaches, dirty everywhere, to include the French fry next to the bed. I found it on the last day. Either it had been there the whole time or housekeeping enjoyed their lunch while "cleaning" the room. </t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55732-d98786-r118291646-Studio_6_Denton_UNT-Denton_Texas.html</t>
+  </si>
+  <si>
+    <t>118291646</t>
+  </si>
+  <si>
+    <t>09/18/2011</t>
+  </si>
+  <si>
+    <t>Great overnight stop</t>
+  </si>
+  <si>
+    <t>We stopped here for one night on our way from Minnesota to San Antonio.  I thought it was a great value.  It was an older hotel, but clean and staff was very friendly.  The bed was VERY comfortable and the room was small, but adequate for the one night we were there.  Free breakfast was well stocked and a decent variety.  We loved the Texas shaped waffles!  We would definitely stay there again.  It's not the classiest or newest hotel, but it suited our needs just fine!</t>
+  </si>
+  <si>
+    <t>September 2011</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55732-d98786-r114951901-Studio_6_Denton_UNT-Denton_Texas.html</t>
+  </si>
+  <si>
+    <t>114951901</t>
+  </si>
+  <si>
+    <t>07/02/2011</t>
+  </si>
+  <si>
+    <t>a place to stay</t>
+  </si>
+  <si>
+    <t>There is not much special to say about this hotel. Other than it is a quiet warm place with a bed. It doesnt feel as safe as other places but it was an alright stay. Not the cleanest but again a good overnight stay on a road trip.</t>
+  </si>
+  <si>
+    <t>June 2011</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55732-d98786-r113280544-Studio_6_Denton_UNT-Denton_Texas.html</t>
+  </si>
+  <si>
+    <t>113280544</t>
+  </si>
+  <si>
+    <t>06/13/2011</t>
+  </si>
+  <si>
+    <t>Avoid At All Costs</t>
+  </si>
+  <si>
+    <t>After a horrible weekend I checked into this hotel at 1 a.m.  All I wanted was a bed.  The TV in the room had the wires hanging down so no signal.  The toilet seat was not on the toilet.  At 1 a.m. I was not going to complain, I just wanted to sleep.In the morning at their breakfast the juice machine was out of order.  I can truely understand that stuff happens, but at least put out milk for children to drink with their waffles.  If you have waffles you should at least have pancake syrup.  The carpet in the room was not vaccumed and the bathroom counter was dirty.  Beware of this hotel.When I checked out the person said the manager would call me.  Still no phone call.  Avoid this hotel.MoreShow less</t>
+  </si>
+  <si>
+    <t>After a horrible weekend I checked into this hotel at 1 a.m.  All I wanted was a bed.  The TV in the room had the wires hanging down so no signal.  The toilet seat was not on the toilet.  At 1 a.m. I was not going to complain, I just wanted to sleep.In the morning at their breakfast the juice machine was out of order.  I can truely understand that stuff happens, but at least put out milk for children to drink with their waffles.  If you have waffles you should at least have pancake syrup.  The carpet in the room was not vaccumed and the bathroom counter was dirty.  Beware of this hotel.When I checked out the person said the manager would call me.  Still no phone call.  Avoid this hotel.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55732-d98786-r111515465-Studio_6_Denton_UNT-Denton_Texas.html</t>
+  </si>
+  <si>
+    <t>111515465</t>
+  </si>
+  <si>
+    <t>06/04/2011</t>
+  </si>
+  <si>
+    <t>Would not stay there again</t>
+  </si>
+  <si>
+    <t>My husband and I stayed at this facility in June. On the positive side, the staff was very pleasant and helpful and the room although small was clean.On the negative side, the soundproofing left something to be desired. My husband was awakened through the night by noise from new arrivals getting to their room.  I also could hear the creak of the room overhead early the next morning. The breakfast was adequate more along the lines of a continental breakfast.  The closest ice machine was broken and management didn't seem much concerned.  The facility is located where there is a lot of construction going on and next to a tattoo parlor.MoreShow less</t>
+  </si>
+  <si>
+    <t>My husband and I stayed at this facility in June. On the positive side, the staff was very pleasant and helpful and the room although small was clean.On the negative side, the soundproofing left something to be desired. My husband was awakened through the night by noise from new arrivals getting to their room.  I also could hear the creak of the room overhead early the next morning. The breakfast was adequate more along the lines of a continental breakfast.  The closest ice machine was broken and management didn't seem much concerned.  The facility is located where there is a lot of construction going on and next to a tattoo parlor.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55732-d98786-r107120377-Studio_6_Denton_UNT-Denton_Texas.html</t>
+  </si>
+  <si>
+    <t>107120377</t>
+  </si>
+  <si>
+    <t>05/06/2011</t>
+  </si>
+  <si>
+    <t>Okay for overnight stay</t>
+  </si>
+  <si>
+    <t>This was okay for overnight while traveling.  A/C was a little noise.  Bathroom needs more lighting.  Everyone is now energy efficient but women can't put on makeup with too little lighting.  Also corridors and entry way have dried mud on floor because of contrctors that stay there while working on there jobs.  Employees don't clean up mud at night.</t>
+  </si>
+  <si>
+    <t>May 2011</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55732-d98786-r104094641-Studio_6_Denton_UNT-Denton_Texas.html</t>
+  </si>
+  <si>
+    <t>104094641</t>
+  </si>
+  <si>
+    <t>04/14/2011</t>
+  </si>
+  <si>
+    <t>Great to visit UNT</t>
+  </si>
+  <si>
+    <t>We really liked the way this hotel was so close to UNT while my daughter and I went to visit. Never even had to get on highway, which made driving even better. Beds were very comfortable. Coffee maker was in room. What I am most concerned about is clean sheets and towels.Ours were like new and spotless. It is an older hotel, so nothing grand,but for the price and location, we are already booked again in May for another trip to Denton and visit to TWU. Breakfast was very good. Did not use pool, but saw several families using while we were there having fun. Like I said we are already reserved again, so thought it was very nice for the price.MoreShow less</t>
+  </si>
+  <si>
+    <t>April 2011</t>
+  </si>
+  <si>
+    <t>We really liked the way this hotel was so close to UNT while my daughter and I went to visit. Never even had to get on highway, which made driving even better. Beds were very comfortable. Coffee maker was in room. What I am most concerned about is clean sheets and towels.Ours were like new and spotless. It is an older hotel, so nothing grand,but for the price and location, we are already booked again in May for another trip to Denton and visit to TWU. Breakfast was very good. Did not use pool, but saw several families using while we were there having fun. Like I said we are already reserved again, so thought it was very nice for the price.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55732-d98786-r104054453-Studio_6_Denton_UNT-Denton_Texas.html</t>
+  </si>
+  <si>
+    <t>104054453</t>
+  </si>
+  <si>
+    <t>Just OK</t>
+  </si>
+  <si>
+    <t>Older hotel with smaller rooms. Stayed in room with double beds, beds were small and not all that comfortable. Rooms were clean and the staff was very friendly and helpful.Probably wouldn't be my first choice for lodging, but during a race weekend at the Texas Motor Speedway you take what you can get. I would stay here again if my other choices were booked.</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55732-d98786-r88945057-Studio_6_Denton_UNT-Denton_Texas.html</t>
+  </si>
+  <si>
+    <t>88945057</t>
+  </si>
+  <si>
+    <t>12/03/2010</t>
+  </si>
+  <si>
+    <t>Clean, comfortable, but a little noisey</t>
+  </si>
+  <si>
+    <t>The hotel was what you expect from any La Quinta Inn.  My room was clean and comfortable; however, the walls are paper thin.  The banging of the doors from the people next to me kept me awake somewhat, and the floor seemed to shake whenever someone would walk fast or run in surrounding rooms.  I would suggest staying on the 1st floor I guess.  Overall, it was pretty decent, and right for the price.</t>
+  </si>
+  <si>
+    <t>November 2010</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55732-d98786-r58061787-Studio_6_Denton_UNT-Denton_Texas.html</t>
+  </si>
+  <si>
+    <t>58061787</t>
+  </si>
+  <si>
+    <t>03/08/2010</t>
+  </si>
+  <si>
+    <t>Very clean room with the most comfortable bed I've ever slept in</t>
+  </si>
+  <si>
+    <t>I was impressed by the obviously recently remodeled room.  It looked very nice and up to date.  The only thing missing would have been a refrigerator.  The entire room seemed so clean.   The bed was incredibly comfortable.  The large flat screen tv was great.  I was greeted courteously upon arrival and departure.  The best room for the price I've seen in a long time.</t>
+  </si>
+  <si>
+    <t>March 2010</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55732-d98786-r33661783-Studio_6_Denton_UNT-Denton_Texas.html</t>
+  </si>
+  <si>
+    <t>33661783</t>
+  </si>
+  <si>
+    <t>07/01/2009</t>
+  </si>
+  <si>
+    <t>enjoyable room</t>
+  </si>
+  <si>
+    <t>this hotel was good had good amenities but had a hard time finding the hotel. Overall a good hotel and would recommend people to come here.</t>
+  </si>
+  <si>
+    <t>May 2009</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55732-d98786-r5521959-Studio_6_Denton_UNT-Denton_Texas.html</t>
+  </si>
+  <si>
+    <t>5521959</t>
+  </si>
+  <si>
+    <t>07/27/2006</t>
+  </si>
+  <si>
+    <t>La Cockroach</t>
+  </si>
+  <si>
+    <t>It should be called La Cockroach. The first room they gave me was full of cockroaches, on the floor, even in the bed. I was disgusting. I asked for a room change, and get a "better" room, means less cockroaches. Stay away from it.</t>
+  </si>
+  <si>
+    <t>July 2006</t>
   </si>
 </sst>
 </file>
@@ -648,6 +2066,4773 @@
         <v>43</v>
       </c>
     </row>
+    <row r="2">
+      <c r="A2" t="n">
+        <v>5203</v>
+      </c>
+      <c r="B2" t="s"/>
+      <c r="C2" t="s"/>
+      <c r="D2" t="n">
+        <v>1</v>
+      </c>
+      <c r="E2" t="s">
+        <v>44</v>
+      </c>
+      <c r="F2" t="s">
+        <v>45</v>
+      </c>
+      <c r="G2" t="s">
+        <v>46</v>
+      </c>
+      <c r="H2" t="s">
+        <v>47</v>
+      </c>
+      <c r="I2" t="s">
+        <v>48</v>
+      </c>
+      <c r="J2" t="s">
+        <v>49</v>
+      </c>
+      <c r="K2" t="s">
+        <v>50</v>
+      </c>
+      <c r="L2" t="s">
+        <v>51</v>
+      </c>
+      <c r="M2" t="n">
+        <v>1</v>
+      </c>
+      <c r="N2" t="s">
+        <v>52</v>
+      </c>
+      <c r="O2" t="s">
+        <v>53</v>
+      </c>
+      <c r="P2" t="s"/>
+      <c r="Q2" t="s"/>
+      <c r="R2" t="s"/>
+      <c r="S2" t="s"/>
+      <c r="T2" t="s"/>
+      <c r="U2" t="s"/>
+      <c r="V2" t="n">
+        <v>0</v>
+      </c>
+      <c r="W2" t="s">
+        <v>54</v>
+      </c>
+      <c r="X2" t="s">
+        <v>55</v>
+      </c>
+      <c r="Y2" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="n">
+        <v>5203</v>
+      </c>
+      <c r="B3" t="s"/>
+      <c r="C3" t="s"/>
+      <c r="D3" t="n">
+        <v>2</v>
+      </c>
+      <c r="E3" t="s">
+        <v>44</v>
+      </c>
+      <c r="F3" t="s">
+        <v>57</v>
+      </c>
+      <c r="G3" t="s">
+        <v>46</v>
+      </c>
+      <c r="H3" t="s">
+        <v>47</v>
+      </c>
+      <c r="I3" t="s">
+        <v>58</v>
+      </c>
+      <c r="J3" t="s">
+        <v>59</v>
+      </c>
+      <c r="K3" t="s">
+        <v>60</v>
+      </c>
+      <c r="L3" t="s">
+        <v>61</v>
+      </c>
+      <c r="M3" t="n">
+        <v>1</v>
+      </c>
+      <c r="N3" t="s">
+        <v>62</v>
+      </c>
+      <c r="O3" t="s">
+        <v>63</v>
+      </c>
+      <c r="P3" t="s"/>
+      <c r="Q3" t="n">
+        <v>1</v>
+      </c>
+      <c r="R3" t="n">
+        <v>1</v>
+      </c>
+      <c r="S3" t="s"/>
+      <c r="T3" t="s"/>
+      <c r="U3" t="n">
+        <v>1</v>
+      </c>
+      <c r="V3" t="n">
+        <v>0</v>
+      </c>
+      <c r="W3" t="s">
+        <v>64</v>
+      </c>
+      <c r="X3" t="s">
+        <v>65</v>
+      </c>
+      <c r="Y3" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="n">
+        <v>5203</v>
+      </c>
+      <c r="B4" t="s"/>
+      <c r="C4" t="s"/>
+      <c r="D4" t="n">
+        <v>3</v>
+      </c>
+      <c r="E4" t="s">
+        <v>44</v>
+      </c>
+      <c r="F4" t="s">
+        <v>67</v>
+      </c>
+      <c r="G4" t="s">
+        <v>46</v>
+      </c>
+      <c r="H4" t="s">
+        <v>47</v>
+      </c>
+      <c r="I4" t="s">
+        <v>68</v>
+      </c>
+      <c r="J4" t="s">
+        <v>69</v>
+      </c>
+      <c r="K4" t="s">
+        <v>70</v>
+      </c>
+      <c r="L4" t="s">
+        <v>71</v>
+      </c>
+      <c r="M4" t="n">
+        <v>4</v>
+      </c>
+      <c r="N4" t="s">
+        <v>72</v>
+      </c>
+      <c r="O4" t="s">
+        <v>63</v>
+      </c>
+      <c r="P4" t="s"/>
+      <c r="Q4" t="s"/>
+      <c r="R4" t="s"/>
+      <c r="S4" t="s"/>
+      <c r="T4" t="s"/>
+      <c r="U4" t="s"/>
+      <c r="V4" t="n">
+        <v>0</v>
+      </c>
+      <c r="W4" t="s"/>
+      <c r="X4" t="s"/>
+      <c r="Y4" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="n">
+        <v>5203</v>
+      </c>
+      <c r="B5" t="s"/>
+      <c r="C5" t="s"/>
+      <c r="D5" t="n">
+        <v>4</v>
+      </c>
+      <c r="E5" t="s">
+        <v>44</v>
+      </c>
+      <c r="F5" t="s">
+        <v>73</v>
+      </c>
+      <c r="G5" t="s">
+        <v>46</v>
+      </c>
+      <c r="H5" t="s">
+        <v>47</v>
+      </c>
+      <c r="I5" t="s">
+        <v>74</v>
+      </c>
+      <c r="J5" t="s">
+        <v>75</v>
+      </c>
+      <c r="K5" t="s">
+        <v>76</v>
+      </c>
+      <c r="L5" t="s">
+        <v>77</v>
+      </c>
+      <c r="M5" t="n">
+        <v>1</v>
+      </c>
+      <c r="N5" t="s">
+        <v>78</v>
+      </c>
+      <c r="O5" t="s">
+        <v>63</v>
+      </c>
+      <c r="P5" t="s"/>
+      <c r="Q5" t="s"/>
+      <c r="R5" t="s"/>
+      <c r="S5" t="s"/>
+      <c r="T5" t="s"/>
+      <c r="U5" t="s"/>
+      <c r="V5" t="n">
+        <v>0</v>
+      </c>
+      <c r="W5" t="s"/>
+      <c r="X5" t="s"/>
+      <c r="Y5" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="n">
+        <v>5203</v>
+      </c>
+      <c r="B6" t="s"/>
+      <c r="C6" t="s"/>
+      <c r="D6" t="n">
+        <v>5</v>
+      </c>
+      <c r="E6" t="s">
+        <v>44</v>
+      </c>
+      <c r="F6" t="s">
+        <v>79</v>
+      </c>
+      <c r="G6" t="s">
+        <v>46</v>
+      </c>
+      <c r="H6" t="s">
+        <v>47</v>
+      </c>
+      <c r="I6" t="s">
+        <v>80</v>
+      </c>
+      <c r="J6" t="s">
+        <v>81</v>
+      </c>
+      <c r="K6" t="s">
+        <v>82</v>
+      </c>
+      <c r="L6" t="s">
+        <v>83</v>
+      </c>
+      <c r="M6" t="n">
+        <v>1</v>
+      </c>
+      <c r="N6" t="s">
+        <v>84</v>
+      </c>
+      <c r="O6" t="s">
+        <v>63</v>
+      </c>
+      <c r="P6" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q6" t="s"/>
+      <c r="R6" t="s"/>
+      <c r="S6" t="s"/>
+      <c r="T6" t="s"/>
+      <c r="U6" t="n">
+        <v>1</v>
+      </c>
+      <c r="V6" t="n">
+        <v>0</v>
+      </c>
+      <c r="W6" t="s"/>
+      <c r="X6" t="s"/>
+      <c r="Y6" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="n">
+        <v>5203</v>
+      </c>
+      <c r="B7" t="s"/>
+      <c r="C7" t="s"/>
+      <c r="D7" t="n">
+        <v>6</v>
+      </c>
+      <c r="E7" t="s">
+        <v>44</v>
+      </c>
+      <c r="F7" t="s">
+        <v>86</v>
+      </c>
+      <c r="G7" t="s">
+        <v>46</v>
+      </c>
+      <c r="H7" t="s">
+        <v>47</v>
+      </c>
+      <c r="I7" t="s">
+        <v>87</v>
+      </c>
+      <c r="J7" t="s">
+        <v>88</v>
+      </c>
+      <c r="K7" t="s">
+        <v>89</v>
+      </c>
+      <c r="L7" t="s">
+        <v>90</v>
+      </c>
+      <c r="M7" t="n">
+        <v>2</v>
+      </c>
+      <c r="N7" t="s">
+        <v>91</v>
+      </c>
+      <c r="O7" t="s">
+        <v>63</v>
+      </c>
+      <c r="P7" t="s"/>
+      <c r="Q7" t="s"/>
+      <c r="R7" t="n">
+        <v>3</v>
+      </c>
+      <c r="S7" t="s"/>
+      <c r="T7" t="s"/>
+      <c r="U7" t="n">
+        <v>2</v>
+      </c>
+      <c r="V7" t="n">
+        <v>0</v>
+      </c>
+      <c r="W7" t="s">
+        <v>92</v>
+      </c>
+      <c r="X7" t="s">
+        <v>93</v>
+      </c>
+      <c r="Y7" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="n">
+        <v>5203</v>
+      </c>
+      <c r="B8" t="s"/>
+      <c r="C8" t="s"/>
+      <c r="D8" t="n">
+        <v>7</v>
+      </c>
+      <c r="E8" t="s">
+        <v>44</v>
+      </c>
+      <c r="F8" t="s">
+        <v>95</v>
+      </c>
+      <c r="G8" t="s">
+        <v>46</v>
+      </c>
+      <c r="H8" t="s">
+        <v>47</v>
+      </c>
+      <c r="I8" t="s">
+        <v>96</v>
+      </c>
+      <c r="J8" t="s">
+        <v>97</v>
+      </c>
+      <c r="K8" t="s">
+        <v>98</v>
+      </c>
+      <c r="L8" t="s">
+        <v>99</v>
+      </c>
+      <c r="M8" t="n">
+        <v>4</v>
+      </c>
+      <c r="N8" t="s">
+        <v>100</v>
+      </c>
+      <c r="O8" t="s">
+        <v>63</v>
+      </c>
+      <c r="P8" t="s"/>
+      <c r="Q8" t="s"/>
+      <c r="R8" t="n">
+        <v>4</v>
+      </c>
+      <c r="S8" t="s"/>
+      <c r="T8" t="s"/>
+      <c r="U8" t="n">
+        <v>4</v>
+      </c>
+      <c r="V8" t="n">
+        <v>0</v>
+      </c>
+      <c r="W8" t="s"/>
+      <c r="X8" t="s"/>
+      <c r="Y8" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="n">
+        <v>5203</v>
+      </c>
+      <c r="B9" t="s"/>
+      <c r="C9" t="s"/>
+      <c r="D9" t="n">
+        <v>8</v>
+      </c>
+      <c r="E9" t="s">
+        <v>44</v>
+      </c>
+      <c r="F9" t="s">
+        <v>102</v>
+      </c>
+      <c r="G9" t="s">
+        <v>46</v>
+      </c>
+      <c r="H9" t="s">
+        <v>47</v>
+      </c>
+      <c r="I9" t="s">
+        <v>103</v>
+      </c>
+      <c r="J9" t="s">
+        <v>104</v>
+      </c>
+      <c r="K9" t="s">
+        <v>105</v>
+      </c>
+      <c r="L9" t="s">
+        <v>106</v>
+      </c>
+      <c r="M9" t="n">
+        <v>4</v>
+      </c>
+      <c r="N9" t="s">
+        <v>100</v>
+      </c>
+      <c r="O9" t="s">
+        <v>53</v>
+      </c>
+      <c r="P9" t="s"/>
+      <c r="Q9" t="n">
+        <v>4</v>
+      </c>
+      <c r="R9" t="s"/>
+      <c r="S9" t="n">
+        <v>5</v>
+      </c>
+      <c r="T9" t="s"/>
+      <c r="U9" t="n">
+        <v>4</v>
+      </c>
+      <c r="V9" t="n">
+        <v>0</v>
+      </c>
+      <c r="W9" t="s"/>
+      <c r="X9" t="s"/>
+      <c r="Y9" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="n">
+        <v>5203</v>
+      </c>
+      <c r="B10" t="s"/>
+      <c r="C10" t="s"/>
+      <c r="D10" t="n">
+        <v>9</v>
+      </c>
+      <c r="E10" t="s">
+        <v>44</v>
+      </c>
+      <c r="F10" t="s">
+        <v>107</v>
+      </c>
+      <c r="G10" t="s">
+        <v>46</v>
+      </c>
+      <c r="H10" t="s">
+        <v>47</v>
+      </c>
+      <c r="I10" t="s">
+        <v>108</v>
+      </c>
+      <c r="J10" t="s">
+        <v>109</v>
+      </c>
+      <c r="K10" t="s">
+        <v>110</v>
+      </c>
+      <c r="L10" t="s">
+        <v>111</v>
+      </c>
+      <c r="M10" t="n">
+        <v>5</v>
+      </c>
+      <c r="N10" t="s">
+        <v>100</v>
+      </c>
+      <c r="O10" t="s">
+        <v>53</v>
+      </c>
+      <c r="P10" t="s"/>
+      <c r="Q10" t="s"/>
+      <c r="R10" t="n">
+        <v>5</v>
+      </c>
+      <c r="S10" t="s"/>
+      <c r="T10" t="s"/>
+      <c r="U10" t="n">
+        <v>5</v>
+      </c>
+      <c r="V10" t="n">
+        <v>0</v>
+      </c>
+      <c r="W10" t="s"/>
+      <c r="X10" t="s"/>
+      <c r="Y10" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="n">
+        <v>5203</v>
+      </c>
+      <c r="B11" t="s"/>
+      <c r="C11" t="s"/>
+      <c r="D11" t="n">
+        <v>10</v>
+      </c>
+      <c r="E11" t="s">
+        <v>44</v>
+      </c>
+      <c r="F11" t="s">
+        <v>112</v>
+      </c>
+      <c r="G11" t="s">
+        <v>46</v>
+      </c>
+      <c r="H11" t="s">
+        <v>47</v>
+      </c>
+      <c r="I11" t="s">
+        <v>113</v>
+      </c>
+      <c r="J11" t="s">
+        <v>114</v>
+      </c>
+      <c r="K11" t="s">
+        <v>115</v>
+      </c>
+      <c r="L11" t="s">
+        <v>116</v>
+      </c>
+      <c r="M11" t="n">
+        <v>5</v>
+      </c>
+      <c r="N11" t="s">
+        <v>117</v>
+      </c>
+      <c r="O11" t="s">
+        <v>63</v>
+      </c>
+      <c r="P11" t="s"/>
+      <c r="Q11" t="n">
+        <v>5</v>
+      </c>
+      <c r="R11" t="n">
+        <v>5</v>
+      </c>
+      <c r="S11" t="s"/>
+      <c r="T11" t="s"/>
+      <c r="U11" t="n">
+        <v>5</v>
+      </c>
+      <c r="V11" t="n">
+        <v>0</v>
+      </c>
+      <c r="W11" t="s"/>
+      <c r="X11" t="s"/>
+      <c r="Y11" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="n">
+        <v>5203</v>
+      </c>
+      <c r="B12" t="s"/>
+      <c r="C12" t="s"/>
+      <c r="D12" t="n">
+        <v>11</v>
+      </c>
+      <c r="E12" t="s">
+        <v>44</v>
+      </c>
+      <c r="F12" t="s">
+        <v>118</v>
+      </c>
+      <c r="G12" t="s">
+        <v>46</v>
+      </c>
+      <c r="H12" t="s">
+        <v>47</v>
+      </c>
+      <c r="I12" t="s">
+        <v>119</v>
+      </c>
+      <c r="J12" t="s">
+        <v>120</v>
+      </c>
+      <c r="K12" t="s">
+        <v>121</v>
+      </c>
+      <c r="L12" t="s">
+        <v>122</v>
+      </c>
+      <c r="M12" t="n">
+        <v>2</v>
+      </c>
+      <c r="N12" t="s">
+        <v>123</v>
+      </c>
+      <c r="O12" t="s">
+        <v>63</v>
+      </c>
+      <c r="P12" t="s"/>
+      <c r="Q12" t="s"/>
+      <c r="R12" t="s"/>
+      <c r="S12" t="s"/>
+      <c r="T12" t="s"/>
+      <c r="U12" t="s"/>
+      <c r="V12" t="n">
+        <v>0</v>
+      </c>
+      <c r="W12" t="s"/>
+      <c r="X12" t="s"/>
+      <c r="Y12" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="n">
+        <v>5203</v>
+      </c>
+      <c r="B13" t="s"/>
+      <c r="C13" t="s"/>
+      <c r="D13" t="n">
+        <v>12</v>
+      </c>
+      <c r="E13" t="s">
+        <v>44</v>
+      </c>
+      <c r="F13" t="s">
+        <v>124</v>
+      </c>
+      <c r="G13" t="s">
+        <v>46</v>
+      </c>
+      <c r="H13" t="s">
+        <v>47</v>
+      </c>
+      <c r="I13" t="s">
+        <v>125</v>
+      </c>
+      <c r="J13" t="s">
+        <v>126</v>
+      </c>
+      <c r="K13" t="s">
+        <v>127</v>
+      </c>
+      <c r="L13" t="s">
+        <v>128</v>
+      </c>
+      <c r="M13" t="n">
+        <v>1</v>
+      </c>
+      <c r="N13" t="s">
+        <v>117</v>
+      </c>
+      <c r="O13" t="s">
+        <v>129</v>
+      </c>
+      <c r="P13" t="s"/>
+      <c r="Q13" t="n">
+        <v>1</v>
+      </c>
+      <c r="R13" t="s"/>
+      <c r="S13" t="s"/>
+      <c r="T13" t="s"/>
+      <c r="U13" t="n">
+        <v>3</v>
+      </c>
+      <c r="V13" t="n">
+        <v>0</v>
+      </c>
+      <c r="W13" t="s">
+        <v>130</v>
+      </c>
+      <c r="X13" t="s">
+        <v>131</v>
+      </c>
+      <c r="Y13" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="n">
+        <v>5203</v>
+      </c>
+      <c r="B14" t="s"/>
+      <c r="C14" t="s"/>
+      <c r="D14" t="n">
+        <v>13</v>
+      </c>
+      <c r="E14" t="s">
+        <v>44</v>
+      </c>
+      <c r="F14" t="s">
+        <v>133</v>
+      </c>
+      <c r="G14" t="s">
+        <v>46</v>
+      </c>
+      <c r="H14" t="s">
+        <v>47</v>
+      </c>
+      <c r="I14" t="s">
+        <v>134</v>
+      </c>
+      <c r="J14" t="s">
+        <v>135</v>
+      </c>
+      <c r="K14" t="s">
+        <v>136</v>
+      </c>
+      <c r="L14" t="s">
+        <v>137</v>
+      </c>
+      <c r="M14" t="n">
+        <v>5</v>
+      </c>
+      <c r="N14" t="s">
+        <v>138</v>
+      </c>
+      <c r="O14" t="s">
+        <v>139</v>
+      </c>
+      <c r="P14" t="s"/>
+      <c r="Q14" t="s"/>
+      <c r="R14" t="s"/>
+      <c r="S14" t="s"/>
+      <c r="T14" t="s"/>
+      <c r="U14" t="s"/>
+      <c r="V14" t="n">
+        <v>0</v>
+      </c>
+      <c r="W14" t="s">
+        <v>140</v>
+      </c>
+      <c r="X14" t="s">
+        <v>141</v>
+      </c>
+      <c r="Y14" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="n">
+        <v>5203</v>
+      </c>
+      <c r="B15" t="s"/>
+      <c r="C15" t="s"/>
+      <c r="D15" t="n">
+        <v>14</v>
+      </c>
+      <c r="E15" t="s">
+        <v>44</v>
+      </c>
+      <c r="F15" t="s">
+        <v>143</v>
+      </c>
+      <c r="G15" t="s">
+        <v>46</v>
+      </c>
+      <c r="H15" t="s">
+        <v>47</v>
+      </c>
+      <c r="I15" t="s">
+        <v>144</v>
+      </c>
+      <c r="J15" t="s">
+        <v>145</v>
+      </c>
+      <c r="K15" t="s">
+        <v>146</v>
+      </c>
+      <c r="L15" t="s">
+        <v>147</v>
+      </c>
+      <c r="M15" t="n">
+        <v>5</v>
+      </c>
+      <c r="N15" t="s">
+        <v>148</v>
+      </c>
+      <c r="O15" t="s">
+        <v>63</v>
+      </c>
+      <c r="P15" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q15" t="n">
+        <v>5</v>
+      </c>
+      <c r="R15" t="s"/>
+      <c r="S15" t="s"/>
+      <c r="T15" t="s"/>
+      <c r="U15" t="n">
+        <v>4</v>
+      </c>
+      <c r="V15" t="n">
+        <v>0</v>
+      </c>
+      <c r="W15" t="s">
+        <v>140</v>
+      </c>
+      <c r="X15" t="s">
+        <v>141</v>
+      </c>
+      <c r="Y15" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="n">
+        <v>5203</v>
+      </c>
+      <c r="B16" t="s"/>
+      <c r="C16" t="s"/>
+      <c r="D16" t="n">
+        <v>15</v>
+      </c>
+      <c r="E16" t="s">
+        <v>44</v>
+      </c>
+      <c r="F16" t="s">
+        <v>150</v>
+      </c>
+      <c r="G16" t="s">
+        <v>46</v>
+      </c>
+      <c r="H16" t="s">
+        <v>47</v>
+      </c>
+      <c r="I16" t="s">
+        <v>151</v>
+      </c>
+      <c r="J16" t="s">
+        <v>152</v>
+      </c>
+      <c r="K16" t="s">
+        <v>153</v>
+      </c>
+      <c r="L16" t="s">
+        <v>154</v>
+      </c>
+      <c r="M16" t="n">
+        <v>1</v>
+      </c>
+      <c r="N16" t="s">
+        <v>155</v>
+      </c>
+      <c r="O16" t="s">
+        <v>63</v>
+      </c>
+      <c r="P16" t="s"/>
+      <c r="Q16" t="s"/>
+      <c r="R16" t="n">
+        <v>1</v>
+      </c>
+      <c r="S16" t="n">
+        <v>1</v>
+      </c>
+      <c r="T16" t="s"/>
+      <c r="U16" t="n">
+        <v>1</v>
+      </c>
+      <c r="V16" t="n">
+        <v>0</v>
+      </c>
+      <c r="W16" t="s">
+        <v>156</v>
+      </c>
+      <c r="X16" t="s">
+        <v>157</v>
+      </c>
+      <c r="Y16" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="n">
+        <v>5203</v>
+      </c>
+      <c r="B17" t="s"/>
+      <c r="C17" t="s"/>
+      <c r="D17" t="n">
+        <v>16</v>
+      </c>
+      <c r="E17" t="s">
+        <v>44</v>
+      </c>
+      <c r="F17" t="s">
+        <v>159</v>
+      </c>
+      <c r="G17" t="s">
+        <v>46</v>
+      </c>
+      <c r="H17" t="s">
+        <v>47</v>
+      </c>
+      <c r="I17" t="s">
+        <v>160</v>
+      </c>
+      <c r="J17" t="s">
+        <v>161</v>
+      </c>
+      <c r="K17" t="s">
+        <v>162</v>
+      </c>
+      <c r="L17" t="s">
+        <v>163</v>
+      </c>
+      <c r="M17" t="n">
+        <v>3</v>
+      </c>
+      <c r="N17" t="s">
+        <v>164</v>
+      </c>
+      <c r="O17" t="s">
+        <v>53</v>
+      </c>
+      <c r="P17" t="s"/>
+      <c r="Q17" t="s"/>
+      <c r="R17" t="s"/>
+      <c r="S17" t="n">
+        <v>5</v>
+      </c>
+      <c r="T17" t="s"/>
+      <c r="U17" t="n">
+        <v>4</v>
+      </c>
+      <c r="V17" t="n">
+        <v>0</v>
+      </c>
+      <c r="W17" t="s">
+        <v>165</v>
+      </c>
+      <c r="X17" t="s">
+        <v>166</v>
+      </c>
+      <c r="Y17" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="n">
+        <v>5203</v>
+      </c>
+      <c r="B18" t="s"/>
+      <c r="C18" t="s"/>
+      <c r="D18" t="n">
+        <v>17</v>
+      </c>
+      <c r="E18" t="s">
+        <v>44</v>
+      </c>
+      <c r="F18" t="s">
+        <v>168</v>
+      </c>
+      <c r="G18" t="s">
+        <v>46</v>
+      </c>
+      <c r="H18" t="s">
+        <v>47</v>
+      </c>
+      <c r="I18" t="s">
+        <v>169</v>
+      </c>
+      <c r="J18" t="s">
+        <v>170</v>
+      </c>
+      <c r="K18" t="s">
+        <v>171</v>
+      </c>
+      <c r="L18" t="s">
+        <v>172</v>
+      </c>
+      <c r="M18" t="n">
+        <v>5</v>
+      </c>
+      <c r="N18" t="s"/>
+      <c r="O18" t="s"/>
+      <c r="P18" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q18" t="n">
+        <v>5</v>
+      </c>
+      <c r="R18" t="n">
+        <v>5</v>
+      </c>
+      <c r="S18" t="n">
+        <v>5</v>
+      </c>
+      <c r="T18" t="s"/>
+      <c r="U18" t="n">
+        <v>5</v>
+      </c>
+      <c r="V18" t="n">
+        <v>0</v>
+      </c>
+      <c r="W18" t="s">
+        <v>173</v>
+      </c>
+      <c r="X18" t="s">
+        <v>174</v>
+      </c>
+      <c r="Y18" t="s">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="n">
+        <v>5203</v>
+      </c>
+      <c r="B19" t="s"/>
+      <c r="C19" t="s"/>
+      <c r="D19" t="n">
+        <v>18</v>
+      </c>
+      <c r="E19" t="s">
+        <v>44</v>
+      </c>
+      <c r="F19" t="s">
+        <v>176</v>
+      </c>
+      <c r="G19" t="s">
+        <v>46</v>
+      </c>
+      <c r="H19" t="s">
+        <v>47</v>
+      </c>
+      <c r="I19" t="s">
+        <v>177</v>
+      </c>
+      <c r="J19" t="s">
+        <v>178</v>
+      </c>
+      <c r="K19" t="s">
+        <v>179</v>
+      </c>
+      <c r="L19" t="s">
+        <v>180</v>
+      </c>
+      <c r="M19" t="n">
+        <v>5</v>
+      </c>
+      <c r="N19" t="s">
+        <v>181</v>
+      </c>
+      <c r="O19" t="s">
+        <v>63</v>
+      </c>
+      <c r="P19" t="s"/>
+      <c r="Q19" t="n">
+        <v>4</v>
+      </c>
+      <c r="R19" t="s"/>
+      <c r="S19" t="n">
+        <v>5</v>
+      </c>
+      <c r="T19" t="s"/>
+      <c r="U19" t="n">
+        <v>4</v>
+      </c>
+      <c r="V19" t="n">
+        <v>0</v>
+      </c>
+      <c r="W19" t="s">
+        <v>182</v>
+      </c>
+      <c r="X19" t="s">
+        <v>183</v>
+      </c>
+      <c r="Y19" t="s">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="n">
+        <v>5203</v>
+      </c>
+      <c r="B20" t="s"/>
+      <c r="C20" t="s"/>
+      <c r="D20" t="n">
+        <v>19</v>
+      </c>
+      <c r="E20" t="s">
+        <v>44</v>
+      </c>
+      <c r="F20" t="s">
+        <v>185</v>
+      </c>
+      <c r="G20" t="s">
+        <v>46</v>
+      </c>
+      <c r="H20" t="s">
+        <v>47</v>
+      </c>
+      <c r="I20" t="s">
+        <v>186</v>
+      </c>
+      <c r="J20" t="s">
+        <v>187</v>
+      </c>
+      <c r="K20" t="s">
+        <v>188</v>
+      </c>
+      <c r="L20" t="s">
+        <v>189</v>
+      </c>
+      <c r="M20" t="n">
+        <v>1</v>
+      </c>
+      <c r="N20" t="s">
+        <v>190</v>
+      </c>
+      <c r="O20" t="s">
+        <v>139</v>
+      </c>
+      <c r="P20" t="s"/>
+      <c r="Q20" t="s"/>
+      <c r="R20" t="s"/>
+      <c r="S20" t="s"/>
+      <c r="T20" t="s"/>
+      <c r="U20" t="s"/>
+      <c r="V20" t="n">
+        <v>0</v>
+      </c>
+      <c r="W20" t="s">
+        <v>191</v>
+      </c>
+      <c r="X20" t="s">
+        <v>192</v>
+      </c>
+      <c r="Y20" t="s">
+        <v>193</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="n">
+        <v>5203</v>
+      </c>
+      <c r="B21" t="s"/>
+      <c r="C21" t="s"/>
+      <c r="D21" t="n">
+        <v>20</v>
+      </c>
+      <c r="E21" t="s">
+        <v>44</v>
+      </c>
+      <c r="F21" t="s">
+        <v>194</v>
+      </c>
+      <c r="G21" t="s">
+        <v>46</v>
+      </c>
+      <c r="H21" t="s">
+        <v>47</v>
+      </c>
+      <c r="I21" t="s">
+        <v>195</v>
+      </c>
+      <c r="J21" t="s">
+        <v>196</v>
+      </c>
+      <c r="K21" t="s">
+        <v>197</v>
+      </c>
+      <c r="L21" t="s">
+        <v>198</v>
+      </c>
+      <c r="M21" t="n">
+        <v>1</v>
+      </c>
+      <c r="N21" t="s">
+        <v>190</v>
+      </c>
+      <c r="O21" t="s">
+        <v>63</v>
+      </c>
+      <c r="P21" t="n">
+        <v>2</v>
+      </c>
+      <c r="Q21" t="n">
+        <v>2</v>
+      </c>
+      <c r="R21" t="n">
+        <v>5</v>
+      </c>
+      <c r="S21" t="n">
+        <v>2</v>
+      </c>
+      <c r="T21" t="s"/>
+      <c r="U21" t="n">
+        <v>2</v>
+      </c>
+      <c r="V21" t="n">
+        <v>0</v>
+      </c>
+      <c r="W21" t="s">
+        <v>199</v>
+      </c>
+      <c r="X21" t="s">
+        <v>200</v>
+      </c>
+      <c r="Y21" t="s">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="n">
+        <v>5203</v>
+      </c>
+      <c r="B22" t="s"/>
+      <c r="C22" t="s"/>
+      <c r="D22" t="n">
+        <v>21</v>
+      </c>
+      <c r="E22" t="s">
+        <v>44</v>
+      </c>
+      <c r="F22" t="s">
+        <v>202</v>
+      </c>
+      <c r="G22" t="s">
+        <v>46</v>
+      </c>
+      <c r="H22" t="s">
+        <v>47</v>
+      </c>
+      <c r="I22" t="s">
+        <v>203</v>
+      </c>
+      <c r="J22" t="s">
+        <v>204</v>
+      </c>
+      <c r="K22" t="s">
+        <v>205</v>
+      </c>
+      <c r="L22" t="s">
+        <v>206</v>
+      </c>
+      <c r="M22" t="n">
+        <v>3</v>
+      </c>
+      <c r="N22" t="s">
+        <v>190</v>
+      </c>
+      <c r="O22" t="s">
+        <v>129</v>
+      </c>
+      <c r="P22" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q22" t="n">
+        <v>3</v>
+      </c>
+      <c r="R22" t="n">
+        <v>4</v>
+      </c>
+      <c r="S22" t="n">
+        <v>3</v>
+      </c>
+      <c r="T22" t="s"/>
+      <c r="U22" t="n">
+        <v>2</v>
+      </c>
+      <c r="V22" t="n">
+        <v>0</v>
+      </c>
+      <c r="W22" t="s">
+        <v>207</v>
+      </c>
+      <c r="X22" t="s">
+        <v>208</v>
+      </c>
+      <c r="Y22" t="s">
+        <v>209</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="n">
+        <v>5203</v>
+      </c>
+      <c r="B23" t="s"/>
+      <c r="C23" t="s"/>
+      <c r="D23" t="n">
+        <v>22</v>
+      </c>
+      <c r="E23" t="s">
+        <v>44</v>
+      </c>
+      <c r="F23" t="s">
+        <v>210</v>
+      </c>
+      <c r="G23" t="s">
+        <v>46</v>
+      </c>
+      <c r="H23" t="s">
+        <v>47</v>
+      </c>
+      <c r="I23" t="s">
+        <v>211</v>
+      </c>
+      <c r="J23" t="s">
+        <v>212</v>
+      </c>
+      <c r="K23" t="s">
+        <v>213</v>
+      </c>
+      <c r="L23" t="s">
+        <v>214</v>
+      </c>
+      <c r="M23" t="n">
+        <v>1</v>
+      </c>
+      <c r="N23" t="s">
+        <v>190</v>
+      </c>
+      <c r="O23" t="s">
+        <v>63</v>
+      </c>
+      <c r="P23" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q23" t="n">
+        <v>1</v>
+      </c>
+      <c r="R23" t="n">
+        <v>1</v>
+      </c>
+      <c r="S23" t="n">
+        <v>1</v>
+      </c>
+      <c r="T23" t="s"/>
+      <c r="U23" t="n">
+        <v>1</v>
+      </c>
+      <c r="V23" t="n">
+        <v>0</v>
+      </c>
+      <c r="W23" t="s">
+        <v>207</v>
+      </c>
+      <c r="X23" t="s">
+        <v>208</v>
+      </c>
+      <c r="Y23" t="s">
+        <v>215</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="n">
+        <v>5203</v>
+      </c>
+      <c r="B24" t="s"/>
+      <c r="C24" t="s"/>
+      <c r="D24" t="n">
+        <v>23</v>
+      </c>
+      <c r="E24" t="s">
+        <v>44</v>
+      </c>
+      <c r="F24" t="s">
+        <v>216</v>
+      </c>
+      <c r="G24" t="s">
+        <v>46</v>
+      </c>
+      <c r="H24" t="s">
+        <v>47</v>
+      </c>
+      <c r="I24" t="s">
+        <v>217</v>
+      </c>
+      <c r="J24" t="s">
+        <v>218</v>
+      </c>
+      <c r="K24" t="s">
+        <v>219</v>
+      </c>
+      <c r="L24" t="s">
+        <v>220</v>
+      </c>
+      <c r="M24" t="n">
+        <v>2</v>
+      </c>
+      <c r="N24" t="s">
+        <v>221</v>
+      </c>
+      <c r="O24" t="s">
+        <v>63</v>
+      </c>
+      <c r="P24" t="n">
+        <v>2</v>
+      </c>
+      <c r="Q24" t="n">
+        <v>2</v>
+      </c>
+      <c r="R24" t="n">
+        <v>3</v>
+      </c>
+      <c r="S24" t="n">
+        <v>2</v>
+      </c>
+      <c r="T24" t="s"/>
+      <c r="U24" t="n">
+        <v>3</v>
+      </c>
+      <c r="V24" t="n">
+        <v>0</v>
+      </c>
+      <c r="W24" t="s">
+        <v>222</v>
+      </c>
+      <c r="X24" t="s">
+        <v>223</v>
+      </c>
+      <c r="Y24" t="s">
+        <v>224</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="n">
+        <v>5203</v>
+      </c>
+      <c r="B25" t="s"/>
+      <c r="C25" t="s"/>
+      <c r="D25" t="n">
+        <v>24</v>
+      </c>
+      <c r="E25" t="s">
+        <v>44</v>
+      </c>
+      <c r="F25" t="s">
+        <v>225</v>
+      </c>
+      <c r="G25" t="s">
+        <v>46</v>
+      </c>
+      <c r="H25" t="s">
+        <v>47</v>
+      </c>
+      <c r="I25" t="s">
+        <v>226</v>
+      </c>
+      <c r="J25" t="s">
+        <v>227</v>
+      </c>
+      <c r="K25" t="s">
+        <v>228</v>
+      </c>
+      <c r="L25" t="s">
+        <v>229</v>
+      </c>
+      <c r="M25" t="n">
+        <v>5</v>
+      </c>
+      <c r="N25" t="s">
+        <v>230</v>
+      </c>
+      <c r="O25" t="s">
+        <v>129</v>
+      </c>
+      <c r="P25" t="s"/>
+      <c r="Q25" t="s"/>
+      <c r="R25" t="s"/>
+      <c r="S25" t="s"/>
+      <c r="T25" t="s"/>
+      <c r="U25" t="s"/>
+      <c r="V25" t="n">
+        <v>0</v>
+      </c>
+      <c r="W25" t="s">
+        <v>222</v>
+      </c>
+      <c r="X25" t="s">
+        <v>223</v>
+      </c>
+      <c r="Y25" t="s">
+        <v>231</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="n">
+        <v>5203</v>
+      </c>
+      <c r="B26" t="s"/>
+      <c r="C26" t="s"/>
+      <c r="D26" t="n">
+        <v>25</v>
+      </c>
+      <c r="E26" t="s">
+        <v>44</v>
+      </c>
+      <c r="F26" t="s">
+        <v>232</v>
+      </c>
+      <c r="G26" t="s">
+        <v>46</v>
+      </c>
+      <c r="H26" t="s">
+        <v>47</v>
+      </c>
+      <c r="I26" t="s">
+        <v>233</v>
+      </c>
+      <c r="J26" t="s">
+        <v>234</v>
+      </c>
+      <c r="K26" t="s">
+        <v>235</v>
+      </c>
+      <c r="L26" t="s">
+        <v>236</v>
+      </c>
+      <c r="M26" t="n">
+        <v>5</v>
+      </c>
+      <c r="N26" t="s">
+        <v>221</v>
+      </c>
+      <c r="O26" t="s">
+        <v>139</v>
+      </c>
+      <c r="P26" t="s"/>
+      <c r="Q26" t="s"/>
+      <c r="R26" t="s"/>
+      <c r="S26" t="s"/>
+      <c r="T26" t="s"/>
+      <c r="U26" t="s"/>
+      <c r="V26" t="n">
+        <v>0</v>
+      </c>
+      <c r="W26" t="s">
+        <v>237</v>
+      </c>
+      <c r="X26" t="s">
+        <v>238</v>
+      </c>
+      <c r="Y26" t="s">
+        <v>239</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" t="n">
+        <v>5203</v>
+      </c>
+      <c r="B27" t="s"/>
+      <c r="C27" t="s"/>
+      <c r="D27" t="n">
+        <v>26</v>
+      </c>
+      <c r="E27" t="s">
+        <v>44</v>
+      </c>
+      <c r="F27" t="s">
+        <v>240</v>
+      </c>
+      <c r="G27" t="s">
+        <v>46</v>
+      </c>
+      <c r="H27" t="s">
+        <v>47</v>
+      </c>
+      <c r="I27" t="s">
+        <v>241</v>
+      </c>
+      <c r="J27" t="s">
+        <v>242</v>
+      </c>
+      <c r="K27" t="s">
+        <v>243</v>
+      </c>
+      <c r="L27" t="s">
+        <v>244</v>
+      </c>
+      <c r="M27" t="n">
+        <v>4</v>
+      </c>
+      <c r="N27" t="s">
+        <v>221</v>
+      </c>
+      <c r="O27" t="s">
+        <v>139</v>
+      </c>
+      <c r="P27" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q27" t="n">
+        <v>3</v>
+      </c>
+      <c r="R27" t="n">
+        <v>2</v>
+      </c>
+      <c r="S27" t="n">
+        <v>4</v>
+      </c>
+      <c r="T27" t="s"/>
+      <c r="U27" t="n">
+        <v>3</v>
+      </c>
+      <c r="V27" t="n">
+        <v>0</v>
+      </c>
+      <c r="W27" t="s">
+        <v>237</v>
+      </c>
+      <c r="X27" t="s">
+        <v>238</v>
+      </c>
+      <c r="Y27" t="s">
+        <v>245</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="n">
+        <v>5203</v>
+      </c>
+      <c r="B28" t="s"/>
+      <c r="C28" t="s"/>
+      <c r="D28" t="n">
+        <v>27</v>
+      </c>
+      <c r="E28" t="s">
+        <v>44</v>
+      </c>
+      <c r="F28" t="s">
+        <v>246</v>
+      </c>
+      <c r="G28" t="s">
+        <v>46</v>
+      </c>
+      <c r="H28" t="s">
+        <v>47</v>
+      </c>
+      <c r="I28" t="s">
+        <v>247</v>
+      </c>
+      <c r="J28" t="s">
+        <v>248</v>
+      </c>
+      <c r="K28" t="s">
+        <v>249</v>
+      </c>
+      <c r="L28" t="s">
+        <v>250</v>
+      </c>
+      <c r="M28" t="n">
+        <v>1</v>
+      </c>
+      <c r="N28" t="s">
+        <v>251</v>
+      </c>
+      <c r="O28" t="s">
+        <v>129</v>
+      </c>
+      <c r="P28" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q28" t="n">
+        <v>1</v>
+      </c>
+      <c r="R28" t="n">
+        <v>1</v>
+      </c>
+      <c r="S28" t="n">
+        <v>1</v>
+      </c>
+      <c r="T28" t="s"/>
+      <c r="U28" t="n">
+        <v>1</v>
+      </c>
+      <c r="V28" t="n">
+        <v>0</v>
+      </c>
+      <c r="W28" t="s">
+        <v>252</v>
+      </c>
+      <c r="X28" t="s">
+        <v>253</v>
+      </c>
+      <c r="Y28" t="s">
+        <v>254</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" t="n">
+        <v>5203</v>
+      </c>
+      <c r="B29" t="s"/>
+      <c r="C29" t="s"/>
+      <c r="D29" t="n">
+        <v>28</v>
+      </c>
+      <c r="E29" t="s">
+        <v>44</v>
+      </c>
+      <c r="F29" t="s">
+        <v>255</v>
+      </c>
+      <c r="G29" t="s">
+        <v>46</v>
+      </c>
+      <c r="H29" t="s">
+        <v>47</v>
+      </c>
+      <c r="I29" t="s">
+        <v>256</v>
+      </c>
+      <c r="J29" t="s">
+        <v>257</v>
+      </c>
+      <c r="K29" t="s">
+        <v>258</v>
+      </c>
+      <c r="L29" t="s">
+        <v>259</v>
+      </c>
+      <c r="M29" t="n">
+        <v>4</v>
+      </c>
+      <c r="N29" t="s">
+        <v>260</v>
+      </c>
+      <c r="O29" t="s">
+        <v>129</v>
+      </c>
+      <c r="P29" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q29" t="n">
+        <v>3</v>
+      </c>
+      <c r="R29" t="n">
+        <v>3</v>
+      </c>
+      <c r="S29" t="n">
+        <v>5</v>
+      </c>
+      <c r="T29" t="s"/>
+      <c r="U29" t="n">
+        <v>5</v>
+      </c>
+      <c r="V29" t="n">
+        <v>0</v>
+      </c>
+      <c r="W29" t="s">
+        <v>261</v>
+      </c>
+      <c r="X29" t="s">
+        <v>262</v>
+      </c>
+      <c r="Y29" t="s">
+        <v>263</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" t="n">
+        <v>5203</v>
+      </c>
+      <c r="B30" t="s"/>
+      <c r="C30" t="s"/>
+      <c r="D30" t="n">
+        <v>29</v>
+      </c>
+      <c r="E30" t="s">
+        <v>44</v>
+      </c>
+      <c r="F30" t="s">
+        <v>264</v>
+      </c>
+      <c r="G30" t="s">
+        <v>46</v>
+      </c>
+      <c r="H30" t="s">
+        <v>47</v>
+      </c>
+      <c r="I30" t="s">
+        <v>265</v>
+      </c>
+      <c r="J30" t="s">
+        <v>266</v>
+      </c>
+      <c r="K30" t="s">
+        <v>267</v>
+      </c>
+      <c r="L30" t="s">
+        <v>268</v>
+      </c>
+      <c r="M30" t="n">
+        <v>1</v>
+      </c>
+      <c r="N30" t="s">
+        <v>269</v>
+      </c>
+      <c r="O30" t="s">
+        <v>63</v>
+      </c>
+      <c r="P30" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q30" t="n">
+        <v>1</v>
+      </c>
+      <c r="R30" t="n">
+        <v>2</v>
+      </c>
+      <c r="S30" t="n">
+        <v>1</v>
+      </c>
+      <c r="T30" t="s"/>
+      <c r="U30" t="n">
+        <v>1</v>
+      </c>
+      <c r="V30" t="n">
+        <v>0</v>
+      </c>
+      <c r="W30" t="s">
+        <v>261</v>
+      </c>
+      <c r="X30" t="s">
+        <v>262</v>
+      </c>
+      <c r="Y30" t="s">
+        <v>270</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" t="n">
+        <v>5203</v>
+      </c>
+      <c r="B31" t="s"/>
+      <c r="C31" t="s"/>
+      <c r="D31" t="n">
+        <v>30</v>
+      </c>
+      <c r="E31" t="s">
+        <v>44</v>
+      </c>
+      <c r="F31" t="s">
+        <v>271</v>
+      </c>
+      <c r="G31" t="s">
+        <v>46</v>
+      </c>
+      <c r="H31" t="s">
+        <v>47</v>
+      </c>
+      <c r="I31" t="s">
+        <v>272</v>
+      </c>
+      <c r="J31" t="s">
+        <v>273</v>
+      </c>
+      <c r="K31" t="s">
+        <v>274</v>
+      </c>
+      <c r="L31" t="s">
+        <v>275</v>
+      </c>
+      <c r="M31" t="n">
+        <v>5</v>
+      </c>
+      <c r="N31" t="s">
+        <v>269</v>
+      </c>
+      <c r="O31" t="s">
+        <v>63</v>
+      </c>
+      <c r="P31" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q31" t="n">
+        <v>5</v>
+      </c>
+      <c r="R31" t="n">
+        <v>5</v>
+      </c>
+      <c r="S31" t="n">
+        <v>5</v>
+      </c>
+      <c r="T31" t="s"/>
+      <c r="U31" t="n">
+        <v>5</v>
+      </c>
+      <c r="V31" t="n">
+        <v>0</v>
+      </c>
+      <c r="W31" t="s">
+        <v>261</v>
+      </c>
+      <c r="X31" t="s">
+        <v>262</v>
+      </c>
+      <c r="Y31" t="s">
+        <v>276</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" t="n">
+        <v>5203</v>
+      </c>
+      <c r="B32" t="s"/>
+      <c r="C32" t="s"/>
+      <c r="D32" t="n">
+        <v>31</v>
+      </c>
+      <c r="E32" t="s">
+        <v>44</v>
+      </c>
+      <c r="F32" t="s">
+        <v>277</v>
+      </c>
+      <c r="G32" t="s">
+        <v>46</v>
+      </c>
+      <c r="H32" t="s">
+        <v>47</v>
+      </c>
+      <c r="I32" t="s">
+        <v>278</v>
+      </c>
+      <c r="J32" t="s">
+        <v>279</v>
+      </c>
+      <c r="K32" t="s">
+        <v>280</v>
+      </c>
+      <c r="L32" t="s">
+        <v>281</v>
+      </c>
+      <c r="M32" t="n">
+        <v>5</v>
+      </c>
+      <c r="N32" t="s">
+        <v>282</v>
+      </c>
+      <c r="O32" t="s">
+        <v>63</v>
+      </c>
+      <c r="P32" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q32" t="n">
+        <v>5</v>
+      </c>
+      <c r="R32" t="n">
+        <v>5</v>
+      </c>
+      <c r="S32" t="n">
+        <v>5</v>
+      </c>
+      <c r="T32" t="s"/>
+      <c r="U32" t="n">
+        <v>5</v>
+      </c>
+      <c r="V32" t="n">
+        <v>0</v>
+      </c>
+      <c r="W32" t="s"/>
+      <c r="X32" t="s"/>
+      <c r="Y32" t="s">
+        <v>281</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" t="n">
+        <v>5203</v>
+      </c>
+      <c r="B33" t="s"/>
+      <c r="C33" t="s"/>
+      <c r="D33" t="n">
+        <v>32</v>
+      </c>
+      <c r="E33" t="s">
+        <v>44</v>
+      </c>
+      <c r="F33" t="s">
+        <v>283</v>
+      </c>
+      <c r="G33" t="s">
+        <v>46</v>
+      </c>
+      <c r="H33" t="s">
+        <v>47</v>
+      </c>
+      <c r="I33" t="s">
+        <v>284</v>
+      </c>
+      <c r="J33" t="s">
+        <v>279</v>
+      </c>
+      <c r="K33" t="s">
+        <v>285</v>
+      </c>
+      <c r="L33" t="s">
+        <v>286</v>
+      </c>
+      <c r="M33" t="n">
+        <v>4</v>
+      </c>
+      <c r="N33" t="s">
+        <v>282</v>
+      </c>
+      <c r="O33" t="s">
+        <v>63</v>
+      </c>
+      <c r="P33" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q33" t="n">
+        <v>4</v>
+      </c>
+      <c r="R33" t="n">
+        <v>5</v>
+      </c>
+      <c r="S33" t="n">
+        <v>4</v>
+      </c>
+      <c r="T33" t="s"/>
+      <c r="U33" t="n">
+        <v>3</v>
+      </c>
+      <c r="V33" t="n">
+        <v>0</v>
+      </c>
+      <c r="W33" t="s"/>
+      <c r="X33" t="s"/>
+      <c r="Y33" t="s">
+        <v>286</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" t="n">
+        <v>5203</v>
+      </c>
+      <c r="B34" t="s"/>
+      <c r="C34" t="s"/>
+      <c r="D34" t="n">
+        <v>33</v>
+      </c>
+      <c r="E34" t="s">
+        <v>44</v>
+      </c>
+      <c r="F34" t="s">
+        <v>287</v>
+      </c>
+      <c r="G34" t="s">
+        <v>46</v>
+      </c>
+      <c r="H34" t="s">
+        <v>47</v>
+      </c>
+      <c r="I34" t="s">
+        <v>288</v>
+      </c>
+      <c r="J34" t="s">
+        <v>289</v>
+      </c>
+      <c r="K34" t="s">
+        <v>290</v>
+      </c>
+      <c r="L34" t="s">
+        <v>291</v>
+      </c>
+      <c r="M34" t="n">
+        <v>1</v>
+      </c>
+      <c r="N34" t="s">
+        <v>282</v>
+      </c>
+      <c r="O34" t="s">
+        <v>63</v>
+      </c>
+      <c r="P34" t="n">
+        <v>2</v>
+      </c>
+      <c r="Q34" t="n">
+        <v>2</v>
+      </c>
+      <c r="R34" t="n">
+        <v>4</v>
+      </c>
+      <c r="S34" t="n">
+        <v>1</v>
+      </c>
+      <c r="T34" t="s"/>
+      <c r="U34" t="n">
+        <v>4</v>
+      </c>
+      <c r="V34" t="n">
+        <v>0</v>
+      </c>
+      <c r="W34" t="s"/>
+      <c r="X34" t="s"/>
+      <c r="Y34" t="s">
+        <v>292</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" t="n">
+        <v>5203</v>
+      </c>
+      <c r="B35" t="s"/>
+      <c r="C35" t="s"/>
+      <c r="D35" t="n">
+        <v>34</v>
+      </c>
+      <c r="E35" t="s">
+        <v>44</v>
+      </c>
+      <c r="F35" t="s">
+        <v>293</v>
+      </c>
+      <c r="G35" t="s">
+        <v>46</v>
+      </c>
+      <c r="H35" t="s">
+        <v>47</v>
+      </c>
+      <c r="I35" t="s">
+        <v>294</v>
+      </c>
+      <c r="J35" t="s">
+        <v>295</v>
+      </c>
+      <c r="K35" t="s">
+        <v>296</v>
+      </c>
+      <c r="L35" t="s">
+        <v>297</v>
+      </c>
+      <c r="M35" t="n">
+        <v>3</v>
+      </c>
+      <c r="N35" t="s">
+        <v>298</v>
+      </c>
+      <c r="O35" t="s">
+        <v>299</v>
+      </c>
+      <c r="P35" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q35" t="n">
+        <v>4</v>
+      </c>
+      <c r="R35" t="n">
+        <v>3</v>
+      </c>
+      <c r="S35" t="n">
+        <v>5</v>
+      </c>
+      <c r="T35" t="s"/>
+      <c r="U35" t="n">
+        <v>2</v>
+      </c>
+      <c r="V35" t="n">
+        <v>0</v>
+      </c>
+      <c r="W35" t="s"/>
+      <c r="X35" t="s"/>
+      <c r="Y35" t="s">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" t="n">
+        <v>5203</v>
+      </c>
+      <c r="B36" t="s"/>
+      <c r="C36" t="s"/>
+      <c r="D36" t="n">
+        <v>35</v>
+      </c>
+      <c r="E36" t="s">
+        <v>44</v>
+      </c>
+      <c r="F36" t="s">
+        <v>301</v>
+      </c>
+      <c r="G36" t="s">
+        <v>46</v>
+      </c>
+      <c r="H36" t="s">
+        <v>47</v>
+      </c>
+      <c r="I36" t="s">
+        <v>302</v>
+      </c>
+      <c r="J36" t="s">
+        <v>303</v>
+      </c>
+      <c r="K36" t="s">
+        <v>304</v>
+      </c>
+      <c r="L36" t="s">
+        <v>305</v>
+      </c>
+      <c r="M36" t="n">
+        <v>5</v>
+      </c>
+      <c r="N36" t="s">
+        <v>298</v>
+      </c>
+      <c r="O36" t="s">
+        <v>299</v>
+      </c>
+      <c r="P36" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q36" t="n">
+        <v>5</v>
+      </c>
+      <c r="R36" t="n">
+        <v>5</v>
+      </c>
+      <c r="S36" t="n">
+        <v>5</v>
+      </c>
+      <c r="T36" t="s"/>
+      <c r="U36" t="n">
+        <v>5</v>
+      </c>
+      <c r="V36" t="n">
+        <v>0</v>
+      </c>
+      <c r="W36" t="s"/>
+      <c r="X36" t="s"/>
+      <c r="Y36" t="s">
+        <v>305</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" t="n">
+        <v>5203</v>
+      </c>
+      <c r="B37" t="s"/>
+      <c r="C37" t="s"/>
+      <c r="D37" t="n">
+        <v>36</v>
+      </c>
+      <c r="E37" t="s">
+        <v>44</v>
+      </c>
+      <c r="F37" t="s">
+        <v>306</v>
+      </c>
+      <c r="G37" t="s">
+        <v>46</v>
+      </c>
+      <c r="H37" t="s">
+        <v>47</v>
+      </c>
+      <c r="I37" t="s">
+        <v>307</v>
+      </c>
+      <c r="J37" t="s">
+        <v>308</v>
+      </c>
+      <c r="K37" t="s"/>
+      <c r="L37" t="s"/>
+      <c r="M37" t="n">
+        <v>5</v>
+      </c>
+      <c r="N37" t="s">
+        <v>309</v>
+      </c>
+      <c r="O37" t="s">
+        <v>53</v>
+      </c>
+      <c r="P37" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q37" t="n">
+        <v>5</v>
+      </c>
+      <c r="R37" t="n">
+        <v>5</v>
+      </c>
+      <c r="S37" t="n">
+        <v>5</v>
+      </c>
+      <c r="T37" t="s"/>
+      <c r="U37" t="n">
+        <v>5</v>
+      </c>
+      <c r="V37" t="n">
+        <v>0</v>
+      </c>
+      <c r="W37" t="s"/>
+      <c r="X37" t="s"/>
+      <c r="Y37" t="s"/>
+    </row>
+    <row r="38">
+      <c r="A38" t="n">
+        <v>5203</v>
+      </c>
+      <c r="B38" t="s"/>
+      <c r="C38" t="s"/>
+      <c r="D38" t="n">
+        <v>37</v>
+      </c>
+      <c r="E38" t="s">
+        <v>44</v>
+      </c>
+      <c r="F38" t="s">
+        <v>310</v>
+      </c>
+      <c r="G38" t="s">
+        <v>46</v>
+      </c>
+      <c r="H38" t="s">
+        <v>47</v>
+      </c>
+      <c r="I38" t="s">
+        <v>311</v>
+      </c>
+      <c r="J38" t="s">
+        <v>312</v>
+      </c>
+      <c r="K38" t="s"/>
+      <c r="L38" t="s"/>
+      <c r="M38" t="n">
+        <v>5</v>
+      </c>
+      <c r="N38" t="s">
+        <v>309</v>
+      </c>
+      <c r="O38" t="s">
+        <v>129</v>
+      </c>
+      <c r="P38" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q38" t="n">
+        <v>5</v>
+      </c>
+      <c r="R38" t="n">
+        <v>5</v>
+      </c>
+      <c r="S38" t="n">
+        <v>5</v>
+      </c>
+      <c r="T38" t="s"/>
+      <c r="U38" t="n">
+        <v>5</v>
+      </c>
+      <c r="V38" t="n">
+        <v>0</v>
+      </c>
+      <c r="W38" t="s"/>
+      <c r="X38" t="s"/>
+      <c r="Y38" t="s"/>
+    </row>
+    <row r="39">
+      <c r="A39" t="n">
+        <v>5203</v>
+      </c>
+      <c r="B39" t="s"/>
+      <c r="C39" t="s"/>
+      <c r="D39" t="n">
+        <v>38</v>
+      </c>
+      <c r="E39" t="s">
+        <v>44</v>
+      </c>
+      <c r="F39" t="s">
+        <v>313</v>
+      </c>
+      <c r="G39" t="s">
+        <v>46</v>
+      </c>
+      <c r="H39" t="s">
+        <v>47</v>
+      </c>
+      <c r="I39" t="s">
+        <v>314</v>
+      </c>
+      <c r="J39" t="s">
+        <v>315</v>
+      </c>
+      <c r="K39" t="s">
+        <v>316</v>
+      </c>
+      <c r="L39" t="s">
+        <v>317</v>
+      </c>
+      <c r="M39" t="n">
+        <v>5</v>
+      </c>
+      <c r="N39" t="s">
+        <v>309</v>
+      </c>
+      <c r="O39" t="s">
+        <v>63</v>
+      </c>
+      <c r="P39" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q39" t="n">
+        <v>4</v>
+      </c>
+      <c r="R39" t="n">
+        <v>5</v>
+      </c>
+      <c r="S39" t="n">
+        <v>5</v>
+      </c>
+      <c r="T39" t="s"/>
+      <c r="U39" t="n">
+        <v>5</v>
+      </c>
+      <c r="V39" t="n">
+        <v>0</v>
+      </c>
+      <c r="W39" t="s"/>
+      <c r="X39" t="s"/>
+      <c r="Y39" t="s">
+        <v>317</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" t="n">
+        <v>5203</v>
+      </c>
+      <c r="B40" t="s"/>
+      <c r="C40" t="s"/>
+      <c r="D40" t="n">
+        <v>39</v>
+      </c>
+      <c r="E40" t="s">
+        <v>44</v>
+      </c>
+      <c r="F40" t="s">
+        <v>318</v>
+      </c>
+      <c r="G40" t="s">
+        <v>46</v>
+      </c>
+      <c r="H40" t="s">
+        <v>47</v>
+      </c>
+      <c r="I40" t="s">
+        <v>319</v>
+      </c>
+      <c r="J40" t="s">
+        <v>320</v>
+      </c>
+      <c r="K40" t="s">
+        <v>321</v>
+      </c>
+      <c r="L40" t="s">
+        <v>322</v>
+      </c>
+      <c r="M40" t="n">
+        <v>4</v>
+      </c>
+      <c r="N40" t="s">
+        <v>309</v>
+      </c>
+      <c r="O40" t="s">
+        <v>129</v>
+      </c>
+      <c r="P40" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q40" t="s"/>
+      <c r="R40" t="n">
+        <v>4</v>
+      </c>
+      <c r="S40" t="n">
+        <v>4</v>
+      </c>
+      <c r="T40" t="s"/>
+      <c r="U40" t="n">
+        <v>4</v>
+      </c>
+      <c r="V40" t="n">
+        <v>0</v>
+      </c>
+      <c r="W40" t="s"/>
+      <c r="X40" t="s"/>
+      <c r="Y40" t="s">
+        <v>323</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" t="n">
+        <v>5203</v>
+      </c>
+      <c r="B41" t="s"/>
+      <c r="C41" t="s"/>
+      <c r="D41" t="n">
+        <v>40</v>
+      </c>
+      <c r="E41" t="s">
+        <v>44</v>
+      </c>
+      <c r="F41" t="s">
+        <v>324</v>
+      </c>
+      <c r="G41" t="s">
+        <v>46</v>
+      </c>
+      <c r="H41" t="s">
+        <v>47</v>
+      </c>
+      <c r="I41" t="s">
+        <v>325</v>
+      </c>
+      <c r="J41" t="s">
+        <v>326</v>
+      </c>
+      <c r="K41" t="s">
+        <v>327</v>
+      </c>
+      <c r="L41" t="s">
+        <v>328</v>
+      </c>
+      <c r="M41" t="n">
+        <v>2</v>
+      </c>
+      <c r="N41" t="s">
+        <v>329</v>
+      </c>
+      <c r="O41" t="s">
+        <v>53</v>
+      </c>
+      <c r="P41" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q41" t="n">
+        <v>2</v>
+      </c>
+      <c r="R41" t="n">
+        <v>3</v>
+      </c>
+      <c r="S41" t="n">
+        <v>2</v>
+      </c>
+      <c r="T41" t="s"/>
+      <c r="U41" t="n">
+        <v>3</v>
+      </c>
+      <c r="V41" t="n">
+        <v>0</v>
+      </c>
+      <c r="W41" t="s"/>
+      <c r="X41" t="s"/>
+      <c r="Y41" t="s">
+        <v>330</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" t="n">
+        <v>5203</v>
+      </c>
+      <c r="B42" t="s"/>
+      <c r="C42" t="s"/>
+      <c r="D42" t="n">
+        <v>41</v>
+      </c>
+      <c r="E42" t="s">
+        <v>44</v>
+      </c>
+      <c r="F42" t="s">
+        <v>331</v>
+      </c>
+      <c r="G42" t="s">
+        <v>46</v>
+      </c>
+      <c r="H42" t="s">
+        <v>47</v>
+      </c>
+      <c r="I42" t="s">
+        <v>332</v>
+      </c>
+      <c r="J42" t="s">
+        <v>333</v>
+      </c>
+      <c r="K42" t="s"/>
+      <c r="L42" t="s">
+        <v>334</v>
+      </c>
+      <c r="M42" t="n">
+        <v>4</v>
+      </c>
+      <c r="N42" t="s">
+        <v>335</v>
+      </c>
+      <c r="O42" t="s">
+        <v>63</v>
+      </c>
+      <c r="P42" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q42" t="n">
+        <v>5</v>
+      </c>
+      <c r="R42" t="n">
+        <v>5</v>
+      </c>
+      <c r="S42" t="n">
+        <v>5</v>
+      </c>
+      <c r="T42" t="s"/>
+      <c r="U42" t="n">
+        <v>5</v>
+      </c>
+      <c r="V42" t="n">
+        <v>0</v>
+      </c>
+      <c r="W42" t="s"/>
+      <c r="X42" t="s"/>
+      <c r="Y42" t="s">
+        <v>336</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" t="n">
+        <v>5203</v>
+      </c>
+      <c r="B43" t="s"/>
+      <c r="C43" t="s"/>
+      <c r="D43" t="n">
+        <v>42</v>
+      </c>
+      <c r="E43" t="s">
+        <v>44</v>
+      </c>
+      <c r="F43" t="s">
+        <v>337</v>
+      </c>
+      <c r="G43" t="s">
+        <v>46</v>
+      </c>
+      <c r="H43" t="s">
+        <v>47</v>
+      </c>
+      <c r="I43" t="s">
+        <v>338</v>
+      </c>
+      <c r="J43" t="s">
+        <v>339</v>
+      </c>
+      <c r="K43" t="s">
+        <v>340</v>
+      </c>
+      <c r="L43" t="s">
+        <v>341</v>
+      </c>
+      <c r="M43" t="n">
+        <v>5</v>
+      </c>
+      <c r="N43" t="s">
+        <v>342</v>
+      </c>
+      <c r="O43" t="s">
+        <v>299</v>
+      </c>
+      <c r="P43" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q43" t="n">
+        <v>4</v>
+      </c>
+      <c r="R43" t="n">
+        <v>5</v>
+      </c>
+      <c r="S43" t="n">
+        <v>5</v>
+      </c>
+      <c r="T43" t="s"/>
+      <c r="U43" t="n">
+        <v>5</v>
+      </c>
+      <c r="V43" t="n">
+        <v>0</v>
+      </c>
+      <c r="W43" t="s"/>
+      <c r="X43" t="s"/>
+      <c r="Y43" t="s">
+        <v>341</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" t="n">
+        <v>5203</v>
+      </c>
+      <c r="B44" t="s"/>
+      <c r="C44" t="s"/>
+      <c r="D44" t="n">
+        <v>43</v>
+      </c>
+      <c r="E44" t="s">
+        <v>44</v>
+      </c>
+      <c r="F44" t="s">
+        <v>343</v>
+      </c>
+      <c r="G44" t="s">
+        <v>46</v>
+      </c>
+      <c r="H44" t="s">
+        <v>47</v>
+      </c>
+      <c r="I44" t="s">
+        <v>344</v>
+      </c>
+      <c r="J44" t="s">
+        <v>345</v>
+      </c>
+      <c r="K44" t="s"/>
+      <c r="L44" t="s"/>
+      <c r="M44" t="n">
+        <v>5</v>
+      </c>
+      <c r="N44" t="s">
+        <v>346</v>
+      </c>
+      <c r="O44" t="s">
+        <v>63</v>
+      </c>
+      <c r="P44" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q44" t="n">
+        <v>5</v>
+      </c>
+      <c r="R44" t="n">
+        <v>3</v>
+      </c>
+      <c r="S44" t="n">
+        <v>5</v>
+      </c>
+      <c r="T44" t="s"/>
+      <c r="U44" t="n">
+        <v>5</v>
+      </c>
+      <c r="V44" t="n">
+        <v>0</v>
+      </c>
+      <c r="W44" t="s"/>
+      <c r="X44" t="s"/>
+      <c r="Y44" t="s"/>
+    </row>
+    <row r="45">
+      <c r="A45" t="n">
+        <v>5203</v>
+      </c>
+      <c r="B45" t="s"/>
+      <c r="C45" t="s"/>
+      <c r="D45" t="n">
+        <v>44</v>
+      </c>
+      <c r="E45" t="s">
+        <v>44</v>
+      </c>
+      <c r="F45" t="s">
+        <v>347</v>
+      </c>
+      <c r="G45" t="s">
+        <v>46</v>
+      </c>
+      <c r="H45" t="s">
+        <v>47</v>
+      </c>
+      <c r="I45" t="s">
+        <v>348</v>
+      </c>
+      <c r="J45" t="s">
+        <v>349</v>
+      </c>
+      <c r="K45" t="s">
+        <v>350</v>
+      </c>
+      <c r="L45" t="s">
+        <v>351</v>
+      </c>
+      <c r="M45" t="n">
+        <v>5</v>
+      </c>
+      <c r="N45" t="s">
+        <v>352</v>
+      </c>
+      <c r="O45" t="s">
+        <v>63</v>
+      </c>
+      <c r="P45" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q45" t="n">
+        <v>5</v>
+      </c>
+      <c r="R45" t="n">
+        <v>5</v>
+      </c>
+      <c r="S45" t="n">
+        <v>5</v>
+      </c>
+      <c r="T45" t="s"/>
+      <c r="U45" t="n">
+        <v>5</v>
+      </c>
+      <c r="V45" t="n">
+        <v>0</v>
+      </c>
+      <c r="W45" t="s"/>
+      <c r="X45" t="s"/>
+      <c r="Y45" t="s">
+        <v>351</v>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" t="n">
+        <v>5203</v>
+      </c>
+      <c r="B46" t="s"/>
+      <c r="C46" t="s"/>
+      <c r="D46" t="n">
+        <v>45</v>
+      </c>
+      <c r="E46" t="s">
+        <v>44</v>
+      </c>
+      <c r="F46" t="s">
+        <v>353</v>
+      </c>
+      <c r="G46" t="s">
+        <v>46</v>
+      </c>
+      <c r="H46" t="s">
+        <v>47</v>
+      </c>
+      <c r="I46" t="s">
+        <v>354</v>
+      </c>
+      <c r="J46" t="s">
+        <v>355</v>
+      </c>
+      <c r="K46" t="s">
+        <v>356</v>
+      </c>
+      <c r="L46" t="s">
+        <v>357</v>
+      </c>
+      <c r="M46" t="n">
+        <v>5</v>
+      </c>
+      <c r="N46" t="s">
+        <v>352</v>
+      </c>
+      <c r="O46" t="s">
+        <v>63</v>
+      </c>
+      <c r="P46" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q46" t="n">
+        <v>4</v>
+      </c>
+      <c r="R46" t="n">
+        <v>5</v>
+      </c>
+      <c r="S46" t="n">
+        <v>5</v>
+      </c>
+      <c r="T46" t="s"/>
+      <c r="U46" t="n">
+        <v>4</v>
+      </c>
+      <c r="V46" t="n">
+        <v>0</v>
+      </c>
+      <c r="W46" t="s"/>
+      <c r="X46" t="s"/>
+      <c r="Y46" t="s">
+        <v>357</v>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" t="n">
+        <v>5203</v>
+      </c>
+      <c r="B47" t="s"/>
+      <c r="C47" t="s"/>
+      <c r="D47" t="n">
+        <v>46</v>
+      </c>
+      <c r="E47" t="s">
+        <v>44</v>
+      </c>
+      <c r="F47" t="s">
+        <v>358</v>
+      </c>
+      <c r="G47" t="s">
+        <v>46</v>
+      </c>
+      <c r="H47" t="s">
+        <v>47</v>
+      </c>
+      <c r="I47" t="s">
+        <v>359</v>
+      </c>
+      <c r="J47" t="s">
+        <v>360</v>
+      </c>
+      <c r="K47" t="s"/>
+      <c r="L47" t="s"/>
+      <c r="M47" t="n">
+        <v>5</v>
+      </c>
+      <c r="N47" t="s">
+        <v>361</v>
+      </c>
+      <c r="O47" t="s">
+        <v>63</v>
+      </c>
+      <c r="P47" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q47" t="n">
+        <v>5</v>
+      </c>
+      <c r="R47" t="n">
+        <v>5</v>
+      </c>
+      <c r="S47" t="n">
+        <v>5</v>
+      </c>
+      <c r="T47" t="s"/>
+      <c r="U47" t="n">
+        <v>5</v>
+      </c>
+      <c r="V47" t="n">
+        <v>0</v>
+      </c>
+      <c r="W47" t="s"/>
+      <c r="X47" t="s"/>
+      <c r="Y47" t="s"/>
+    </row>
+    <row r="48">
+      <c r="A48" t="n">
+        <v>5203</v>
+      </c>
+      <c r="B48" t="s"/>
+      <c r="C48" t="s"/>
+      <c r="D48" t="n">
+        <v>47</v>
+      </c>
+      <c r="E48" t="s">
+        <v>44</v>
+      </c>
+      <c r="F48" t="s">
+        <v>362</v>
+      </c>
+      <c r="G48" t="s">
+        <v>46</v>
+      </c>
+      <c r="H48" t="s">
+        <v>47</v>
+      </c>
+      <c r="I48" t="s">
+        <v>363</v>
+      </c>
+      <c r="J48" t="s">
+        <v>364</v>
+      </c>
+      <c r="K48" t="s">
+        <v>365</v>
+      </c>
+      <c r="L48" t="s">
+        <v>366</v>
+      </c>
+      <c r="M48" t="n">
+        <v>4</v>
+      </c>
+      <c r="N48" t="s">
+        <v>367</v>
+      </c>
+      <c r="O48" t="s">
+        <v>129</v>
+      </c>
+      <c r="P48" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q48" t="n">
+        <v>4</v>
+      </c>
+      <c r="R48" t="n">
+        <v>4</v>
+      </c>
+      <c r="S48" t="n">
+        <v>4</v>
+      </c>
+      <c r="T48" t="s"/>
+      <c r="U48" t="n">
+        <v>5</v>
+      </c>
+      <c r="V48" t="n">
+        <v>0</v>
+      </c>
+      <c r="W48" t="s"/>
+      <c r="X48" t="s"/>
+      <c r="Y48" t="s">
+        <v>366</v>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" t="n">
+        <v>5203</v>
+      </c>
+      <c r="B49" t="s"/>
+      <c r="C49" t="s"/>
+      <c r="D49" t="n">
+        <v>48</v>
+      </c>
+      <c r="E49" t="s">
+        <v>44</v>
+      </c>
+      <c r="F49" t="s">
+        <v>368</v>
+      </c>
+      <c r="G49" t="s">
+        <v>46</v>
+      </c>
+      <c r="H49" t="s">
+        <v>47</v>
+      </c>
+      <c r="I49" t="s">
+        <v>369</v>
+      </c>
+      <c r="J49" t="s">
+        <v>370</v>
+      </c>
+      <c r="K49" t="s">
+        <v>371</v>
+      </c>
+      <c r="L49" t="s">
+        <v>372</v>
+      </c>
+      <c r="M49" t="n">
+        <v>4</v>
+      </c>
+      <c r="N49" t="s">
+        <v>373</v>
+      </c>
+      <c r="O49" t="s">
+        <v>63</v>
+      </c>
+      <c r="P49" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q49" t="n">
+        <v>4</v>
+      </c>
+      <c r="R49" t="n">
+        <v>5</v>
+      </c>
+      <c r="S49" t="n">
+        <v>5</v>
+      </c>
+      <c r="T49" t="s"/>
+      <c r="U49" t="n">
+        <v>5</v>
+      </c>
+      <c r="V49" t="n">
+        <v>0</v>
+      </c>
+      <c r="W49" t="s"/>
+      <c r="X49" t="s"/>
+      <c r="Y49" t="s">
+        <v>374</v>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" t="n">
+        <v>5203</v>
+      </c>
+      <c r="B50" t="s"/>
+      <c r="C50" t="s"/>
+      <c r="D50" t="n">
+        <v>49</v>
+      </c>
+      <c r="E50" t="s">
+        <v>44</v>
+      </c>
+      <c r="F50" t="s">
+        <v>375</v>
+      </c>
+      <c r="G50" t="s">
+        <v>46</v>
+      </c>
+      <c r="H50" t="s">
+        <v>47</v>
+      </c>
+      <c r="I50" t="s">
+        <v>376</v>
+      </c>
+      <c r="J50" t="s">
+        <v>377</v>
+      </c>
+      <c r="K50" t="s">
+        <v>378</v>
+      </c>
+      <c r="L50" t="s">
+        <v>379</v>
+      </c>
+      <c r="M50" t="n">
+        <v>5</v>
+      </c>
+      <c r="N50" t="s">
+        <v>380</v>
+      </c>
+      <c r="O50" t="s">
+        <v>63</v>
+      </c>
+      <c r="P50" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q50" t="n">
+        <v>5</v>
+      </c>
+      <c r="R50" t="n">
+        <v>5</v>
+      </c>
+      <c r="S50" t="n">
+        <v>5</v>
+      </c>
+      <c r="T50" t="s"/>
+      <c r="U50" t="n">
+        <v>5</v>
+      </c>
+      <c r="V50" t="n">
+        <v>0</v>
+      </c>
+      <c r="W50" t="s"/>
+      <c r="X50" t="s"/>
+      <c r="Y50" t="s">
+        <v>379</v>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" t="n">
+        <v>5203</v>
+      </c>
+      <c r="B51" t="s"/>
+      <c r="C51" t="s"/>
+      <c r="D51" t="n">
+        <v>50</v>
+      </c>
+      <c r="E51" t="s">
+        <v>44</v>
+      </c>
+      <c r="F51" t="s">
+        <v>381</v>
+      </c>
+      <c r="G51" t="s">
+        <v>46</v>
+      </c>
+      <c r="H51" t="s">
+        <v>47</v>
+      </c>
+      <c r="I51" t="s">
+        <v>382</v>
+      </c>
+      <c r="J51" t="s">
+        <v>383</v>
+      </c>
+      <c r="K51" t="s">
+        <v>384</v>
+      </c>
+      <c r="L51" t="s">
+        <v>385</v>
+      </c>
+      <c r="M51" t="n">
+        <v>5</v>
+      </c>
+      <c r="N51" t="s">
+        <v>380</v>
+      </c>
+      <c r="O51" t="s">
+        <v>53</v>
+      </c>
+      <c r="P51" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q51" t="n">
+        <v>4</v>
+      </c>
+      <c r="R51" t="n">
+        <v>4</v>
+      </c>
+      <c r="S51" t="n">
+        <v>5</v>
+      </c>
+      <c r="T51" t="s"/>
+      <c r="U51" t="n">
+        <v>5</v>
+      </c>
+      <c r="V51" t="n">
+        <v>0</v>
+      </c>
+      <c r="W51" t="s"/>
+      <c r="X51" t="s"/>
+      <c r="Y51" t="s">
+        <v>386</v>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" t="n">
+        <v>5203</v>
+      </c>
+      <c r="B52" t="s"/>
+      <c r="C52" t="s"/>
+      <c r="D52" t="n">
+        <v>51</v>
+      </c>
+      <c r="E52" t="s">
+        <v>44</v>
+      </c>
+      <c r="F52" t="s">
+        <v>387</v>
+      </c>
+      <c r="G52" t="s">
+        <v>46</v>
+      </c>
+      <c r="H52" t="s">
+        <v>47</v>
+      </c>
+      <c r="I52" t="s">
+        <v>388</v>
+      </c>
+      <c r="J52" t="s">
+        <v>389</v>
+      </c>
+      <c r="K52" t="s">
+        <v>390</v>
+      </c>
+      <c r="L52" t="s">
+        <v>391</v>
+      </c>
+      <c r="M52" t="n">
+        <v>2</v>
+      </c>
+      <c r="N52" t="s"/>
+      <c r="O52" t="s"/>
+      <c r="P52" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q52" t="n">
+        <v>2</v>
+      </c>
+      <c r="R52" t="n">
+        <v>5</v>
+      </c>
+      <c r="S52" t="n">
+        <v>2</v>
+      </c>
+      <c r="T52" t="s"/>
+      <c r="U52" t="n">
+        <v>5</v>
+      </c>
+      <c r="V52" t="n">
+        <v>0</v>
+      </c>
+      <c r="W52" t="s"/>
+      <c r="X52" t="s"/>
+      <c r="Y52" t="s">
+        <v>392</v>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" t="n">
+        <v>5203</v>
+      </c>
+      <c r="B53" t="s"/>
+      <c r="C53" t="s"/>
+      <c r="D53" t="n">
+        <v>52</v>
+      </c>
+      <c r="E53" t="s">
+        <v>44</v>
+      </c>
+      <c r="F53" t="s">
+        <v>393</v>
+      </c>
+      <c r="G53" t="s">
+        <v>46</v>
+      </c>
+      <c r="H53" t="s">
+        <v>47</v>
+      </c>
+      <c r="I53" t="s">
+        <v>394</v>
+      </c>
+      <c r="J53" t="s">
+        <v>395</v>
+      </c>
+      <c r="K53" t="s">
+        <v>396</v>
+      </c>
+      <c r="L53" t="s">
+        <v>397</v>
+      </c>
+      <c r="M53" t="n">
+        <v>4</v>
+      </c>
+      <c r="N53" t="s">
+        <v>398</v>
+      </c>
+      <c r="O53" t="s">
+        <v>63</v>
+      </c>
+      <c r="P53" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q53" t="n">
+        <v>5</v>
+      </c>
+      <c r="R53" t="n">
+        <v>5</v>
+      </c>
+      <c r="S53" t="n">
+        <v>4</v>
+      </c>
+      <c r="T53" t="s"/>
+      <c r="U53" t="n">
+        <v>4</v>
+      </c>
+      <c r="V53" t="n">
+        <v>0</v>
+      </c>
+      <c r="W53" t="s"/>
+      <c r="X53" t="s"/>
+      <c r="Y53" t="s">
+        <v>397</v>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" t="n">
+        <v>5203</v>
+      </c>
+      <c r="B54" t="s"/>
+      <c r="C54" t="s"/>
+      <c r="D54" t="n">
+        <v>53</v>
+      </c>
+      <c r="E54" t="s">
+        <v>44</v>
+      </c>
+      <c r="F54" t="s">
+        <v>399</v>
+      </c>
+      <c r="G54" t="s">
+        <v>46</v>
+      </c>
+      <c r="H54" t="s">
+        <v>47</v>
+      </c>
+      <c r="I54" t="s">
+        <v>400</v>
+      </c>
+      <c r="J54" t="s">
+        <v>401</v>
+      </c>
+      <c r="K54" t="s"/>
+      <c r="L54" t="s"/>
+      <c r="M54" t="n">
+        <v>4</v>
+      </c>
+      <c r="N54" t="s">
+        <v>398</v>
+      </c>
+      <c r="O54" t="s">
+        <v>63</v>
+      </c>
+      <c r="P54" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q54" t="n">
+        <v>5</v>
+      </c>
+      <c r="R54" t="n">
+        <v>4</v>
+      </c>
+      <c r="S54" t="n">
+        <v>5</v>
+      </c>
+      <c r="T54" t="s"/>
+      <c r="U54" t="n">
+        <v>5</v>
+      </c>
+      <c r="V54" t="n">
+        <v>0</v>
+      </c>
+      <c r="W54" t="s"/>
+      <c r="X54" t="s"/>
+      <c r="Y54" t="s"/>
+    </row>
+    <row r="55">
+      <c r="A55" t="n">
+        <v>5203</v>
+      </c>
+      <c r="B55" t="s"/>
+      <c r="C55" t="s"/>
+      <c r="D55" t="n">
+        <v>54</v>
+      </c>
+      <c r="E55" t="s">
+        <v>44</v>
+      </c>
+      <c r="F55" t="s">
+        <v>402</v>
+      </c>
+      <c r="G55" t="s">
+        <v>46</v>
+      </c>
+      <c r="H55" t="s">
+        <v>47</v>
+      </c>
+      <c r="I55" t="s">
+        <v>403</v>
+      </c>
+      <c r="J55" t="s">
+        <v>404</v>
+      </c>
+      <c r="K55" t="s"/>
+      <c r="L55" t="s"/>
+      <c r="M55" t="n">
+        <v>5</v>
+      </c>
+      <c r="N55" t="s">
+        <v>398</v>
+      </c>
+      <c r="O55" t="s">
+        <v>53</v>
+      </c>
+      <c r="P55" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q55" t="n">
+        <v>5</v>
+      </c>
+      <c r="R55" t="n">
+        <v>5</v>
+      </c>
+      <c r="S55" t="n">
+        <v>5</v>
+      </c>
+      <c r="T55" t="s"/>
+      <c r="U55" t="n">
+        <v>5</v>
+      </c>
+      <c r="V55" t="n">
+        <v>0</v>
+      </c>
+      <c r="W55" t="s"/>
+      <c r="X55" t="s"/>
+      <c r="Y55" t="s"/>
+    </row>
+    <row r="56">
+      <c r="A56" t="n">
+        <v>5203</v>
+      </c>
+      <c r="B56" t="s"/>
+      <c r="C56" t="s"/>
+      <c r="D56" t="n">
+        <v>55</v>
+      </c>
+      <c r="E56" t="s">
+        <v>44</v>
+      </c>
+      <c r="F56" t="s">
+        <v>405</v>
+      </c>
+      <c r="G56" t="s">
+        <v>46</v>
+      </c>
+      <c r="H56" t="s">
+        <v>47</v>
+      </c>
+      <c r="I56" t="s">
+        <v>406</v>
+      </c>
+      <c r="J56" t="s">
+        <v>407</v>
+      </c>
+      <c r="K56" t="s">
+        <v>408</v>
+      </c>
+      <c r="L56" t="s">
+        <v>409</v>
+      </c>
+      <c r="M56" t="n">
+        <v>2</v>
+      </c>
+      <c r="N56" t="s">
+        <v>410</v>
+      </c>
+      <c r="O56" t="s">
+        <v>139</v>
+      </c>
+      <c r="P56" t="s"/>
+      <c r="Q56" t="n">
+        <v>2</v>
+      </c>
+      <c r="R56" t="n">
+        <v>4</v>
+      </c>
+      <c r="S56" t="n">
+        <v>2</v>
+      </c>
+      <c r="T56" t="s"/>
+      <c r="U56" t="s"/>
+      <c r="V56" t="n">
+        <v>0</v>
+      </c>
+      <c r="W56" t="s"/>
+      <c r="X56" t="s"/>
+      <c r="Y56" t="s">
+        <v>409</v>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" t="n">
+        <v>5203</v>
+      </c>
+      <c r="B57" t="s"/>
+      <c r="C57" t="s"/>
+      <c r="D57" t="n">
+        <v>56</v>
+      </c>
+      <c r="E57" t="s">
+        <v>44</v>
+      </c>
+      <c r="F57" t="s">
+        <v>411</v>
+      </c>
+      <c r="G57" t="s">
+        <v>46</v>
+      </c>
+      <c r="H57" t="s">
+        <v>47</v>
+      </c>
+      <c r="I57" t="s">
+        <v>412</v>
+      </c>
+      <c r="J57" t="s">
+        <v>413</v>
+      </c>
+      <c r="K57" t="s">
+        <v>414</v>
+      </c>
+      <c r="L57" t="s">
+        <v>415</v>
+      </c>
+      <c r="M57" t="n">
+        <v>3</v>
+      </c>
+      <c r="N57" t="s">
+        <v>410</v>
+      </c>
+      <c r="O57" t="s">
+        <v>63</v>
+      </c>
+      <c r="P57" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q57" t="n">
+        <v>4</v>
+      </c>
+      <c r="R57" t="n">
+        <v>5</v>
+      </c>
+      <c r="S57" t="n">
+        <v>3</v>
+      </c>
+      <c r="T57" t="s"/>
+      <c r="U57" t="n">
+        <v>5</v>
+      </c>
+      <c r="V57" t="n">
+        <v>0</v>
+      </c>
+      <c r="W57" t="s"/>
+      <c r="X57" t="s"/>
+      <c r="Y57" t="s">
+        <v>415</v>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" t="n">
+        <v>5203</v>
+      </c>
+      <c r="B58" t="s"/>
+      <c r="C58" t="s"/>
+      <c r="D58" t="n">
+        <v>57</v>
+      </c>
+      <c r="E58" t="s">
+        <v>44</v>
+      </c>
+      <c r="F58" t="s">
+        <v>416</v>
+      </c>
+      <c r="G58" t="s">
+        <v>46</v>
+      </c>
+      <c r="H58" t="s">
+        <v>47</v>
+      </c>
+      <c r="I58" t="s">
+        <v>417</v>
+      </c>
+      <c r="J58" t="s">
+        <v>418</v>
+      </c>
+      <c r="K58" t="s">
+        <v>419</v>
+      </c>
+      <c r="L58" t="s">
+        <v>420</v>
+      </c>
+      <c r="M58" t="n">
+        <v>4</v>
+      </c>
+      <c r="N58" t="s">
+        <v>421</v>
+      </c>
+      <c r="O58" t="s">
+        <v>63</v>
+      </c>
+      <c r="P58" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q58" t="n">
+        <v>4</v>
+      </c>
+      <c r="R58" t="n">
+        <v>4</v>
+      </c>
+      <c r="S58" t="n">
+        <v>5</v>
+      </c>
+      <c r="T58" t="s"/>
+      <c r="U58" t="n">
+        <v>5</v>
+      </c>
+      <c r="V58" t="n">
+        <v>0</v>
+      </c>
+      <c r="W58" t="s"/>
+      <c r="X58" t="s"/>
+      <c r="Y58" t="s">
+        <v>420</v>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" t="n">
+        <v>5203</v>
+      </c>
+      <c r="B59" t="s"/>
+      <c r="C59" t="s"/>
+      <c r="D59" t="n">
+        <v>58</v>
+      </c>
+      <c r="E59" t="s">
+        <v>44</v>
+      </c>
+      <c r="F59" t="s">
+        <v>422</v>
+      </c>
+      <c r="G59" t="s">
+        <v>46</v>
+      </c>
+      <c r="H59" t="s">
+        <v>47</v>
+      </c>
+      <c r="I59" t="s">
+        <v>423</v>
+      </c>
+      <c r="J59" t="s">
+        <v>424</v>
+      </c>
+      <c r="K59" t="s">
+        <v>425</v>
+      </c>
+      <c r="L59" t="s">
+        <v>426</v>
+      </c>
+      <c r="M59" t="n">
+        <v>5</v>
+      </c>
+      <c r="N59" t="s">
+        <v>427</v>
+      </c>
+      <c r="O59" t="s">
+        <v>53</v>
+      </c>
+      <c r="P59" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q59" t="n">
+        <v>5</v>
+      </c>
+      <c r="R59" t="n">
+        <v>5</v>
+      </c>
+      <c r="S59" t="n">
+        <v>5</v>
+      </c>
+      <c r="T59" t="s"/>
+      <c r="U59" t="n">
+        <v>5</v>
+      </c>
+      <c r="V59" t="n">
+        <v>0</v>
+      </c>
+      <c r="W59" t="s"/>
+      <c r="X59" t="s"/>
+      <c r="Y59" t="s">
+        <v>426</v>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60" t="n">
+        <v>5203</v>
+      </c>
+      <c r="B60" t="s"/>
+      <c r="C60" t="s"/>
+      <c r="D60" t="n">
+        <v>59</v>
+      </c>
+      <c r="E60" t="s">
+        <v>44</v>
+      </c>
+      <c r="F60" t="s">
+        <v>428</v>
+      </c>
+      <c r="G60" t="s">
+        <v>46</v>
+      </c>
+      <c r="H60" t="s">
+        <v>47</v>
+      </c>
+      <c r="I60" t="s">
+        <v>429</v>
+      </c>
+      <c r="J60" t="s">
+        <v>430</v>
+      </c>
+      <c r="K60" t="s">
+        <v>431</v>
+      </c>
+      <c r="L60" t="s">
+        <v>432</v>
+      </c>
+      <c r="M60" t="n">
+        <v>4</v>
+      </c>
+      <c r="N60" t="s">
+        <v>421</v>
+      </c>
+      <c r="O60" t="s">
+        <v>63</v>
+      </c>
+      <c r="P60" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q60" t="n">
+        <v>3</v>
+      </c>
+      <c r="R60" t="n">
+        <v>4</v>
+      </c>
+      <c r="S60" t="n">
+        <v>4</v>
+      </c>
+      <c r="T60" t="s"/>
+      <c r="U60" t="n">
+        <v>4</v>
+      </c>
+      <c r="V60" t="n">
+        <v>0</v>
+      </c>
+      <c r="W60" t="s"/>
+      <c r="X60" t="s"/>
+      <c r="Y60" t="s">
+        <v>432</v>
+      </c>
+    </row>
+    <row r="61">
+      <c r="A61" t="n">
+        <v>5203</v>
+      </c>
+      <c r="B61" t="s"/>
+      <c r="C61" t="s"/>
+      <c r="D61" t="n">
+        <v>60</v>
+      </c>
+      <c r="E61" t="s">
+        <v>44</v>
+      </c>
+      <c r="F61" t="s">
+        <v>433</v>
+      </c>
+      <c r="G61" t="s">
+        <v>46</v>
+      </c>
+      <c r="H61" t="s">
+        <v>47</v>
+      </c>
+      <c r="I61" t="s">
+        <v>434</v>
+      </c>
+      <c r="J61" t="s">
+        <v>435</v>
+      </c>
+      <c r="K61" t="s">
+        <v>436</v>
+      </c>
+      <c r="L61" t="s">
+        <v>437</v>
+      </c>
+      <c r="M61" t="n">
+        <v>4</v>
+      </c>
+      <c r="N61" t="s">
+        <v>421</v>
+      </c>
+      <c r="O61" t="s">
+        <v>129</v>
+      </c>
+      <c r="P61" t="s"/>
+      <c r="Q61" t="n">
+        <v>5</v>
+      </c>
+      <c r="R61" t="n">
+        <v>4</v>
+      </c>
+      <c r="S61" t="n">
+        <v>5</v>
+      </c>
+      <c r="T61" t="s"/>
+      <c r="U61" t="n">
+        <v>4</v>
+      </c>
+      <c r="V61" t="n">
+        <v>0</v>
+      </c>
+      <c r="W61" t="s"/>
+      <c r="X61" t="s"/>
+      <c r="Y61" t="s">
+        <v>437</v>
+      </c>
+    </row>
+    <row r="62">
+      <c r="A62" t="n">
+        <v>5203</v>
+      </c>
+      <c r="B62" t="s"/>
+      <c r="C62" t="s"/>
+      <c r="D62" t="n">
+        <v>61</v>
+      </c>
+      <c r="E62" t="s">
+        <v>44</v>
+      </c>
+      <c r="F62" t="s">
+        <v>438</v>
+      </c>
+      <c r="G62" t="s">
+        <v>46</v>
+      </c>
+      <c r="H62" t="s">
+        <v>47</v>
+      </c>
+      <c r="I62" t="s">
+        <v>439</v>
+      </c>
+      <c r="J62" t="s">
+        <v>440</v>
+      </c>
+      <c r="K62" t="s">
+        <v>441</v>
+      </c>
+      <c r="L62" t="s">
+        <v>442</v>
+      </c>
+      <c r="M62" t="n">
+        <v>3</v>
+      </c>
+      <c r="N62" t="s">
+        <v>443</v>
+      </c>
+      <c r="O62" t="s">
+        <v>129</v>
+      </c>
+      <c r="P62" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q62" t="n">
+        <v>3</v>
+      </c>
+      <c r="R62" t="n">
+        <v>2</v>
+      </c>
+      <c r="S62" t="n">
+        <v>3</v>
+      </c>
+      <c r="T62" t="s"/>
+      <c r="U62" t="n">
+        <v>3</v>
+      </c>
+      <c r="V62" t="n">
+        <v>0</v>
+      </c>
+      <c r="W62" t="s"/>
+      <c r="X62" t="s"/>
+      <c r="Y62" t="s">
+        <v>442</v>
+      </c>
+    </row>
+    <row r="63">
+      <c r="A63" t="n">
+        <v>5203</v>
+      </c>
+      <c r="B63" t="s"/>
+      <c r="C63" t="s"/>
+      <c r="D63" t="n">
+        <v>62</v>
+      </c>
+      <c r="E63" t="s">
+        <v>44</v>
+      </c>
+      <c r="F63" t="s">
+        <v>444</v>
+      </c>
+      <c r="G63" t="s">
+        <v>46</v>
+      </c>
+      <c r="H63" t="s">
+        <v>47</v>
+      </c>
+      <c r="I63" t="s">
+        <v>445</v>
+      </c>
+      <c r="J63" t="s">
+        <v>446</v>
+      </c>
+      <c r="K63" t="s">
+        <v>447</v>
+      </c>
+      <c r="L63" t="s">
+        <v>448</v>
+      </c>
+      <c r="M63" t="n">
+        <v>2</v>
+      </c>
+      <c r="N63" t="s"/>
+      <c r="O63" t="s"/>
+      <c r="P63" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q63" t="n">
+        <v>2</v>
+      </c>
+      <c r="R63" t="n">
+        <v>4</v>
+      </c>
+      <c r="S63" t="n">
+        <v>2</v>
+      </c>
+      <c r="T63" t="s"/>
+      <c r="U63" t="n">
+        <v>3</v>
+      </c>
+      <c r="V63" t="n">
+        <v>0</v>
+      </c>
+      <c r="W63" t="s"/>
+      <c r="X63" t="s"/>
+      <c r="Y63" t="s">
+        <v>448</v>
+      </c>
+    </row>
+    <row r="64">
+      <c r="A64" t="n">
+        <v>5203</v>
+      </c>
+      <c r="B64" t="s"/>
+      <c r="C64" t="s"/>
+      <c r="D64" t="n">
+        <v>63</v>
+      </c>
+      <c r="E64" t="s">
+        <v>44</v>
+      </c>
+      <c r="F64" t="s">
+        <v>449</v>
+      </c>
+      <c r="G64" t="s">
+        <v>46</v>
+      </c>
+      <c r="H64" t="s">
+        <v>47</v>
+      </c>
+      <c r="I64" t="s">
+        <v>450</v>
+      </c>
+      <c r="J64" t="s">
+        <v>451</v>
+      </c>
+      <c r="K64" t="s">
+        <v>452</v>
+      </c>
+      <c r="L64" t="s">
+        <v>453</v>
+      </c>
+      <c r="M64" t="n">
+        <v>4</v>
+      </c>
+      <c r="N64" t="s">
+        <v>454</v>
+      </c>
+      <c r="O64" t="s">
+        <v>63</v>
+      </c>
+      <c r="P64" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q64" t="n">
+        <v>4</v>
+      </c>
+      <c r="R64" t="n">
+        <v>3</v>
+      </c>
+      <c r="S64" t="s"/>
+      <c r="T64" t="s"/>
+      <c r="U64" t="n">
+        <v>5</v>
+      </c>
+      <c r="V64" t="n">
+        <v>0</v>
+      </c>
+      <c r="W64" t="s"/>
+      <c r="X64" t="s"/>
+      <c r="Y64" t="s">
+        <v>453</v>
+      </c>
+    </row>
+    <row r="65">
+      <c r="A65" t="n">
+        <v>5203</v>
+      </c>
+      <c r="B65" t="s"/>
+      <c r="C65" t="s"/>
+      <c r="D65" t="n">
+        <v>64</v>
+      </c>
+      <c r="E65" t="s">
+        <v>44</v>
+      </c>
+      <c r="F65" t="s">
+        <v>455</v>
+      </c>
+      <c r="G65" t="s">
+        <v>46</v>
+      </c>
+      <c r="H65" t="s">
+        <v>47</v>
+      </c>
+      <c r="I65" t="s">
+        <v>456</v>
+      </c>
+      <c r="J65" t="s">
+        <v>457</v>
+      </c>
+      <c r="K65" t="s">
+        <v>458</v>
+      </c>
+      <c r="L65" t="s">
+        <v>459</v>
+      </c>
+      <c r="M65" t="n">
+        <v>3</v>
+      </c>
+      <c r="N65" t="s">
+        <v>460</v>
+      </c>
+      <c r="O65" t="s">
+        <v>63</v>
+      </c>
+      <c r="P65" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q65" t="s"/>
+      <c r="R65" t="s"/>
+      <c r="S65" t="n">
+        <v>3</v>
+      </c>
+      <c r="T65" t="s"/>
+      <c r="U65" t="n">
+        <v>5</v>
+      </c>
+      <c r="V65" t="n">
+        <v>0</v>
+      </c>
+      <c r="W65" t="s"/>
+      <c r="X65" t="s"/>
+      <c r="Y65" t="s">
+        <v>459</v>
+      </c>
+    </row>
+    <row r="66">
+      <c r="A66" t="n">
+        <v>5203</v>
+      </c>
+      <c r="B66" t="s"/>
+      <c r="C66" t="s"/>
+      <c r="D66" t="n">
+        <v>65</v>
+      </c>
+      <c r="E66" t="s">
+        <v>44</v>
+      </c>
+      <c r="F66" t="s">
+        <v>461</v>
+      </c>
+      <c r="G66" t="s">
+        <v>46</v>
+      </c>
+      <c r="H66" t="s">
+        <v>47</v>
+      </c>
+      <c r="I66" t="s">
+        <v>462</v>
+      </c>
+      <c r="J66" t="s">
+        <v>463</v>
+      </c>
+      <c r="K66" t="s">
+        <v>464</v>
+      </c>
+      <c r="L66" t="s">
+        <v>465</v>
+      </c>
+      <c r="M66" t="n">
+        <v>1</v>
+      </c>
+      <c r="N66" t="s">
+        <v>460</v>
+      </c>
+      <c r="O66" t="s">
+        <v>299</v>
+      </c>
+      <c r="P66" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q66" t="s"/>
+      <c r="R66" t="s"/>
+      <c r="S66" t="n">
+        <v>1</v>
+      </c>
+      <c r="T66" t="s"/>
+      <c r="U66" t="n">
+        <v>1</v>
+      </c>
+      <c r="V66" t="n">
+        <v>0</v>
+      </c>
+      <c r="W66" t="s"/>
+      <c r="X66" t="s"/>
+      <c r="Y66" t="s">
+        <v>466</v>
+      </c>
+    </row>
+    <row r="67">
+      <c r="A67" t="n">
+        <v>5203</v>
+      </c>
+      <c r="B67" t="s"/>
+      <c r="C67" t="s"/>
+      <c r="D67" t="n">
+        <v>66</v>
+      </c>
+      <c r="E67" t="s">
+        <v>44</v>
+      </c>
+      <c r="F67" t="s">
+        <v>467</v>
+      </c>
+      <c r="G67" t="s">
+        <v>46</v>
+      </c>
+      <c r="H67" t="s">
+        <v>47</v>
+      </c>
+      <c r="I67" t="s">
+        <v>468</v>
+      </c>
+      <c r="J67" t="s">
+        <v>469</v>
+      </c>
+      <c r="K67" t="s">
+        <v>470</v>
+      </c>
+      <c r="L67" t="s">
+        <v>471</v>
+      </c>
+      <c r="M67" t="n">
+        <v>3</v>
+      </c>
+      <c r="N67" t="s">
+        <v>460</v>
+      </c>
+      <c r="O67" t="s">
+        <v>53</v>
+      </c>
+      <c r="P67" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q67" t="s"/>
+      <c r="R67" t="s"/>
+      <c r="S67" t="n">
+        <v>3</v>
+      </c>
+      <c r="T67" t="s"/>
+      <c r="U67" t="n">
+        <v>4</v>
+      </c>
+      <c r="V67" t="n">
+        <v>0</v>
+      </c>
+      <c r="W67" t="s"/>
+      <c r="X67" t="s"/>
+      <c r="Y67" t="s">
+        <v>472</v>
+      </c>
+    </row>
+    <row r="68">
+      <c r="A68" t="n">
+        <v>5203</v>
+      </c>
+      <c r="B68" t="s"/>
+      <c r="C68" t="s"/>
+      <c r="D68" t="n">
+        <v>67</v>
+      </c>
+      <c r="E68" t="s">
+        <v>44</v>
+      </c>
+      <c r="F68" t="s">
+        <v>473</v>
+      </c>
+      <c r="G68" t="s">
+        <v>46</v>
+      </c>
+      <c r="H68" t="s">
+        <v>47</v>
+      </c>
+      <c r="I68" t="s">
+        <v>474</v>
+      </c>
+      <c r="J68" t="s">
+        <v>475</v>
+      </c>
+      <c r="K68" t="s">
+        <v>476</v>
+      </c>
+      <c r="L68" t="s">
+        <v>477</v>
+      </c>
+      <c r="M68" t="n">
+        <v>3</v>
+      </c>
+      <c r="N68" t="s">
+        <v>478</v>
+      </c>
+      <c r="O68" t="s">
+        <v>53</v>
+      </c>
+      <c r="P68" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q68" t="n">
+        <v>4</v>
+      </c>
+      <c r="R68" t="n">
+        <v>4</v>
+      </c>
+      <c r="S68" t="n">
+        <v>2</v>
+      </c>
+      <c r="T68" t="s"/>
+      <c r="U68" t="n">
+        <v>4</v>
+      </c>
+      <c r="V68" t="n">
+        <v>0</v>
+      </c>
+      <c r="W68" t="s"/>
+      <c r="X68" t="s"/>
+      <c r="Y68" t="s">
+        <v>477</v>
+      </c>
+    </row>
+    <row r="69">
+      <c r="A69" t="n">
+        <v>5203</v>
+      </c>
+      <c r="B69" t="s"/>
+      <c r="C69" t="s"/>
+      <c r="D69" t="n">
+        <v>68</v>
+      </c>
+      <c r="E69" t="s">
+        <v>44</v>
+      </c>
+      <c r="F69" t="s">
+        <v>479</v>
+      </c>
+      <c r="G69" t="s">
+        <v>46</v>
+      </c>
+      <c r="H69" t="s">
+        <v>47</v>
+      </c>
+      <c r="I69" t="s">
+        <v>480</v>
+      </c>
+      <c r="J69" t="s">
+        <v>481</v>
+      </c>
+      <c r="K69" t="s">
+        <v>482</v>
+      </c>
+      <c r="L69" t="s">
+        <v>483</v>
+      </c>
+      <c r="M69" t="n">
+        <v>4</v>
+      </c>
+      <c r="N69" t="s">
+        <v>484</v>
+      </c>
+      <c r="O69" t="s">
+        <v>63</v>
+      </c>
+      <c r="P69" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q69" t="n">
+        <v>4</v>
+      </c>
+      <c r="R69" t="n">
+        <v>5</v>
+      </c>
+      <c r="S69" t="n">
+        <v>4</v>
+      </c>
+      <c r="T69" t="s"/>
+      <c r="U69" t="n">
+        <v>5</v>
+      </c>
+      <c r="V69" t="n">
+        <v>0</v>
+      </c>
+      <c r="W69" t="s"/>
+      <c r="X69" t="s"/>
+      <c r="Y69" t="s">
+        <v>485</v>
+      </c>
+    </row>
+    <row r="70">
+      <c r="A70" t="n">
+        <v>5203</v>
+      </c>
+      <c r="B70" t="s"/>
+      <c r="C70" t="s"/>
+      <c r="D70" t="n">
+        <v>69</v>
+      </c>
+      <c r="E70" t="s">
+        <v>44</v>
+      </c>
+      <c r="F70" t="s">
+        <v>486</v>
+      </c>
+      <c r="G70" t="s">
+        <v>46</v>
+      </c>
+      <c r="H70" t="s">
+        <v>47</v>
+      </c>
+      <c r="I70" t="s">
+        <v>487</v>
+      </c>
+      <c r="J70" t="s">
+        <v>481</v>
+      </c>
+      <c r="K70" t="s">
+        <v>488</v>
+      </c>
+      <c r="L70" t="s">
+        <v>489</v>
+      </c>
+      <c r="M70" t="n">
+        <v>4</v>
+      </c>
+      <c r="N70" t="s">
+        <v>484</v>
+      </c>
+      <c r="O70" t="s">
+        <v>63</v>
+      </c>
+      <c r="P70" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q70" t="n">
+        <v>3</v>
+      </c>
+      <c r="R70" t="n">
+        <v>4</v>
+      </c>
+      <c r="S70" t="n">
+        <v>4</v>
+      </c>
+      <c r="T70" t="s"/>
+      <c r="U70" t="n">
+        <v>4</v>
+      </c>
+      <c r="V70" t="n">
+        <v>0</v>
+      </c>
+      <c r="W70" t="s"/>
+      <c r="X70" t="s"/>
+      <c r="Y70" t="s">
+        <v>489</v>
+      </c>
+    </row>
+    <row r="71">
+      <c r="A71" t="n">
+        <v>5203</v>
+      </c>
+      <c r="B71" t="s"/>
+      <c r="C71" t="s"/>
+      <c r="D71" t="n">
+        <v>70</v>
+      </c>
+      <c r="E71" t="s">
+        <v>44</v>
+      </c>
+      <c r="F71" t="s">
+        <v>490</v>
+      </c>
+      <c r="G71" t="s">
+        <v>46</v>
+      </c>
+      <c r="H71" t="s">
+        <v>47</v>
+      </c>
+      <c r="I71" t="s">
+        <v>491</v>
+      </c>
+      <c r="J71" t="s">
+        <v>492</v>
+      </c>
+      <c r="K71" t="s">
+        <v>493</v>
+      </c>
+      <c r="L71" t="s">
+        <v>494</v>
+      </c>
+      <c r="M71" t="n">
+        <v>5</v>
+      </c>
+      <c r="N71" t="s">
+        <v>495</v>
+      </c>
+      <c r="O71" t="s">
+        <v>129</v>
+      </c>
+      <c r="P71" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q71" t="n">
+        <v>4</v>
+      </c>
+      <c r="R71" t="n">
+        <v>4</v>
+      </c>
+      <c r="S71" t="n">
+        <v>4</v>
+      </c>
+      <c r="T71" t="s"/>
+      <c r="U71" t="n">
+        <v>4</v>
+      </c>
+      <c r="V71" t="n">
+        <v>0</v>
+      </c>
+      <c r="W71" t="s"/>
+      <c r="X71" t="s"/>
+      <c r="Y71" t="s">
+        <v>494</v>
+      </c>
+    </row>
+    <row r="72">
+      <c r="A72" t="n">
+        <v>5203</v>
+      </c>
+      <c r="B72" t="s"/>
+      <c r="C72" t="s"/>
+      <c r="D72" t="n">
+        <v>71</v>
+      </c>
+      <c r="E72" t="s">
+        <v>44</v>
+      </c>
+      <c r="F72" t="s">
+        <v>496</v>
+      </c>
+      <c r="G72" t="s">
+        <v>46</v>
+      </c>
+      <c r="H72" t="s">
+        <v>47</v>
+      </c>
+      <c r="I72" t="s">
+        <v>497</v>
+      </c>
+      <c r="J72" t="s">
+        <v>498</v>
+      </c>
+      <c r="K72" t="s">
+        <v>499</v>
+      </c>
+      <c r="L72" t="s">
+        <v>500</v>
+      </c>
+      <c r="M72" t="n">
+        <v>5</v>
+      </c>
+      <c r="N72" t="s">
+        <v>501</v>
+      </c>
+      <c r="O72" t="s">
+        <v>299</v>
+      </c>
+      <c r="P72" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q72" t="n">
+        <v>5</v>
+      </c>
+      <c r="R72" t="n">
+        <v>5</v>
+      </c>
+      <c r="S72" t="n">
+        <v>5</v>
+      </c>
+      <c r="T72" t="s"/>
+      <c r="U72" t="n">
+        <v>5</v>
+      </c>
+      <c r="V72" t="n">
+        <v>0</v>
+      </c>
+      <c r="W72" t="s"/>
+      <c r="X72" t="s"/>
+      <c r="Y72" t="s">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="73">
+      <c r="A73" t="n">
+        <v>5203</v>
+      </c>
+      <c r="B73" t="s"/>
+      <c r="C73" t="s"/>
+      <c r="D73" t="n">
+        <v>72</v>
+      </c>
+      <c r="E73" t="s">
+        <v>44</v>
+      </c>
+      <c r="F73" t="s">
+        <v>502</v>
+      </c>
+      <c r="G73" t="s">
+        <v>46</v>
+      </c>
+      <c r="H73" t="s">
+        <v>47</v>
+      </c>
+      <c r="I73" t="s">
+        <v>503</v>
+      </c>
+      <c r="J73" t="s">
+        <v>504</v>
+      </c>
+      <c r="K73" t="s">
+        <v>505</v>
+      </c>
+      <c r="L73" t="s">
+        <v>506</v>
+      </c>
+      <c r="M73" t="n">
+        <v>4</v>
+      </c>
+      <c r="N73" t="s">
+        <v>507</v>
+      </c>
+      <c r="O73" t="s">
+        <v>299</v>
+      </c>
+      <c r="P73" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q73" t="n">
+        <v>4</v>
+      </c>
+      <c r="R73" t="n">
+        <v>3</v>
+      </c>
+      <c r="S73" t="n">
+        <v>4</v>
+      </c>
+      <c r="T73" t="s"/>
+      <c r="U73" t="n">
+        <v>4</v>
+      </c>
+      <c r="V73" t="n">
+        <v>0</v>
+      </c>
+      <c r="W73" t="s"/>
+      <c r="X73" t="s"/>
+      <c r="Y73" t="s">
+        <v>506</v>
+      </c>
+    </row>
+    <row r="74">
+      <c r="A74" t="n">
+        <v>5203</v>
+      </c>
+      <c r="B74" t="s"/>
+      <c r="C74" t="s"/>
+      <c r="D74" t="n">
+        <v>73</v>
+      </c>
+      <c r="E74" t="s">
+        <v>44</v>
+      </c>
+      <c r="F74" t="s">
+        <v>508</v>
+      </c>
+      <c r="G74" t="s">
+        <v>46</v>
+      </c>
+      <c r="H74" t="s">
+        <v>47</v>
+      </c>
+      <c r="I74" t="s">
+        <v>509</v>
+      </c>
+      <c r="J74" t="s">
+        <v>510</v>
+      </c>
+      <c r="K74" t="s">
+        <v>511</v>
+      </c>
+      <c r="L74" t="s">
+        <v>512</v>
+      </c>
+      <c r="M74" t="n">
+        <v>1</v>
+      </c>
+      <c r="N74" t="s">
+        <v>513</v>
+      </c>
+      <c r="O74" t="s">
+        <v>299</v>
+      </c>
+      <c r="P74" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q74" t="n">
+        <v>1</v>
+      </c>
+      <c r="R74" t="n">
+        <v>3</v>
+      </c>
+      <c r="S74" t="n">
+        <v>1</v>
+      </c>
+      <c r="T74" t="s"/>
+      <c r="U74" t="n">
+        <v>1</v>
+      </c>
+      <c r="V74" t="n">
+        <v>0</v>
+      </c>
+      <c r="W74" t="s"/>
+      <c r="X74" t="s"/>
+      <c r="Y74" t="s">
+        <v>512</v>
+      </c>
+    </row>
   </sheetData>
 </worksheet>
 </file>
--- a/data/hotels_by_city/Dallas/Dallas_shard_710.xlsx
+++ b/data/hotels_by_city/Dallas/Dallas_shard_710.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
-    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible"/>
+    <workbookView activeTab="0"/>
   </bookViews>
   <sheets>
-    <sheet name="hotel_info" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet name="review_info" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="hotel_info" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="review_info" sheetId="2" state="visible" r:id="rId2"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="514">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="581">
   <si>
     <t>STR#</t>
   </si>
@@ -150,6 +150,9 @@
     <t>response_text</t>
   </si>
   <si>
+    <t>Richard H</t>
+  </si>
+  <si>
     <t>06/15/2018</t>
   </si>
   <si>
@@ -189,6 +192,9 @@
     <t>First, if you are a non-smoker, beware. Our room was between smoking rooms. In fact, all of the rooms around were for smokers and smelled. They obviously throw the towels and sheets together with smoking rooms, so we could smell stale cigarette smoke all in the bathroom and in the bed. Also, there were people hanging around their doors watching everything we did, as we went to and from our car. It was creepy. Few restaurants in the area, too. More</t>
   </si>
   <si>
+    <t>anonymous7218</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55732-d98786-r524455670-Studio_6_Denton_UNT-Denton_Texas.html</t>
   </si>
   <si>
@@ -219,6 +225,9 @@
     <t>So my husband, I and my daughter stayed here, because the pricing was a bit cheaper in the small room with full size double beds.  This wasn't too bad and eventually because the stay was much longer than anticipated due to circumstances beyond our control we moved to a suite with a king size bed.  We have been here almost 4 months, this place is out of control. The police are here at least twice a week, the kids are out of control, the hotel does not care nor help, they say oh we can't do anything call the police.  They also allow people who live/stay here and are running business to control the only two washing machines on site.  A woman informed me she was washing laundry for twelve workers and no one is supposed to use it when she is.  Well you go look, laundry basket is left there with no laundry in the washer or dryer.  I thought the washer and dryer were for hotel guests, not for a business?  Well it looks like they really don't care about the comfort of their guests at all.  Now to talk about the kids, unbearable and little brats.  They allow these uncontrollable kids and parents to control the complex and continue to be rude and berating.  Now lets talk about the room, wasn't too dirty, but cockroaches, the internet is not good at all, you lose connection constantly and...So my husband, I and my daughter stayed here, because the pricing was a bit cheaper in the small room with full size double beds.  This wasn't too bad and eventually because the stay was much longer than anticipated due to circumstances beyond our control we moved to a suite with a king size bed.  We have been here almost 4 months, this place is out of control. The police are here at least twice a week, the kids are out of control, the hotel does not care nor help, they say oh we can't do anything call the police.  They also allow people who live/stay here and are running business to control the only two washing machines on site.  A woman informed me she was washing laundry for twelve workers and no one is supposed to use it when she is.  Well you go look, laundry basket is left there with no laundry in the washer or dryer.  I thought the washer and dryer were for hotel guests, not for a business?  Well it looks like they really don't care about the comfort of their guests at all.  Now to talk about the kids, unbearable and little brats.  They allow these uncontrollable kids and parents to control the complex and continue to be rude and berating.  Now lets talk about the room, wasn't too dirty, but cockroaches, the internet is not good at all, you lose connection constantly and the TV is horrible.  I will never stay here ever again, even if I had to live in my car.More</t>
   </si>
   <si>
+    <t>Ashlee H</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55732-d98786-r482497932-Studio_6_Denton_UNT-Denton_Texas.html</t>
   </si>
   <si>
@@ -237,6 +246,9 @@
     <t>May 2017</t>
   </si>
   <si>
+    <t>William D</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55732-d98786-r422140619-Studio_6_Denton_UNT-Denton_Texas.html</t>
   </si>
   <si>
@@ -255,6 +267,9 @@
     <t>September 2016</t>
   </si>
   <si>
+    <t>gwendalena</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55732-d98786-r405254106-Studio_6_Denton_UNT-Denton_Texas.html</t>
   </si>
   <si>
@@ -276,6 +291,9 @@
     <t>At first glance, this hotel seemed decent and adequate given the price and good location. We just moved here for a job and were staying for 10 days while waiting on our apartment to free up. It was dog friendly and while not the safest place to stay at night with a small child, it seemed to be ok. Only realized some of our stuff was missing after we checked out. I called the front desk to enquire about it, hoping that it was a mistake and that someone hadn't taken our stuff. But no luck - the front desk was rude and can simply stick by their own story that they have no responsibility over items, even if they disappear during housekeeping visits. You want to believe these things dont happen and that you can trust people and places like this, but evidently notMore</t>
   </si>
   <si>
+    <t>jamie45388</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55732-d98786-r403590653-Studio_6_Denton_UNT-Denton_Texas.html</t>
   </si>
   <si>
@@ -303,6 +321,9 @@
     <t>Strange, nasty looking men with hoodies and a drink in their hand knocking on your door demanding to be let in is never a good sign that this is a motel you want to stay in! Or lots of cop cars late at night in the parking lot...found used needled in the parking lot.  Desk clerks don't care, just take the money and give em keys..and the dogs? Don't get me started! Never again.More</t>
   </si>
   <si>
+    <t>tvmovielover50</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55732-d98786-r368457949-Studio_6_Denton_UNT-Denton_Texas.html</t>
   </si>
   <si>
@@ -324,6 +345,9 @@
     <t>I stayed here for a week or so 4 years and two hotel chains ago.  I recently ended another extended stay and can report that the hotel is still good value.  When I say that the room looked the same as the one I had 4 years ago-that is a compliment-I am not sure it was updated as bathroom is small and nothing special (slow toilet but good hot water in shower) but the small kitchenette is a good addition.  Soap was small and skimpy and towels very thin but overall, I was comfortable and safe for my time there.  There are as said, some permanent residents and some construction workers there but no odd people or things during my stay.  I would recommend this as basic but good value (prices are higher at some other places that are just as basic) and would stay here again.  I was on the first floor both times I stayed here but see that a second floor room might be better as no overhead noise.More</t>
   </si>
   <si>
+    <t>MarcCutright</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55732-d98786-r366212831-Studio_6_Denton_UNT-Denton_Texas.html</t>
   </si>
   <si>
@@ -339,6 +363,9 @@
     <t>You don't expect a Hilton for these prices, but it was well worth the money. Good wifi, comfy and clean room (even spacious; I had a handicapped), lots of food options close, full size frig and a microwave.  Glad I gave it a shot.</t>
   </si>
   <si>
+    <t>tescbs</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55732-d98786-r363198802-Studio_6_Denton_UNT-Denton_Texas.html</t>
   </si>
   <si>
@@ -354,6 +381,9 @@
     <t>First time to stay at these accomodations. They were very nice, clean and within 15 minutes of the track. I was very impresseed with the flooring not being carpet. I think this was much cleaner and attractive. We would certainly stay at this location again. I would recommend it to others. The room was like an efficiency. Very accomodating. The only are that was a little small was the space for the desk area but my laptop fit there. There was just a very small space that would be considered for a desk arae. .</t>
   </si>
   <si>
+    <t>LindaKrum</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55732-d98786-r321717817-Studio_6_Denton_UNT-Denton_Texas.html</t>
   </si>
   <si>
@@ -372,6 +402,9 @@
     <t>September 2015</t>
   </si>
   <si>
+    <t>Rob F</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55732-d98786-r317880556-Studio_6_Denton_UNT-Denton_Texas.html</t>
   </si>
   <si>
@@ -390,6 +423,9 @@
     <t>October 2015</t>
   </si>
   <si>
+    <t>Rob L</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55732-d98786-r307943877-Studio_6_Denton_UNT-Denton_Texas.html</t>
   </si>
   <si>
@@ -417,6 +453,9 @@
     <t>The room was OK but the grounds were just filthy and littered with garbage.  Not worth it even at the low price.  I just don't understand how management could allow the staff to lift the full trash bags out of the garbage cans in the hallways,  set them next to the can, put a new liner in, and leave them there.  I counted three full bags of rotting garbage next to the can outside my room. If the hallways were clean it would be a fine place to stay.More</t>
   </si>
   <si>
+    <t>awplus6</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55732-d98786-r259502147-Studio_6_Denton_UNT-Denton_Texas.html</t>
   </si>
   <si>
@@ -447,6 +486,9 @@
     <t>We had our 6 kids with us and got 2 rooms. We were really impressed with how clean and fresh everything was. Beds were clean and comfortable. Had kitchenettes. Everything was newly decorated. New cupboards. Fridge. Stove. Microwave. Was affordable.  We will stay again. More</t>
   </si>
   <si>
+    <t>Carol F</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55732-d98786-r255438285-Studio_6_Denton_UNT-Denton_Texas.html</t>
   </si>
   <si>
@@ -468,6 +510,9 @@
     <t>I was little worried as the room price was so low that how would the room look like. But trust me the moment I opened the room It was fantastic super clean and pretty much everything you need except "COFFEE MACHINE" it was not an issue as my room was close to the lobby and they had some really strong &amp; fresh coffee in the lobby. At checkout the gentlemen was very nice and generous he helped me with my luggage.More</t>
   </si>
   <si>
+    <t>Kylee M</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55732-d98786-r249649475-Studio_6_Denton_UNT-Denton_Texas.html</t>
   </si>
   <si>
@@ -495,6 +540,9 @@
     <t>I stayed at this hotel on my way through town. The room was missing chunks of carpet and then I woke up at 2 o'clock in the morning to a bed bug on my pillow. The manager wouldn't give me a refund until his bug guy would come... well three week later he hasn't called me back! I've called several times and he is never available. I wouldn't stay here if my life depended on it. Disgusting! You're better off staying in your car!More</t>
   </si>
   <si>
+    <t>GilesB157</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55732-d98786-r238817660-Studio_6_Denton_UNT-Denton_Texas.html</t>
   </si>
   <si>
@@ -522,6 +570,9 @@
     <t>We'd asked for a quiet room, but had been booked for one facing the busy road. Having visited it, we returned to front desk and asked for a swap to the back, that was very pleasantly arranged by Sei. A much less traffic disturbed room on 2nd floor, but there was no fridge unlike the first room (Why not? It was exactly the same size and shape?) At night time there was a lot of noise into the small hours from guests who seemed to be walking and talking loudly along the decks outside the rooms. Internally the room was absolutely fine: very clean, extremely comfortable beds and a neat bathroom arrangement. We thought that for the price and via booking.com we were getting a breakfast, but were told that there was none provided.More</t>
   </si>
   <si>
+    <t>seannasmith</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55732-d98786-r235017046-Studio_6_Denton_UNT-Denton_Texas.html</t>
   </si>
   <si>
@@ -546,6 +597,9 @@
     <t>The cleaning staff and staff up front are very nice.the rooms are very Clean and kept clean.lots of friendly people and kids. Close to the grocery store, food places and the gas station. And very close to unt and twu. Pets allowed. Nice tv's Wi-Fi. Quiet area. More</t>
   </si>
   <si>
+    <t>James J</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55732-d98786-r219553003-Studio_6_Denton_UNT-Denton_Texas.html</t>
   </si>
   <si>
@@ -573,6 +627,9 @@
     <t>I really enjoyed my stay here and I'll be staying here from now on when I visit the denton. It's very clean and cozy. The location is great. The owners are super nice people. You'll love it there. I would recommend this to anyone looking for a good stay in the dentonMore</t>
   </si>
   <si>
+    <t>Liz A</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55732-d98786-r212406749-Studio_6_Denton_UNT-Denton_Texas.html</t>
   </si>
   <si>
@@ -600,6 +657,9 @@
     <t>Shame on you Motel 6. You advertise one rate and then charge me another without clearing it with me first.  I question the clerk and he says that "all of the rooms that get that rate are already booked."  I say "that's not right - you should have told me before you charged my card", to which he replied, "you should have asked!"  To add insult to injury, the non-smoking room WREAKS of smoke.  I'm tired and it's late or I would go somewhere else...   oh yeah, he has already charged my card...  shame on you Motel 6...  BIG bait and switch!!!!!!!!!More</t>
   </si>
   <si>
+    <t>David G</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55732-d98786-r212074521-Studio_6_Denton_UNT-Denton_Texas.html</t>
   </si>
   <si>
@@ -624,6 +684,9 @@
     <t>This was the worst hotel I ever stayed in . There was finger prints on the walls and the walls were a live . There were cockaroaches running around on the carpet. My Family was mortified . We were suppose to spend a week here , but we had to leave the first night .Dont waste your moneyMore</t>
   </si>
   <si>
+    <t>mountainclimber440</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55732-d98786-r211556131-Studio_6_Denton_UNT-Denton_Texas.html</t>
   </si>
   <si>
@@ -648,6 +711,9 @@
     <t>Always make sure someone is at the main check in desk.  I showed up around 10:45 pm after a very long day of driving, and the front door was locked.  No one answered the phone (I called the hotel number and could hear the phone ringing inside). A couple other potential guests showed up while I was waiting, but they probably went to other hotels.   Finally, I called the 800 number for Motel 6.  I had made a reservation and didn't want to be charged if I was never able to check in.  While on hold, the guy who was supposed to be at the front desk showed up.  He said he'd had to go help another guest with a TV, and didn't immediately apologize for making me wait.  He said he was only gone 10 minutes but it was more like 20.  He did compensate me by giving me the suite for the price I was paying for a regular room.  The next morning I went to get coffee at 7:30 am but it was out.  The same guy was there and he did immediately say he would make another pot.  But seriously, that motel needs to get a bigger coffee pot or make some extra.  The room was okay.  Moderately clean.  It had a fridge, which I used.  One of the like fixtures rattled while the AC was on, but I pushed it a little bit and it...Always make sure someone is at the main check in desk.  I showed up around 10:45 pm after a very long day of driving, and the front door was locked.  No one answered the phone (I called the hotel number and could hear the phone ringing inside). A couple other potential guests showed up while I was waiting, but they probably went to other hotels.   Finally, I called the 800 number for Motel 6.  I had made a reservation and didn't want to be charged if I was never able to check in.  While on hold, the guy who was supposed to be at the front desk showed up.  He said he'd had to go help another guest with a TV, and didn't immediately apologize for making me wait.  He said he was only gone 10 minutes but it was more like 20.  He did compensate me by giving me the suite for the price I was paying for a regular room.  The next morning I went to get coffee at 7:30 am but it was out.  The same guy was there and he did immediately say he would make another pot.  But seriously, that motel needs to get a bigger coffee pot or make some extra.  The room was okay.  Moderately clean.  It had a fridge, which I used.  One of the like fixtures rattled while the AC was on, but I pushed it a little bit and it stopped.More</t>
   </si>
   <si>
+    <t>rik_33770</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55732-d98786-r209343337-Studio_6_Denton_UNT-Denton_Texas.html</t>
   </si>
   <si>
@@ -666,6 +732,9 @@
     <t>After coming into Denton for family, this was the only hotel left that had a smoking room. Once we got back to the hotel, we went to lock the door and got locked in. The door would not open or unlock! Called down to the front desk and the clerk said, " Well what do you want me to do about I?" An hour later he finally got up here to get the door fix. Now the door wont lock and we cant get our money back. What a great set up. Will  be up all night to make sure no one comes thru the door. Next time Motel 6, go ahead and turn the night off, no one wants to stay in your pits. Paid $109 for this smoking king suite.More</t>
   </si>
   <si>
+    <t>usvets</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55732-d98786-r202923551-Studio_6_Denton_UNT-Denton_Texas.html</t>
   </si>
   <si>
@@ -693,6 +762,9 @@
     <t>After reading all the great reviews, I'm wondering if these folks who wrote them really stayed here.Used to stay here when it was La Quinta, and even then it wasn't a 4 star hotel but at least it was clean. Now that it's a Motel 6, it's gone down hill. Room walls and carpet were filthy! Door lock did not lock and discovered roaches crawling on the walls in the bathroom in the morning. Property is run down. Overall, dirty property suited for a "flop house".More</t>
   </si>
   <si>
+    <t>Grady P</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55732-d98786-r202624785-Studio_6_Denton_UNT-Denton_Texas.html</t>
   </si>
   <si>
@@ -714,6 +786,9 @@
     <t>Its an old La Quinta converted to a motel6. Best thing about them is they are still maintaining the quality of rooms and providing it for a way cheaper price. Personally me I loved the place it was nice and clean. It wasn't that highly equipped like expensive hotels but thats acceptable for the price they offered me. They have free wifi and I guess that's all I need.More</t>
   </si>
   <si>
+    <t>Williamd5096</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55732-d98786-r201180620-Studio_6_Denton_UNT-Denton_Texas.html</t>
   </si>
   <si>
@@ -738,6 +813,9 @@
     <t>At check inn staff was very professional and extremely fast! Rooms were more clean and beautiful than i expected for the price. I just paid $45.19!In morning they don't free breakfast but the restaurant next door has really good american and greek food.In all best place to stay......More</t>
   </si>
   <si>
+    <t>dachinghwa</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55732-d98786-r201110422-Studio_6_Denton_UNT-Denton_Texas.html</t>
   </si>
   <si>
@@ -754,6 +832,9 @@
   </si>
   <si>
     <t>THis property formerly was a La Quinta some time ago.. It is a basic facility that does not offer breakfast (not that budget establishment offer much in the way  of breakfast) or bathroom toiletries.. It is adjacent to I-35 but far away so that noise is nopt a concerm. The clmate control worked properly and there was plenty of hot water during my two-night stay. I was never able to figure out the shower operation but did not contact front desk.There is a Greek -American restaurant next door and a hamburger joint next to the restaurant.This motel is about 1.5 miles west of Denton Center on a moderately busy street. THe motel. is apparently in a transition mode as there were numerous tables and chairs in the small lobby propably dating to the a Quinta period. Several very large boxes were in the lobby awainting unpacking..More</t>
+  </si>
+  <si>
+    <t>Julie H</t>
   </si>
   <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55732-d98786-r198939821-Studio_6_Denton_UNT-Denton_Texas.html</t>
@@ -783,6 +864,9 @@
   <si>
     <t>Of course, motel 6 is super cheap and known for their "inexpensive" rooms. I called the receptionist to book a room for TWO nights. The receptionist was obviously a non-english speaking person. He did not understand what I was trying to say at all and got frustrated when I asked him to repeat himself. Long story short, after I gave him all my credit info, I decided NOT to book with this motel just because of the unprofessionalism and rudeness of this man. I told him TO NOT book my room for me and if I wanted one, I'll just come IN PERSON to book the room. He assured me that if he even booked it, I will receive an email confirmation (in which I did not). Of course, I never ever went back trying to get a room. I'll rather spend more money elsewhere where I would receive better service.
 Eventually, I noticed a charge come up on my card! I called to speak to a manager and nobody was available. Eventually, my bank got a hold of the manager and he said that he would "further investigate" and get back to me. He assured me that he did not want my money and I will receive a refund after his investigation. I NEVER RECEIVED A CALL BACK NOR DID I RECEIVE A REFUND. He also told me that I was booked for four nights! Um, no you dumb...Of course, motel 6 is super cheap and known for their "inexpensive" rooms. I called the receptionist to book a room for TWO nights. The receptionist was obviously a non-english speaking person. He did not understand what I was trying to say at all and got frustrated when I asked him to repeat himself. Long story short, after I gave him all my credit info, I decided NOT to book with this motel just because of the unprofessionalism and rudeness of this man. I told him TO NOT book my room for me and if I wanted one, I'll just come IN PERSON to book the room. He assured me that if he even booked it, I will receive an email confirmation (in which I did not). Of course, I never ever went back trying to get a room. I'll rather spend more money elsewhere where I would receive better service.Eventually, I noticed a charge come up on my card! I called to speak to a manager and nobody was available. Eventually, my bank got a hold of the manager and he said that he would "further investigate" and get back to me. He assured me that he did not want my money and I will receive a refund after his investigation. I NEVER RECEIVED A CALL BACK NOR DID I RECEIVE A REFUND. He also told me that I was booked for four nights! Um, no you dumb zhit, i asked for two nights because I was there on a business trip. Rude, non-english speaking, money hungry motel and staff! No wonder they are on the BOTTOM of all the motels and hotels in the world. I've never booked at any MOTEL 6 before and this situation proves exactly WHY I will NEVER book from them or from any Motel 6!More</t>
+  </si>
+  <si>
+    <t>pirate_langostino</t>
   </si>
   <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55732-d98786-r173353276-Studio_6_Denton_UNT-Denton_Texas.html</t>
@@ -818,6 +902,9 @@
 Overall: this is a good location close to the colleges and the highway.  If you are not looking for a stay at...While this property was sold from laquinta to motel 6 the upkeep and service is still very good.The Good: staff is eager to help.  pool is meticulous and partially shaded.  A little diner resides adjacent to the property that serves average diner food - but its a good price and good service.  Several good restaurants in the area (try Viet Bites).  The beds are remarkably comfortable.  The bathrooms were cleaned well (this is something I always look for in a hotel).  The room was in good condition.  The air conditioner is overpowered for the room and straight up could refrigerate beer if you wanted it to - so that is a huge plus.  I have been staying a week now on business and there has been no late parties or anything like that so its quiet.  My car has been safe in the parking lot.  Maids do a good job cleaning every day.The Bad: Ice machine is either not working or the other guests at the hotel are constantly filling up massive coolers because I can only ever seem to achieve a half a tin of ice.  The guest laundry is not good - I would advise using off site laundry facilities.  the pool is small.  The new management does not provide continental breakfast as indicated.Overall: this is a good location close to the colleges and the highway.  If you are not looking for a stay at the Taj Mahal this is an economical, clean, well run hotel for a great price.  I have no significant complaints.  I would stay here again and I would suggest to friends and family.More</t>
   </si>
   <si>
+    <t>subwayrat</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55732-d98786-r168165893-Studio_6_Denton_UNT-Denton_Texas.html</t>
   </si>
   <si>
@@ -839,6 +926,9 @@
     <t>I chose this place based on the LaQuinta name, paying an extra $15 a night over another option. What a mistake.Having reserved a two-bed, non-smoking room, we arrived and were told that there were no more non-smoking rooms. The desk clerk said the woman who assigns the rooms just puts people in smoking rooms by default. After insisting on a non-smoking room, we were "upgraded" to a suite. The rooms were filthy. Dirt on the walls surrounding the air vents, a giant hole burned in the carpet, and furniture with stains on the upholstery. And the door either didn't lock, or when it did, wouldn't open afterward. (Fire hazard!)Midway through our three-night stay, we received a letter saying the hotel would no longer be a LaQuinta and a Motel 6 sign was hoisted into place outside. Whatever the brand, I wouldn't stay here again if you paid me.More</t>
   </si>
   <si>
+    <t>MICHELLE R</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55732-d98786-r168090478-Studio_6_Denton_UNT-Denton_Texas.html</t>
   </si>
   <si>
@@ -857,6 +947,9 @@
     <t>We were on our way home from seeing a show at Winstar Casino and just needed a place to get a good night's sleep.  We were pleasantly surprised by our entire stay.  The front desk guy was very helpful, the room was extremely clean and fresh-looking, and the breakfast the next morning was tasty and plentiful.  The hotel is just a block from I35, making it convenient and easy to find.  It's near several food places.  We would definitely stay there again, as even the fussy travelers in the family were happy!More</t>
   </si>
   <si>
+    <t>A TripAdvisor Member</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55732-d98786-r165975081-Studio_6_Denton_UNT-Denton_Texas.html</t>
   </si>
   <si>
@@ -875,6 +968,9 @@
     <t>June 2013</t>
   </si>
   <si>
+    <t>lazaroa128</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55732-d98786-r165862438-Studio_6_Denton_UNT-Denton_Texas.html</t>
   </si>
   <si>
@@ -887,6 +983,9 @@
     <t xml:space="preserve">Clean room, clean bed.  Great coffee... and very close to UNT, and IH-35.Most of the staff is friendly and helpful.  We have used this La Quinta while visiting the UNT campus.  It is convieniently located near the campus, the mall, and plenty of restaurants just a few exits down on I-35. </t>
   </si>
   <si>
+    <t>kdmc0408</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55732-d98786-r165431839-Studio_6_Denton_UNT-Denton_Texas.html</t>
   </si>
   <si>
@@ -905,6 +1004,9 @@
     <t>I booked this hotel because of it's proximity to UNT during Parent Orientation for incoming freshmen &amp; the best thing I can say about it was the location was convenient. I booked it through Southwest Rapid Rewards &amp; the price was very cheap; sometimes you get what you pay for!The thermostat was erratic, I was in a wheelchair accessible room (which I should have asked to change, but at that point was too exhausted) &amp; the shower had mold &amp; mildew. There were ants &amp; small spiders in the room, which made me wonder what kind of other bugs there were that I couldn't see. Needless to say, I'll never stay there again.More</t>
   </si>
   <si>
+    <t>VSAndersen</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55732-d98786-r161791460-Studio_6_Denton_UNT-Denton_Texas.html</t>
   </si>
   <si>
@@ -929,6 +1031,9 @@
     <t>I'm not sure I would stay at this La Quinta again.  I had traveled all day from Kansas City on my way to the Corpus Christie area, so I was really road weary.  The reception I received when I first arrived at the front desk was somewhat cool and could have been more welcoming.  Finding a parking place near my room was tricky, as much of the parking around that side of the building seemed to be reserved for the restaurant next to the hotel, judging by the tow-away warning signs.  Which, by the way, the restaurant wasn't all that impressive, for which I wrote a separate review in another post.  The Continental breakfast was just OK at the hotel.  One thing that did annoy me was when I first walked into the breakfast area, I noticed that the only table facing the TV was occupied by a hotel employee, and I had to choose another table. It wasn't a big deal, but I like to watch the news while eating my breakfast, especially when I'm traveling. I later discovered the employee turned out to be the front desk worker who was getting ready to go off her night shift.  Even though I felt sympathy for her, I still felt it was not justifiable for her to leave the front desk unattended, as she had been sitting there for a good 15 minutes.  The room I stayed in was clean...I'm not sure I would stay at this La Quinta again.  I had traveled all day from Kansas City on my way to the Corpus Christie area, so I was really road weary.  The reception I received when I first arrived at the front desk was somewhat cool and could have been more welcoming.  Finding a parking place near my room was tricky, as much of the parking around that side of the building seemed to be reserved for the restaurant next to the hotel, judging by the tow-away warning signs.  Which, by the way, the restaurant wasn't all that impressive, for which I wrote a separate review in another post.  The Continental breakfast was just OK at the hotel.  One thing that did annoy me was when I first walked into the breakfast area, I noticed that the only table facing the TV was occupied by a hotel employee, and I had to choose another table. It wasn't a big deal, but I like to watch the news while eating my breakfast, especially when I'm traveling. I later discovered the employee turned out to be the front desk worker who was getting ready to go off her night shift.  Even though I felt sympathy for her, I still felt it was not justifiable for her to leave the front desk unattended, as she had been sitting there for a good 15 minutes.  The room I stayed in was clean and comfortable.  But I think some customer service issues needs to be addressed at this particular La Quinta.More</t>
   </si>
   <si>
+    <t>AgileDogs</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55732-d98786-r161421136-Studio_6_Denton_UNT-Denton_Texas.html</t>
   </si>
   <si>
@@ -944,6 +1049,9 @@
     <t>This is a nicer 'old' hotel.Maintenance of the hotel and area seems to have improved since I stayed a few years ago! My room was fresh and clean. AC worked very well. Breakfast was ok, a better selection than many LQ have been offering. The area was a little noisy because of people at the pool, but the room was quiet. A decent place to stay.</t>
   </si>
   <si>
+    <t>A La Quinta traveler</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55732-d98786-r160406839-Studio_6_Denton_UNT-Denton_Texas.html</t>
   </si>
   <si>
@@ -956,6 +1064,9 @@
     <t>April 2013</t>
   </si>
   <si>
+    <t>Barry H</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55732-d98786-r159128882-Studio_6_Denton_UNT-Denton_Texas.html</t>
   </si>
   <si>
@@ -965,6 +1076,9 @@
     <t>04/29/2013</t>
   </si>
   <si>
+    <t>mandilyn4</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55732-d98786-r158417262-Studio_6_Denton_UNT-Denton_Texas.html</t>
   </si>
   <si>
@@ -980,6 +1094,9 @@
     <t>We have stayed at this hotel several times when visiting a son at UNT.  It is clean, comfortable and in an excellent location as it only takes us a couple minutes to get to UNT.  The price is right and the breakfast is great with texas shaped waffles and several other options. The staff has always been nice and helpful.</t>
   </si>
   <si>
+    <t>LINDA H</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55732-d98786-r158098293-Studio_6_Denton_UNT-Denton_Texas.html</t>
   </si>
   <si>
@@ -998,6 +1115,9 @@
     <t>There is a newer LQ nearby but considering the $20+ savings this property was perfectly acceptable.  We actually prefer the outside doors of the older motels because it is SO MUCH easier than loading your luggage onto an unwieldy cart, navigating entry doorways and hauling it down a long hallway; invariably I get one with a rebellious and squeaky wheel.  Room was spacious &amp; spotlessly clean with crisp sheets, fluffy towels, flat screen TV, &amp; free wifi with good signal strength.  Jackie at the front desk was very helpful.  Courtyard area was nicely landscaped &amp; pretty &amp; the pool looked inviting.  There are both high-end and "bargain" motels nearby; would definitely stay here again.More</t>
   </si>
   <si>
+    <t>deepchills</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55732-d98786-r154898531-Studio_6_Denton_UNT-Denton_Texas.html</t>
   </si>
   <si>
@@ -1037,6 +1157,9 @@
     <t>More</t>
   </si>
   <si>
+    <t>CalArtGal</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55732-d98786-r152878855-Studio_6_Denton_UNT-Denton_Texas.html</t>
   </si>
   <si>
@@ -1055,6 +1178,9 @@
     <t>January 2013</t>
   </si>
   <si>
+    <t>Tim E</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55732-d98786-r147669094-Studio_6_Denton_UNT-Denton_Texas.html</t>
   </si>
   <si>
@@ -1067,6 +1193,9 @@
     <t>December 2012</t>
   </si>
   <si>
+    <t>53Glen</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55732-d98786-r146289659-Studio_6_Denton_UNT-Denton_Texas.html</t>
   </si>
   <si>
@@ -1100,6 +1229,9 @@
     <t>This is the 2nd time I have stayed here. Inexpensive, very clean. Beds were very comfortable. Wifi was good.  The continental breakfast could use more variety. I'm not a breakfast eater but my youngest love the make it yourself waffle in the shape of Texas. My oldest goes to UNT so I plan on more stays at La Quinta. If you what an inexpensive clean hotel, then this is it.</t>
   </si>
   <si>
+    <t>T3961QHrobertf</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55732-d98786-r143602519-Studio_6_Denton_UNT-Denton_Texas.html</t>
   </si>
   <si>
@@ -1112,6 +1244,9 @@
     <t>October 2012</t>
   </si>
   <si>
+    <t>lurcorsr</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55732-d98786-r141098259-Studio_6_Denton_UNT-Denton_Texas.html</t>
   </si>
   <si>
@@ -1169,6 +1304,9 @@
     <t>July 2012</t>
   </si>
   <si>
+    <t>Irish4love</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55732-d98786-r135115835-Studio_6_Denton_UNT-Denton_Texas.html</t>
   </si>
   <si>
@@ -1187,6 +1325,9 @@
     <t>The review below mine is negative. I did NOT have that kind of experience. I read the reviews of others and  write reviews regularly. On arriving, Rickie was GREAT. He was friendly, respectful and willing to help. I checked in, found that the door was missing weatherstripping and I saw daylight underneath it. He offered to have maintenence fix it, or switch me to another room. I did go to another room and it was nice and cool. Being summer and humid, it is very hot in this area this time of year. The room and bathroom were clean. The beds were very comfortable and once I shut the door to the outside, it was quiet. We really did not hear noise from the street outside, other guests or the pool. When you drive up and around the property it is older and looks can be deceiving. The property appears to be well maintained in spite of its age. The shower head (which another person mentioned was so bad),was to my liking. Most hotels have the water saving heads and they drive me nuts because NO water comes out of the middle of the head. Not so here. The shower was great. The tub had a few scratches and nicks on it, but overall was good! Towels were good quality, not too thick nor too thin. Two improvements I might suggest are that the bathroom needs a vent fan and...The review below mine is negative. I did NOT have that kind of experience. I read the reviews of others and  write reviews regularly. On arriving, Rickie was GREAT. He was friendly, respectful and willing to help. I checked in, found that the door was missing weatherstripping and I saw daylight underneath it. He offered to have maintenence fix it, or switch me to another room. I did go to another room and it was nice and cool. Being summer and humid, it is very hot in this area this time of year. The room and bathroom were clean. The beds were very comfortable and once I shut the door to the outside, it was quiet. We really did not hear noise from the street outside, other guests or the pool. When you drive up and around the property it is older and looks can be deceiving. The property appears to be well maintained in spite of its age. The shower head (which another person mentioned was so bad),was to my liking. Most hotels have the water saving heads and they drive me nuts because NO water comes out of the middle of the head. Not so here. The shower was great. The tub had a few scratches and nicks on it, but overall was good! Towels were good quality, not too thick nor too thin. Two improvements I might suggest are that the bathroom needs a vent fan and the front lobby area could use a computer. I don't take my computer on pleasure trips. Another convenience to note, there is a restaurant in front of the main part of the property called Michael's Kitchen. It is open early AM at 6 until 9 or later at night. Breakfast there was very good and the waitress efficient, giving good service. For most hotels in this price range, it is not easy to find beds of this quality, towels that were nice like these and a good strong shower. I come to Denton fairly reguarly and will stay here again. I have stayed in several nicer hotels including the LaQuinta, Fairfield and Comfort Suites at UNT. They were all nicer but for the price I will return here. The room did not have a frig, so be prepared for that if you need to keep drinks cold. I will post pictures of the pool and bathroom later.More</t>
   </si>
   <si>
+    <t>ja0817</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55732-d98786-r134953308-Studio_6_Denton_UNT-Denton_Texas.html</t>
   </si>
   <si>
@@ -1223,6 +1364,9 @@
     <t>June 2012</t>
   </si>
   <si>
+    <t>JAMES C</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55732-d98786-r133351982-Studio_6_Denton_UNT-Denton_Texas.html</t>
   </si>
   <si>
@@ -1241,6 +1385,9 @@
     <t>06/16/2012</t>
   </si>
   <si>
+    <t>Jsteph2k5</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55732-d98786-r130201590-Studio_6_Denton_UNT-Denton_Texas.html</t>
   </si>
   <si>
@@ -1259,6 +1406,9 @@
     <t>May 2012</t>
   </si>
   <si>
+    <t>Tinslinger</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55732-d98786-r130194198-Studio_6_Denton_UNT-Denton_Texas.html</t>
   </si>
   <si>
@@ -1274,6 +1424,9 @@
     <t>Although the best thing I can say about this hotel was the friendly, helpful staff, the breakfast fell far short. The room and bed were clean for the most part, but I couldn't quite ignore the cob webs up by the ceiling. Location was good, as was the value. I guess you get what you pay for, but I stayed at 3 other La Quinta Inns since last September and this was needed the most attention.</t>
   </si>
   <si>
+    <t>TravelloverMn</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55732-d98786-r128953998-Studio_6_Denton_UNT-Denton_Texas.html</t>
   </si>
   <si>
@@ -1292,6 +1445,9 @@
     <t>March 2012</t>
   </si>
   <si>
+    <t>578genez</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55732-d98786-r127437489-Studio_6_Denton_UNT-Denton_Texas.html</t>
   </si>
   <si>
@@ -1310,6 +1466,9 @@
     <t>April 2012</t>
   </si>
   <si>
+    <t>PickyGirlTravels</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55732-d98786-r126712597-Studio_6_Denton_UNT-Denton_Texas.html</t>
   </si>
   <si>
@@ -1325,6 +1484,9 @@
     <t>Given the age of the hotel I was expecting the room to be pretty crappy. I must say I was pleasantly surprised. Don't be mistaken the room is basic but is was clean, bug free and odor free. I'm usually pretty skeeved out by hotel comforters but these weren't scary.I was in town to take my daughter to visit TWU and UNT so the location was great.</t>
   </si>
   <si>
+    <t>Adam K</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55732-d98786-r125823786-Studio_6_Denton_UNT-Denton_Texas.html</t>
   </si>
   <si>
@@ -1340,6 +1502,9 @@
     <t>My work has me out of town for three to four nights a week. When I lay over in Denton, I always look forward to staying at this La Quinta. The staff here is very friendly and outgoing, and it being a new facility everything inside is updated. It is quiet, hardly any outside noise from other clients, a great place to get some quality rest after a long days work. I have never had a problem here, and if it were closer to Lewisville, I would even pick this place over the Hampton Inn.</t>
   </si>
   <si>
+    <t>cowtnadv</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55732-d98786-r119508933-Studio_6_Denton_UNT-Denton_Texas.html</t>
   </si>
   <si>
@@ -1358,6 +1523,9 @@
     <t>October 2011</t>
   </si>
   <si>
+    <t>Happytrailscj</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55732-d98786-r118908110-Studio_6_Denton_UNT-Denton_Texas.html</t>
   </si>
   <si>
@@ -1373,6 +1541,9 @@
     <t xml:space="preserve">We have stayed several times while visiting our daughter in college. Our last visit was enough to say NO MORE!  Torn sheets, cockroaches, dirty everywhere, to include the French fry next to the bed. I found it on the last day. Either it had been there the whole time or housekeeping enjoyed their lunch while "cleaning" the room. </t>
   </si>
   <si>
+    <t>EMSMOM214</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55732-d98786-r118291646-Studio_6_Denton_UNT-Denton_Texas.html</t>
   </si>
   <si>
@@ -1391,6 +1562,9 @@
     <t>September 2011</t>
   </si>
   <si>
+    <t>aiet22</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55732-d98786-r114951901-Studio_6_Denton_UNT-Denton_Texas.html</t>
   </si>
   <si>
@@ -1409,6 +1583,9 @@
     <t>June 2011</t>
   </si>
   <si>
+    <t>mastarmed</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55732-d98786-r113280544-Studio_6_Denton_UNT-Denton_Texas.html</t>
   </si>
   <si>
@@ -1427,6 +1604,9 @@
     <t>After a horrible weekend I checked into this hotel at 1 a.m.  All I wanted was a bed.  The TV in the room had the wires hanging down so no signal.  The toilet seat was not on the toilet.  At 1 a.m. I was not going to complain, I just wanted to sleep.In the morning at their breakfast the juice machine was out of order.  I can truely understand that stuff happens, but at least put out milk for children to drink with their waffles.  If you have waffles you should at least have pancake syrup.  The carpet in the room was not vaccumed and the bathroom counter was dirty.  Beware of this hotel.When I checked out the person said the manager would call me.  Still no phone call.  Avoid this hotel.More</t>
   </si>
   <si>
+    <t>dsvilla</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55732-d98786-r111515465-Studio_6_Denton_UNT-Denton_Texas.html</t>
   </si>
   <si>
@@ -1445,6 +1625,9 @@
     <t>My husband and I stayed at this facility in June. On the positive side, the staff was very pleasant and helpful and the room although small was clean.On the negative side, the soundproofing left something to be desired. My husband was awakened through the night by noise from new arrivals getting to their room.  I also could hear the creak of the room overhead early the next morning. The breakfast was adequate more along the lines of a continental breakfast.  The closest ice machine was broken and management didn't seem much concerned.  The facility is located where there is a lot of construction going on and next to a tattoo parlor.More</t>
   </si>
   <si>
+    <t>jbink12017</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55732-d98786-r107120377-Studio_6_Denton_UNT-Denton_Texas.html</t>
   </si>
   <si>
@@ -1463,6 +1646,9 @@
     <t>May 2011</t>
   </si>
   <si>
+    <t>ndw1964</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55732-d98786-r104094641-Studio_6_Denton_UNT-Denton_Texas.html</t>
   </si>
   <si>
@@ -1484,6 +1670,9 @@
     <t>We really liked the way this hotel was so close to UNT while my daughter and I went to visit. Never even had to get on highway, which made driving even better. Beds were very comfortable. Coffee maker was in room. What I am most concerned about is clean sheets and towels.Ours were like new and spotless. It is an older hotel, so nothing grand,but for the price and location, we are already booked again in May for another trip to Denton and visit to TWU. Breakfast was very good. Did not use pool, but saw several families using while we were there having fun. Like I said we are already reserved again, so thought it was very nice for the price.More</t>
   </si>
   <si>
+    <t>pondguyOklahoma</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55732-d98786-r104054453-Studio_6_Denton_UNT-Denton_Texas.html</t>
   </si>
   <si>
@@ -1496,6 +1685,9 @@
     <t>Older hotel with smaller rooms. Stayed in room with double beds, beds were small and not all that comfortable. Rooms were clean and the staff was very friendly and helpful.Probably wouldn't be my first choice for lodging, but during a race weekend at the Texas Motor Speedway you take what you can get. I would stay here again if my other choices were booked.</t>
   </si>
   <si>
+    <t>steff486</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55732-d98786-r88945057-Studio_6_Denton_UNT-Denton_Texas.html</t>
   </si>
   <si>
@@ -1514,6 +1706,9 @@
     <t>November 2010</t>
   </si>
   <si>
+    <t>texasshopr</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55732-d98786-r58061787-Studio_6_Denton_UNT-Denton_Texas.html</t>
   </si>
   <si>
@@ -1532,6 +1727,9 @@
     <t>March 2010</t>
   </si>
   <si>
+    <t>blossom2214</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55732-d98786-r33661783-Studio_6_Denton_UNT-Denton_Texas.html</t>
   </si>
   <si>
@@ -1548,6 +1746,9 @@
   </si>
   <si>
     <t>May 2009</t>
+  </si>
+  <si>
+    <t>castslow</t>
   </si>
   <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55732-d98786-r5521959-Studio_6_Denton_UNT-Denton_Texas.html</t>
@@ -2070,43 +2271,47 @@
       <c r="A2" t="n">
         <v>5203</v>
       </c>
-      <c r="B2" t="s"/>
-      <c r="C2" t="s"/>
+      <c r="B2" t="n">
+        <v>289</v>
+      </c>
+      <c r="C2" t="s">
+        <v>44</v>
+      </c>
       <c r="D2" t="n">
         <v>1</v>
       </c>
       <c r="E2" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F2" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="G2" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H2" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I2" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="J2" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="K2" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="L2" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="M2" t="n">
         <v>1</v>
       </c>
       <c r="N2" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="O2" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P2" t="s"/>
       <c r="Q2" t="s"/>
@@ -2118,56 +2323,60 @@
         <v>0</v>
       </c>
       <c r="W2" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="X2" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="Y2" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="n">
         <v>5203</v>
       </c>
-      <c r="B3" t="s"/>
-      <c r="C3" t="s"/>
+      <c r="B3" t="n">
+        <v>178207</v>
+      </c>
+      <c r="C3" t="s">
+        <v>58</v>
+      </c>
       <c r="D3" t="n">
         <v>2</v>
       </c>
       <c r="E3" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F3" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="G3" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H3" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I3" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="J3" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="K3" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="L3" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="M3" t="n">
         <v>1</v>
       </c>
       <c r="N3" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="O3" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="P3" t="s"/>
       <c r="Q3" t="n">
@@ -2185,56 +2394,60 @@
         <v>0</v>
       </c>
       <c r="W3" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="X3" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="Y3" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="n">
         <v>5203</v>
       </c>
-      <c r="B4" t="s"/>
-      <c r="C4" t="s"/>
+      <c r="B4" t="n">
+        <v>60407</v>
+      </c>
+      <c r="C4" t="s">
+        <v>69</v>
+      </c>
       <c r="D4" t="n">
         <v>3</v>
       </c>
       <c r="E4" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F4" t="s">
-        <v>67</v>
+        <v>70</v>
       </c>
       <c r="G4" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H4" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I4" t="s">
-        <v>68</v>
+        <v>71</v>
       </c>
       <c r="J4" t="s">
-        <v>69</v>
+        <v>72</v>
       </c>
       <c r="K4" t="s">
-        <v>70</v>
+        <v>73</v>
       </c>
       <c r="L4" t="s">
-        <v>71</v>
+        <v>74</v>
       </c>
       <c r="M4" t="n">
         <v>4</v>
       </c>
       <c r="N4" t="s">
-        <v>72</v>
+        <v>75</v>
       </c>
       <c r="O4" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="P4" t="s"/>
       <c r="Q4" t="s"/>
@@ -2248,50 +2461,54 @@
       <c r="W4" t="s"/>
       <c r="X4" t="s"/>
       <c r="Y4" t="s">
-        <v>71</v>
+        <v>74</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="n">
         <v>5203</v>
       </c>
-      <c r="B5" t="s"/>
-      <c r="C5" t="s"/>
+      <c r="B5" t="n">
+        <v>2466</v>
+      </c>
+      <c r="C5" t="s">
+        <v>76</v>
+      </c>
       <c r="D5" t="n">
         <v>4</v>
       </c>
       <c r="E5" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F5" t="s">
-        <v>73</v>
+        <v>77</v>
       </c>
       <c r="G5" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H5" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I5" t="s">
-        <v>74</v>
+        <v>78</v>
       </c>
       <c r="J5" t="s">
-        <v>75</v>
+        <v>79</v>
       </c>
       <c r="K5" t="s">
-        <v>76</v>
+        <v>80</v>
       </c>
       <c r="L5" t="s">
-        <v>77</v>
+        <v>81</v>
       </c>
       <c r="M5" t="n">
         <v>1</v>
       </c>
       <c r="N5" t="s">
-        <v>78</v>
+        <v>82</v>
       </c>
       <c r="O5" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="P5" t="s"/>
       <c r="Q5" t="s"/>
@@ -2305,50 +2522,54 @@
       <c r="W5" t="s"/>
       <c r="X5" t="s"/>
       <c r="Y5" t="s">
-        <v>77</v>
+        <v>81</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="n">
         <v>5203</v>
       </c>
-      <c r="B6" t="s"/>
-      <c r="C6" t="s"/>
+      <c r="B6" t="n">
+        <v>178208</v>
+      </c>
+      <c r="C6" t="s">
+        <v>83</v>
+      </c>
       <c r="D6" t="n">
         <v>5</v>
       </c>
       <c r="E6" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F6" t="s">
-        <v>79</v>
+        <v>84</v>
       </c>
       <c r="G6" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H6" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I6" t="s">
-        <v>80</v>
+        <v>85</v>
       </c>
       <c r="J6" t="s">
-        <v>81</v>
+        <v>86</v>
       </c>
       <c r="K6" t="s">
-        <v>82</v>
+        <v>87</v>
       </c>
       <c r="L6" t="s">
-        <v>83</v>
+        <v>88</v>
       </c>
       <c r="M6" t="n">
         <v>1</v>
       </c>
       <c r="N6" t="s">
-        <v>84</v>
+        <v>89</v>
       </c>
       <c r="O6" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="P6" t="n">
         <v>1</v>
@@ -2366,50 +2587,54 @@
       <c r="W6" t="s"/>
       <c r="X6" t="s"/>
       <c r="Y6" t="s">
-        <v>85</v>
+        <v>90</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="n">
         <v>5203</v>
       </c>
-      <c r="B7" t="s"/>
-      <c r="C7" t="s"/>
+      <c r="B7" t="n">
+        <v>178209</v>
+      </c>
+      <c r="C7" t="s">
+        <v>91</v>
+      </c>
       <c r="D7" t="n">
         <v>6</v>
       </c>
       <c r="E7" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F7" t="s">
-        <v>86</v>
+        <v>92</v>
       </c>
       <c r="G7" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H7" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I7" t="s">
-        <v>87</v>
+        <v>93</v>
       </c>
       <c r="J7" t="s">
-        <v>88</v>
+        <v>94</v>
       </c>
       <c r="K7" t="s">
-        <v>89</v>
+        <v>95</v>
       </c>
       <c r="L7" t="s">
-        <v>90</v>
+        <v>96</v>
       </c>
       <c r="M7" t="n">
         <v>2</v>
       </c>
       <c r="N7" t="s">
-        <v>91</v>
+        <v>97</v>
       </c>
       <c r="O7" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="P7" t="s"/>
       <c r="Q7" t="s"/>
@@ -2425,56 +2650,60 @@
         <v>0</v>
       </c>
       <c r="W7" t="s">
-        <v>92</v>
+        <v>98</v>
       </c>
       <c r="X7" t="s">
-        <v>93</v>
+        <v>99</v>
       </c>
       <c r="Y7" t="s">
-        <v>94</v>
+        <v>100</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="n">
         <v>5203</v>
       </c>
-      <c r="B8" t="s"/>
-      <c r="C8" t="s"/>
+      <c r="B8" t="n">
+        <v>178210</v>
+      </c>
+      <c r="C8" t="s">
+        <v>101</v>
+      </c>
       <c r="D8" t="n">
         <v>7</v>
       </c>
       <c r="E8" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F8" t="s">
-        <v>95</v>
+        <v>102</v>
       </c>
       <c r="G8" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H8" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I8" t="s">
-        <v>96</v>
+        <v>103</v>
       </c>
       <c r="J8" t="s">
-        <v>97</v>
+        <v>104</v>
       </c>
       <c r="K8" t="s">
-        <v>98</v>
+        <v>105</v>
       </c>
       <c r="L8" t="s">
-        <v>99</v>
+        <v>106</v>
       </c>
       <c r="M8" t="n">
         <v>4</v>
       </c>
       <c r="N8" t="s">
-        <v>100</v>
+        <v>107</v>
       </c>
       <c r="O8" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="P8" t="s"/>
       <c r="Q8" t="s"/>
@@ -2492,50 +2721,54 @@
       <c r="W8" t="s"/>
       <c r="X8" t="s"/>
       <c r="Y8" t="s">
-        <v>101</v>
+        <v>108</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="n">
         <v>5203</v>
       </c>
-      <c r="B9" t="s"/>
-      <c r="C9" t="s"/>
+      <c r="B9" t="n">
+        <v>178211</v>
+      </c>
+      <c r="C9" t="s">
+        <v>109</v>
+      </c>
       <c r="D9" t="n">
         <v>8</v>
       </c>
       <c r="E9" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F9" t="s">
-        <v>102</v>
+        <v>110</v>
       </c>
       <c r="G9" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H9" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I9" t="s">
-        <v>103</v>
+        <v>111</v>
       </c>
       <c r="J9" t="s">
-        <v>104</v>
+        <v>112</v>
       </c>
       <c r="K9" t="s">
-        <v>105</v>
+        <v>113</v>
       </c>
       <c r="L9" t="s">
-        <v>106</v>
+        <v>114</v>
       </c>
       <c r="M9" t="n">
         <v>4</v>
       </c>
       <c r="N9" t="s">
-        <v>100</v>
+        <v>107</v>
       </c>
       <c r="O9" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P9" t="s"/>
       <c r="Q9" t="n">
@@ -2555,50 +2788,54 @@
       <c r="W9" t="s"/>
       <c r="X9" t="s"/>
       <c r="Y9" t="s">
-        <v>106</v>
+        <v>114</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="n">
         <v>5203</v>
       </c>
-      <c r="B10" t="s"/>
-      <c r="C10" t="s"/>
+      <c r="B10" t="n">
+        <v>178212</v>
+      </c>
+      <c r="C10" t="s">
+        <v>115</v>
+      </c>
       <c r="D10" t="n">
         <v>9</v>
       </c>
       <c r="E10" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F10" t="s">
+        <v>116</v>
+      </c>
+      <c r="G10" t="s">
+        <v>47</v>
+      </c>
+      <c r="H10" t="s">
+        <v>48</v>
+      </c>
+      <c r="I10" t="s">
+        <v>117</v>
+      </c>
+      <c r="J10" t="s">
+        <v>118</v>
+      </c>
+      <c r="K10" t="s">
+        <v>119</v>
+      </c>
+      <c r="L10" t="s">
+        <v>120</v>
+      </c>
+      <c r="M10" t="n">
+        <v>5</v>
+      </c>
+      <c r="N10" t="s">
         <v>107</v>
       </c>
-      <c r="G10" t="s">
-        <v>46</v>
-      </c>
-      <c r="H10" t="s">
-        <v>47</v>
-      </c>
-      <c r="I10" t="s">
-        <v>108</v>
-      </c>
-      <c r="J10" t="s">
-        <v>109</v>
-      </c>
-      <c r="K10" t="s">
-        <v>110</v>
-      </c>
-      <c r="L10" t="s">
-        <v>111</v>
-      </c>
-      <c r="M10" t="n">
-        <v>5</v>
-      </c>
-      <c r="N10" t="s">
-        <v>100</v>
-      </c>
       <c r="O10" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P10" t="s"/>
       <c r="Q10" t="s"/>
@@ -2616,50 +2853,54 @@
       <c r="W10" t="s"/>
       <c r="X10" t="s"/>
       <c r="Y10" t="s">
-        <v>111</v>
+        <v>120</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="n">
         <v>5203</v>
       </c>
-      <c r="B11" t="s"/>
-      <c r="C11" t="s"/>
+      <c r="B11" t="n">
+        <v>178213</v>
+      </c>
+      <c r="C11" t="s">
+        <v>121</v>
+      </c>
       <c r="D11" t="n">
         <v>10</v>
       </c>
       <c r="E11" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F11" t="s">
-        <v>112</v>
+        <v>122</v>
       </c>
       <c r="G11" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H11" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I11" t="s">
-        <v>113</v>
+        <v>123</v>
       </c>
       <c r="J11" t="s">
-        <v>114</v>
+        <v>124</v>
       </c>
       <c r="K11" t="s">
-        <v>115</v>
+        <v>125</v>
       </c>
       <c r="L11" t="s">
-        <v>116</v>
+        <v>126</v>
       </c>
       <c r="M11" t="n">
         <v>5</v>
       </c>
       <c r="N11" t="s">
-        <v>117</v>
+        <v>127</v>
       </c>
       <c r="O11" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="P11" t="s"/>
       <c r="Q11" t="n">
@@ -2679,50 +2920,54 @@
       <c r="W11" t="s"/>
       <c r="X11" t="s"/>
       <c r="Y11" t="s">
-        <v>116</v>
+        <v>126</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="n">
         <v>5203</v>
       </c>
-      <c r="B12" t="s"/>
-      <c r="C12" t="s"/>
+      <c r="B12" t="n">
+        <v>57694</v>
+      </c>
+      <c r="C12" t="s">
+        <v>128</v>
+      </c>
       <c r="D12" t="n">
         <v>11</v>
       </c>
       <c r="E12" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F12" t="s">
-        <v>118</v>
+        <v>129</v>
       </c>
       <c r="G12" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H12" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I12" t="s">
-        <v>119</v>
+        <v>130</v>
       </c>
       <c r="J12" t="s">
-        <v>120</v>
+        <v>131</v>
       </c>
       <c r="K12" t="s">
-        <v>121</v>
+        <v>132</v>
       </c>
       <c r="L12" t="s">
-        <v>122</v>
+        <v>133</v>
       </c>
       <c r="M12" t="n">
         <v>2</v>
       </c>
       <c r="N12" t="s">
-        <v>123</v>
+        <v>134</v>
       </c>
       <c r="O12" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="P12" t="s"/>
       <c r="Q12" t="s"/>
@@ -2736,50 +2981,54 @@
       <c r="W12" t="s"/>
       <c r="X12" t="s"/>
       <c r="Y12" t="s">
-        <v>122</v>
+        <v>133</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="n">
         <v>5203</v>
       </c>
-      <c r="B13" t="s"/>
-      <c r="C13" t="s"/>
+      <c r="B13" t="n">
+        <v>3670</v>
+      </c>
+      <c r="C13" t="s">
+        <v>135</v>
+      </c>
       <c r="D13" t="n">
         <v>12</v>
       </c>
       <c r="E13" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F13" t="s">
-        <v>124</v>
+        <v>136</v>
       </c>
       <c r="G13" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H13" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I13" t="s">
-        <v>125</v>
+        <v>137</v>
       </c>
       <c r="J13" t="s">
-        <v>126</v>
+        <v>138</v>
       </c>
       <c r="K13" t="s">
-        <v>127</v>
+        <v>139</v>
       </c>
       <c r="L13" t="s">
-        <v>128</v>
+        <v>140</v>
       </c>
       <c r="M13" t="n">
         <v>1</v>
       </c>
       <c r="N13" t="s">
-        <v>117</v>
+        <v>127</v>
       </c>
       <c r="O13" t="s">
-        <v>129</v>
+        <v>141</v>
       </c>
       <c r="P13" t="s"/>
       <c r="Q13" t="n">
@@ -2795,56 +3044,60 @@
         <v>0</v>
       </c>
       <c r="W13" t="s">
-        <v>130</v>
+        <v>142</v>
       </c>
       <c r="X13" t="s">
-        <v>131</v>
+        <v>143</v>
       </c>
       <c r="Y13" t="s">
-        <v>132</v>
+        <v>144</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="n">
         <v>5203</v>
       </c>
-      <c r="B14" t="s"/>
-      <c r="C14" t="s"/>
+      <c r="B14" t="n">
+        <v>178214</v>
+      </c>
+      <c r="C14" t="s">
+        <v>145</v>
+      </c>
       <c r="D14" t="n">
         <v>13</v>
       </c>
       <c r="E14" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F14" t="s">
-        <v>133</v>
+        <v>146</v>
       </c>
       <c r="G14" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H14" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I14" t="s">
-        <v>134</v>
+        <v>147</v>
       </c>
       <c r="J14" t="s">
-        <v>135</v>
+        <v>148</v>
       </c>
       <c r="K14" t="s">
-        <v>136</v>
+        <v>149</v>
       </c>
       <c r="L14" t="s">
-        <v>137</v>
+        <v>150</v>
       </c>
       <c r="M14" t="n">
         <v>5</v>
       </c>
       <c r="N14" t="s">
-        <v>138</v>
+        <v>151</v>
       </c>
       <c r="O14" t="s">
-        <v>139</v>
+        <v>152</v>
       </c>
       <c r="P14" t="s"/>
       <c r="Q14" t="s"/>
@@ -2856,56 +3109,60 @@
         <v>0</v>
       </c>
       <c r="W14" t="s">
-        <v>140</v>
+        <v>153</v>
       </c>
       <c r="X14" t="s">
-        <v>141</v>
+        <v>154</v>
       </c>
       <c r="Y14" t="s">
-        <v>142</v>
+        <v>155</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="n">
         <v>5203</v>
       </c>
-      <c r="B15" t="s"/>
-      <c r="C15" t="s"/>
+      <c r="B15" t="n">
+        <v>2588</v>
+      </c>
+      <c r="C15" t="s">
+        <v>156</v>
+      </c>
       <c r="D15" t="n">
         <v>14</v>
       </c>
       <c r="E15" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F15" t="s">
-        <v>143</v>
+        <v>157</v>
       </c>
       <c r="G15" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H15" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I15" t="s">
-        <v>144</v>
+        <v>158</v>
       </c>
       <c r="J15" t="s">
-        <v>145</v>
+        <v>159</v>
       </c>
       <c r="K15" t="s">
-        <v>146</v>
+        <v>160</v>
       </c>
       <c r="L15" t="s">
-        <v>147</v>
+        <v>161</v>
       </c>
       <c r="M15" t="n">
         <v>5</v>
       </c>
       <c r="N15" t="s">
-        <v>148</v>
+        <v>162</v>
       </c>
       <c r="O15" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="P15" t="n">
         <v>5</v>
@@ -2923,56 +3180,60 @@
         <v>0</v>
       </c>
       <c r="W15" t="s">
-        <v>140</v>
+        <v>153</v>
       </c>
       <c r="X15" t="s">
-        <v>141</v>
+        <v>154</v>
       </c>
       <c r="Y15" t="s">
-        <v>149</v>
+        <v>163</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="n">
         <v>5203</v>
       </c>
-      <c r="B16" t="s"/>
-      <c r="C16" t="s"/>
+      <c r="B16" t="n">
+        <v>178215</v>
+      </c>
+      <c r="C16" t="s">
+        <v>164</v>
+      </c>
       <c r="D16" t="n">
         <v>15</v>
       </c>
       <c r="E16" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F16" t="s">
-        <v>150</v>
+        <v>165</v>
       </c>
       <c r="G16" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H16" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I16" t="s">
-        <v>151</v>
+        <v>166</v>
       </c>
       <c r="J16" t="s">
-        <v>152</v>
+        <v>167</v>
       </c>
       <c r="K16" t="s">
-        <v>153</v>
+        <v>168</v>
       </c>
       <c r="L16" t="s">
-        <v>154</v>
+        <v>169</v>
       </c>
       <c r="M16" t="n">
         <v>1</v>
       </c>
       <c r="N16" t="s">
-        <v>155</v>
+        <v>170</v>
       </c>
       <c r="O16" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="P16" t="s"/>
       <c r="Q16" t="s"/>
@@ -2990,56 +3251,60 @@
         <v>0</v>
       </c>
       <c r="W16" t="s">
-        <v>156</v>
+        <v>171</v>
       </c>
       <c r="X16" t="s">
-        <v>157</v>
+        <v>172</v>
       </c>
       <c r="Y16" t="s">
-        <v>158</v>
+        <v>173</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="n">
         <v>5203</v>
       </c>
-      <c r="B17" t="s"/>
-      <c r="C17" t="s"/>
+      <c r="B17" t="n">
+        <v>178216</v>
+      </c>
+      <c r="C17" t="s">
+        <v>174</v>
+      </c>
       <c r="D17" t="n">
         <v>16</v>
       </c>
       <c r="E17" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F17" t="s">
-        <v>159</v>
+        <v>175</v>
       </c>
       <c r="G17" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H17" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I17" t="s">
-        <v>160</v>
+        <v>176</v>
       </c>
       <c r="J17" t="s">
-        <v>161</v>
+        <v>177</v>
       </c>
       <c r="K17" t="s">
-        <v>162</v>
+        <v>178</v>
       </c>
       <c r="L17" t="s">
-        <v>163</v>
+        <v>179</v>
       </c>
       <c r="M17" t="n">
         <v>3</v>
       </c>
       <c r="N17" t="s">
-        <v>164</v>
+        <v>180</v>
       </c>
       <c r="O17" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P17" t="s"/>
       <c r="Q17" t="s"/>
@@ -3055,47 +3320,51 @@
         <v>0</v>
       </c>
       <c r="W17" t="s">
-        <v>165</v>
+        <v>181</v>
       </c>
       <c r="X17" t="s">
-        <v>166</v>
+        <v>182</v>
       </c>
       <c r="Y17" t="s">
-        <v>167</v>
+        <v>183</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="n">
         <v>5203</v>
       </c>
-      <c r="B18" t="s"/>
-      <c r="C18" t="s"/>
+      <c r="B18" t="n">
+        <v>178217</v>
+      </c>
+      <c r="C18" t="s">
+        <v>184</v>
+      </c>
       <c r="D18" t="n">
         <v>17</v>
       </c>
       <c r="E18" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F18" t="s">
-        <v>168</v>
+        <v>185</v>
       </c>
       <c r="G18" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H18" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I18" t="s">
-        <v>169</v>
+        <v>186</v>
       </c>
       <c r="J18" t="s">
-        <v>170</v>
+        <v>187</v>
       </c>
       <c r="K18" t="s">
-        <v>171</v>
+        <v>188</v>
       </c>
       <c r="L18" t="s">
-        <v>172</v>
+        <v>189</v>
       </c>
       <c r="M18" t="n">
         <v>5</v>
@@ -3122,56 +3391,60 @@
         <v>0</v>
       </c>
       <c r="W18" t="s">
-        <v>173</v>
+        <v>190</v>
       </c>
       <c r="X18" t="s">
-        <v>174</v>
+        <v>191</v>
       </c>
       <c r="Y18" t="s">
-        <v>175</v>
+        <v>192</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="n">
         <v>5203</v>
       </c>
-      <c r="B19" t="s"/>
-      <c r="C19" t="s"/>
+      <c r="B19" t="n">
+        <v>31432</v>
+      </c>
+      <c r="C19" t="s">
+        <v>193</v>
+      </c>
       <c r="D19" t="n">
         <v>18</v>
       </c>
       <c r="E19" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F19" t="s">
-        <v>176</v>
+        <v>194</v>
       </c>
       <c r="G19" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H19" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I19" t="s">
-        <v>177</v>
+        <v>195</v>
       </c>
       <c r="J19" t="s">
-        <v>178</v>
+        <v>196</v>
       </c>
       <c r="K19" t="s">
-        <v>179</v>
+        <v>197</v>
       </c>
       <c r="L19" t="s">
-        <v>180</v>
+        <v>198</v>
       </c>
       <c r="M19" t="n">
         <v>5</v>
       </c>
       <c r="N19" t="s">
-        <v>181</v>
+        <v>199</v>
       </c>
       <c r="O19" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="P19" t="s"/>
       <c r="Q19" t="n">
@@ -3189,56 +3462,60 @@
         <v>0</v>
       </c>
       <c r="W19" t="s">
-        <v>182</v>
+        <v>200</v>
       </c>
       <c r="X19" t="s">
-        <v>183</v>
+        <v>201</v>
       </c>
       <c r="Y19" t="s">
-        <v>184</v>
+        <v>202</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="n">
         <v>5203</v>
       </c>
-      <c r="B20" t="s"/>
-      <c r="C20" t="s"/>
+      <c r="B20" t="n">
+        <v>17054</v>
+      </c>
+      <c r="C20" t="s">
+        <v>203</v>
+      </c>
       <c r="D20" t="n">
         <v>19</v>
       </c>
       <c r="E20" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F20" t="s">
-        <v>185</v>
+        <v>204</v>
       </c>
       <c r="G20" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H20" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I20" t="s">
-        <v>186</v>
+        <v>205</v>
       </c>
       <c r="J20" t="s">
-        <v>187</v>
+        <v>206</v>
       </c>
       <c r="K20" t="s">
-        <v>188</v>
+        <v>207</v>
       </c>
       <c r="L20" t="s">
-        <v>189</v>
+        <v>208</v>
       </c>
       <c r="M20" t="n">
         <v>1</v>
       </c>
       <c r="N20" t="s">
-        <v>190</v>
+        <v>209</v>
       </c>
       <c r="O20" t="s">
-        <v>139</v>
+        <v>152</v>
       </c>
       <c r="P20" t="s"/>
       <c r="Q20" t="s"/>
@@ -3250,56 +3527,60 @@
         <v>0</v>
       </c>
       <c r="W20" t="s">
-        <v>191</v>
+        <v>210</v>
       </c>
       <c r="X20" t="s">
-        <v>192</v>
+        <v>211</v>
       </c>
       <c r="Y20" t="s">
-        <v>193</v>
+        <v>212</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="n">
         <v>5203</v>
       </c>
-      <c r="B21" t="s"/>
-      <c r="C21" t="s"/>
+      <c r="B21" t="n">
+        <v>5292</v>
+      </c>
+      <c r="C21" t="s">
+        <v>213</v>
+      </c>
       <c r="D21" t="n">
         <v>20</v>
       </c>
       <c r="E21" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F21" t="s">
-        <v>194</v>
+        <v>214</v>
       </c>
       <c r="G21" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H21" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I21" t="s">
-        <v>195</v>
+        <v>215</v>
       </c>
       <c r="J21" t="s">
-        <v>196</v>
+        <v>216</v>
       </c>
       <c r="K21" t="s">
-        <v>197</v>
+        <v>217</v>
       </c>
       <c r="L21" t="s">
-        <v>198</v>
+        <v>218</v>
       </c>
       <c r="M21" t="n">
         <v>1</v>
       </c>
       <c r="N21" t="s">
-        <v>190</v>
+        <v>209</v>
       </c>
       <c r="O21" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="P21" t="n">
         <v>2</v>
@@ -3321,56 +3602,60 @@
         <v>0</v>
       </c>
       <c r="W21" t="s">
-        <v>199</v>
+        <v>219</v>
       </c>
       <c r="X21" t="s">
-        <v>200</v>
+        <v>220</v>
       </c>
       <c r="Y21" t="s">
-        <v>201</v>
+        <v>221</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="n">
         <v>5203</v>
       </c>
-      <c r="B22" t="s"/>
-      <c r="C22" t="s"/>
+      <c r="B22" t="n">
+        <v>178218</v>
+      </c>
+      <c r="C22" t="s">
+        <v>222</v>
+      </c>
       <c r="D22" t="n">
         <v>21</v>
       </c>
       <c r="E22" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F22" t="s">
-        <v>202</v>
+        <v>223</v>
       </c>
       <c r="G22" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H22" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I22" t="s">
-        <v>203</v>
+        <v>224</v>
       </c>
       <c r="J22" t="s">
-        <v>204</v>
+        <v>225</v>
       </c>
       <c r="K22" t="s">
-        <v>205</v>
+        <v>226</v>
       </c>
       <c r="L22" t="s">
-        <v>206</v>
+        <v>227</v>
       </c>
       <c r="M22" t="n">
         <v>3</v>
       </c>
       <c r="N22" t="s">
-        <v>190</v>
+        <v>209</v>
       </c>
       <c r="O22" t="s">
-        <v>129</v>
+        <v>141</v>
       </c>
       <c r="P22" t="n">
         <v>3</v>
@@ -3392,56 +3677,60 @@
         <v>0</v>
       </c>
       <c r="W22" t="s">
-        <v>207</v>
+        <v>228</v>
       </c>
       <c r="X22" t="s">
-        <v>208</v>
+        <v>229</v>
       </c>
       <c r="Y22" t="s">
-        <v>209</v>
+        <v>230</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="n">
         <v>5203</v>
       </c>
-      <c r="B23" t="s"/>
-      <c r="C23" t="s"/>
+      <c r="B23" t="n">
+        <v>47972</v>
+      </c>
+      <c r="C23" t="s">
+        <v>231</v>
+      </c>
       <c r="D23" t="n">
         <v>22</v>
       </c>
       <c r="E23" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F23" t="s">
-        <v>210</v>
+        <v>232</v>
       </c>
       <c r="G23" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H23" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I23" t="s">
-        <v>211</v>
+        <v>233</v>
       </c>
       <c r="J23" t="s">
-        <v>212</v>
+        <v>234</v>
       </c>
       <c r="K23" t="s">
-        <v>213</v>
+        <v>235</v>
       </c>
       <c r="L23" t="s">
-        <v>214</v>
+        <v>236</v>
       </c>
       <c r="M23" t="n">
         <v>1</v>
       </c>
       <c r="N23" t="s">
-        <v>190</v>
+        <v>209</v>
       </c>
       <c r="O23" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="P23" t="n">
         <v>1</v>
@@ -3463,56 +3752,60 @@
         <v>0</v>
       </c>
       <c r="W23" t="s">
-        <v>207</v>
+        <v>228</v>
       </c>
       <c r="X23" t="s">
-        <v>208</v>
+        <v>229</v>
       </c>
       <c r="Y23" t="s">
-        <v>215</v>
+        <v>237</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="n">
         <v>5203</v>
       </c>
-      <c r="B24" t="s"/>
-      <c r="C24" t="s"/>
+      <c r="B24" t="n">
+        <v>178219</v>
+      </c>
+      <c r="C24" t="s">
+        <v>238</v>
+      </c>
       <c r="D24" t="n">
         <v>23</v>
       </c>
       <c r="E24" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F24" t="s">
-        <v>216</v>
+        <v>239</v>
       </c>
       <c r="G24" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H24" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I24" t="s">
-        <v>217</v>
+        <v>240</v>
       </c>
       <c r="J24" t="s">
-        <v>218</v>
+        <v>241</v>
       </c>
       <c r="K24" t="s">
-        <v>219</v>
+        <v>242</v>
       </c>
       <c r="L24" t="s">
-        <v>220</v>
+        <v>243</v>
       </c>
       <c r="M24" t="n">
         <v>2</v>
       </c>
       <c r="N24" t="s">
-        <v>221</v>
+        <v>244</v>
       </c>
       <c r="O24" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="P24" t="n">
         <v>2</v>
@@ -3534,56 +3827,60 @@
         <v>0</v>
       </c>
       <c r="W24" t="s">
-        <v>222</v>
+        <v>245</v>
       </c>
       <c r="X24" t="s">
-        <v>223</v>
+        <v>246</v>
       </c>
       <c r="Y24" t="s">
-        <v>224</v>
+        <v>247</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="n">
         <v>5203</v>
       </c>
-      <c r="B25" t="s"/>
-      <c r="C25" t="s"/>
+      <c r="B25" t="n">
+        <v>117438</v>
+      </c>
+      <c r="C25" t="s">
+        <v>248</v>
+      </c>
       <c r="D25" t="n">
         <v>24</v>
       </c>
       <c r="E25" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F25" t="s">
-        <v>225</v>
+        <v>249</v>
       </c>
       <c r="G25" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H25" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I25" t="s">
-        <v>226</v>
+        <v>250</v>
       </c>
       <c r="J25" t="s">
-        <v>227</v>
+        <v>251</v>
       </c>
       <c r="K25" t="s">
-        <v>228</v>
+        <v>252</v>
       </c>
       <c r="L25" t="s">
-        <v>229</v>
+        <v>253</v>
       </c>
       <c r="M25" t="n">
         <v>5</v>
       </c>
       <c r="N25" t="s">
-        <v>230</v>
+        <v>254</v>
       </c>
       <c r="O25" t="s">
-        <v>129</v>
+        <v>141</v>
       </c>
       <c r="P25" t="s"/>
       <c r="Q25" t="s"/>
@@ -3595,56 +3892,60 @@
         <v>0</v>
       </c>
       <c r="W25" t="s">
-        <v>222</v>
+        <v>245</v>
       </c>
       <c r="X25" t="s">
-        <v>223</v>
+        <v>246</v>
       </c>
       <c r="Y25" t="s">
-        <v>231</v>
+        <v>255</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="n">
         <v>5203</v>
       </c>
-      <c r="B26" t="s"/>
-      <c r="C26" t="s"/>
+      <c r="B26" t="n">
+        <v>178220</v>
+      </c>
+      <c r="C26" t="s">
+        <v>256</v>
+      </c>
       <c r="D26" t="n">
         <v>25</v>
       </c>
       <c r="E26" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F26" t="s">
-        <v>232</v>
+        <v>257</v>
       </c>
       <c r="G26" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H26" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I26" t="s">
-        <v>233</v>
+        <v>258</v>
       </c>
       <c r="J26" t="s">
-        <v>234</v>
+        <v>259</v>
       </c>
       <c r="K26" t="s">
-        <v>235</v>
+        <v>260</v>
       </c>
       <c r="L26" t="s">
-        <v>236</v>
+        <v>261</v>
       </c>
       <c r="M26" t="n">
         <v>5</v>
       </c>
       <c r="N26" t="s">
-        <v>221</v>
+        <v>244</v>
       </c>
       <c r="O26" t="s">
-        <v>139</v>
+        <v>152</v>
       </c>
       <c r="P26" t="s"/>
       <c r="Q26" t="s"/>
@@ -3656,56 +3957,60 @@
         <v>0</v>
       </c>
       <c r="W26" t="s">
-        <v>237</v>
+        <v>262</v>
       </c>
       <c r="X26" t="s">
-        <v>238</v>
+        <v>263</v>
       </c>
       <c r="Y26" t="s">
-        <v>239</v>
+        <v>264</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="n">
         <v>5203</v>
       </c>
-      <c r="B27" t="s"/>
-      <c r="C27" t="s"/>
+      <c r="B27" t="n">
+        <v>178221</v>
+      </c>
+      <c r="C27" t="s">
+        <v>265</v>
+      </c>
       <c r="D27" t="n">
         <v>26</v>
       </c>
       <c r="E27" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F27" t="s">
-        <v>240</v>
+        <v>266</v>
       </c>
       <c r="G27" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H27" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I27" t="s">
-        <v>241</v>
+        <v>267</v>
       </c>
       <c r="J27" t="s">
-        <v>242</v>
+        <v>268</v>
       </c>
       <c r="K27" t="s">
-        <v>243</v>
+        <v>269</v>
       </c>
       <c r="L27" t="s">
+        <v>270</v>
+      </c>
+      <c r="M27" t="n">
+        <v>4</v>
+      </c>
+      <c r="N27" t="s">
         <v>244</v>
       </c>
-      <c r="M27" t="n">
-        <v>4</v>
-      </c>
-      <c r="N27" t="s">
-        <v>221</v>
-      </c>
       <c r="O27" t="s">
-        <v>139</v>
+        <v>152</v>
       </c>
       <c r="P27" t="n">
         <v>4</v>
@@ -3727,56 +4032,60 @@
         <v>0</v>
       </c>
       <c r="W27" t="s">
-        <v>237</v>
+        <v>262</v>
       </c>
       <c r="X27" t="s">
-        <v>238</v>
+        <v>263</v>
       </c>
       <c r="Y27" t="s">
-        <v>245</v>
+        <v>271</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="n">
         <v>5203</v>
       </c>
-      <c r="B28" t="s"/>
-      <c r="C28" t="s"/>
+      <c r="B28" t="n">
+        <v>10047</v>
+      </c>
+      <c r="C28" t="s">
+        <v>272</v>
+      </c>
       <c r="D28" t="n">
         <v>27</v>
       </c>
       <c r="E28" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F28" t="s">
-        <v>246</v>
+        <v>273</v>
       </c>
       <c r="G28" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H28" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I28" t="s">
-        <v>247</v>
+        <v>274</v>
       </c>
       <c r="J28" t="s">
-        <v>248</v>
+        <v>275</v>
       </c>
       <c r="K28" t="s">
-        <v>249</v>
+        <v>276</v>
       </c>
       <c r="L28" t="s">
-        <v>250</v>
+        <v>277</v>
       </c>
       <c r="M28" t="n">
         <v>1</v>
       </c>
       <c r="N28" t="s">
-        <v>251</v>
+        <v>278</v>
       </c>
       <c r="O28" t="s">
-        <v>129</v>
+        <v>141</v>
       </c>
       <c r="P28" t="n">
         <v>1</v>
@@ -3798,56 +4107,60 @@
         <v>0</v>
       </c>
       <c r="W28" t="s">
-        <v>252</v>
+        <v>279</v>
       </c>
       <c r="X28" t="s">
-        <v>253</v>
+        <v>280</v>
       </c>
       <c r="Y28" t="s">
-        <v>254</v>
+        <v>281</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="n">
         <v>5203</v>
       </c>
-      <c r="B29" t="s"/>
-      <c r="C29" t="s"/>
+      <c r="B29" t="n">
+        <v>178222</v>
+      </c>
+      <c r="C29" t="s">
+        <v>282</v>
+      </c>
       <c r="D29" t="n">
         <v>28</v>
       </c>
       <c r="E29" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F29" t="s">
-        <v>255</v>
+        <v>283</v>
       </c>
       <c r="G29" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H29" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I29" t="s">
-        <v>256</v>
+        <v>284</v>
       </c>
       <c r="J29" t="s">
-        <v>257</v>
+        <v>285</v>
       </c>
       <c r="K29" t="s">
-        <v>258</v>
+        <v>286</v>
       </c>
       <c r="L29" t="s">
-        <v>259</v>
+        <v>287</v>
       </c>
       <c r="M29" t="n">
         <v>4</v>
       </c>
       <c r="N29" t="s">
-        <v>260</v>
+        <v>288</v>
       </c>
       <c r="O29" t="s">
-        <v>129</v>
+        <v>141</v>
       </c>
       <c r="P29" t="n">
         <v>5</v>
@@ -3869,56 +4182,60 @@
         <v>0</v>
       </c>
       <c r="W29" t="s">
-        <v>261</v>
+        <v>289</v>
       </c>
       <c r="X29" t="s">
-        <v>262</v>
+        <v>290</v>
       </c>
       <c r="Y29" t="s">
-        <v>263</v>
+        <v>291</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="n">
         <v>5203</v>
       </c>
-      <c r="B30" t="s"/>
-      <c r="C30" t="s"/>
+      <c r="B30" t="n">
+        <v>178223</v>
+      </c>
+      <c r="C30" t="s">
+        <v>292</v>
+      </c>
       <c r="D30" t="n">
         <v>29</v>
       </c>
       <c r="E30" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F30" t="s">
-        <v>264</v>
+        <v>293</v>
       </c>
       <c r="G30" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H30" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I30" t="s">
-        <v>265</v>
+        <v>294</v>
       </c>
       <c r="J30" t="s">
-        <v>266</v>
+        <v>295</v>
       </c>
       <c r="K30" t="s">
-        <v>267</v>
+        <v>296</v>
       </c>
       <c r="L30" t="s">
-        <v>268</v>
+        <v>297</v>
       </c>
       <c r="M30" t="n">
         <v>1</v>
       </c>
       <c r="N30" t="s">
-        <v>269</v>
+        <v>298</v>
       </c>
       <c r="O30" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="P30" t="n">
         <v>1</v>
@@ -3940,56 +4257,60 @@
         <v>0</v>
       </c>
       <c r="W30" t="s">
-        <v>261</v>
+        <v>289</v>
       </c>
       <c r="X30" t="s">
-        <v>262</v>
+        <v>290</v>
       </c>
       <c r="Y30" t="s">
-        <v>270</v>
+        <v>299</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="n">
         <v>5203</v>
       </c>
-      <c r="B31" t="s"/>
-      <c r="C31" t="s"/>
+      <c r="B31" t="n">
+        <v>178224</v>
+      </c>
+      <c r="C31" t="s">
+        <v>300</v>
+      </c>
       <c r="D31" t="n">
         <v>30</v>
       </c>
       <c r="E31" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F31" t="s">
-        <v>271</v>
+        <v>301</v>
       </c>
       <c r="G31" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H31" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I31" t="s">
-        <v>272</v>
+        <v>302</v>
       </c>
       <c r="J31" t="s">
-        <v>273</v>
+        <v>303</v>
       </c>
       <c r="K31" t="s">
-        <v>274</v>
+        <v>304</v>
       </c>
       <c r="L31" t="s">
-        <v>275</v>
+        <v>305</v>
       </c>
       <c r="M31" t="n">
         <v>5</v>
       </c>
       <c r="N31" t="s">
-        <v>269</v>
+        <v>298</v>
       </c>
       <c r="O31" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="P31" t="n">
         <v>5</v>
@@ -4011,56 +4332,60 @@
         <v>0</v>
       </c>
       <c r="W31" t="s">
-        <v>261</v>
+        <v>289</v>
       </c>
       <c r="X31" t="s">
-        <v>262</v>
+        <v>290</v>
       </c>
       <c r="Y31" t="s">
-        <v>276</v>
+        <v>306</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="n">
         <v>5203</v>
       </c>
-      <c r="B32" t="s"/>
-      <c r="C32" t="s"/>
+      <c r="B32" t="n">
+        <v>7</v>
+      </c>
+      <c r="C32" t="s">
+        <v>307</v>
+      </c>
       <c r="D32" t="n">
         <v>31</v>
       </c>
       <c r="E32" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F32" t="s">
-        <v>277</v>
+        <v>308</v>
       </c>
       <c r="G32" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H32" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I32" t="s">
-        <v>278</v>
+        <v>309</v>
       </c>
       <c r="J32" t="s">
-        <v>279</v>
+        <v>310</v>
       </c>
       <c r="K32" t="s">
-        <v>280</v>
+        <v>311</v>
       </c>
       <c r="L32" t="s">
-        <v>281</v>
+        <v>312</v>
       </c>
       <c r="M32" t="n">
         <v>5</v>
       </c>
       <c r="N32" t="s">
-        <v>282</v>
+        <v>313</v>
       </c>
       <c r="O32" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="P32" t="n">
         <v>5</v>
@@ -4084,50 +4409,54 @@
       <c r="W32" t="s"/>
       <c r="X32" t="s"/>
       <c r="Y32" t="s">
-        <v>281</v>
+        <v>312</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="n">
         <v>5203</v>
       </c>
-      <c r="B33" t="s"/>
-      <c r="C33" t="s"/>
+      <c r="B33" t="n">
+        <v>178225</v>
+      </c>
+      <c r="C33" t="s">
+        <v>314</v>
+      </c>
       <c r="D33" t="n">
         <v>32</v>
       </c>
       <c r="E33" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F33" t="s">
-        <v>283</v>
+        <v>315</v>
       </c>
       <c r="G33" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H33" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I33" t="s">
-        <v>284</v>
+        <v>316</v>
       </c>
       <c r="J33" t="s">
-        <v>279</v>
+        <v>310</v>
       </c>
       <c r="K33" t="s">
-        <v>285</v>
+        <v>317</v>
       </c>
       <c r="L33" t="s">
-        <v>286</v>
+        <v>318</v>
       </c>
       <c r="M33" t="n">
         <v>4</v>
       </c>
       <c r="N33" t="s">
-        <v>282</v>
+        <v>313</v>
       </c>
       <c r="O33" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="P33" t="n">
         <v>5</v>
@@ -4151,50 +4480,54 @@
       <c r="W33" t="s"/>
       <c r="X33" t="s"/>
       <c r="Y33" t="s">
-        <v>286</v>
+        <v>318</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="n">
         <v>5203</v>
       </c>
-      <c r="B34" t="s"/>
-      <c r="C34" t="s"/>
+      <c r="B34" t="n">
+        <v>178226</v>
+      </c>
+      <c r="C34" t="s">
+        <v>319</v>
+      </c>
       <c r="D34" t="n">
         <v>33</v>
       </c>
       <c r="E34" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F34" t="s">
-        <v>287</v>
+        <v>320</v>
       </c>
       <c r="G34" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H34" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I34" t="s">
-        <v>288</v>
+        <v>321</v>
       </c>
       <c r="J34" t="s">
-        <v>289</v>
+        <v>322</v>
       </c>
       <c r="K34" t="s">
-        <v>290</v>
+        <v>323</v>
       </c>
       <c r="L34" t="s">
-        <v>291</v>
+        <v>324</v>
       </c>
       <c r="M34" t="n">
         <v>1</v>
       </c>
       <c r="N34" t="s">
-        <v>282</v>
+        <v>313</v>
       </c>
       <c r="O34" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="P34" t="n">
         <v>2</v>
@@ -4218,50 +4551,54 @@
       <c r="W34" t="s"/>
       <c r="X34" t="s"/>
       <c r="Y34" t="s">
-        <v>292</v>
+        <v>325</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="n">
         <v>5203</v>
       </c>
-      <c r="B35" t="s"/>
-      <c r="C35" t="s"/>
+      <c r="B35" t="n">
+        <v>178227</v>
+      </c>
+      <c r="C35" t="s">
+        <v>326</v>
+      </c>
       <c r="D35" t="n">
         <v>34</v>
       </c>
       <c r="E35" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F35" t="s">
-        <v>293</v>
+        <v>327</v>
       </c>
       <c r="G35" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H35" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I35" t="s">
-        <v>294</v>
+        <v>328</v>
       </c>
       <c r="J35" t="s">
-        <v>295</v>
+        <v>329</v>
       </c>
       <c r="K35" t="s">
-        <v>296</v>
+        <v>330</v>
       </c>
       <c r="L35" t="s">
-        <v>297</v>
+        <v>331</v>
       </c>
       <c r="M35" t="n">
         <v>3</v>
       </c>
       <c r="N35" t="s">
-        <v>298</v>
+        <v>332</v>
       </c>
       <c r="O35" t="s">
-        <v>299</v>
+        <v>333</v>
       </c>
       <c r="P35" t="n">
         <v>3</v>
@@ -4285,50 +4622,54 @@
       <c r="W35" t="s"/>
       <c r="X35" t="s"/>
       <c r="Y35" t="s">
-        <v>300</v>
+        <v>334</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="n">
         <v>5203</v>
       </c>
-      <c r="B36" t="s"/>
-      <c r="C36" t="s"/>
+      <c r="B36" t="n">
+        <v>166481</v>
+      </c>
+      <c r="C36" t="s">
+        <v>335</v>
+      </c>
       <c r="D36" t="n">
         <v>35</v>
       </c>
       <c r="E36" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F36" t="s">
-        <v>301</v>
+        <v>336</v>
       </c>
       <c r="G36" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H36" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I36" t="s">
-        <v>302</v>
+        <v>337</v>
       </c>
       <c r="J36" t="s">
-        <v>303</v>
+        <v>338</v>
       </c>
       <c r="K36" t="s">
-        <v>304</v>
+        <v>339</v>
       </c>
       <c r="L36" t="s">
-        <v>305</v>
+        <v>340</v>
       </c>
       <c r="M36" t="n">
         <v>5</v>
       </c>
       <c r="N36" t="s">
-        <v>298</v>
+        <v>332</v>
       </c>
       <c r="O36" t="s">
-        <v>299</v>
+        <v>333</v>
       </c>
       <c r="P36" t="n">
         <v>4</v>
@@ -4352,35 +4693,39 @@
       <c r="W36" t="s"/>
       <c r="X36" t="s"/>
       <c r="Y36" t="s">
-        <v>305</v>
+        <v>340</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="n">
         <v>5203</v>
       </c>
-      <c r="B37" t="s"/>
-      <c r="C37" t="s"/>
+      <c r="B37" t="n">
+        <v>70551</v>
+      </c>
+      <c r="C37" t="s">
+        <v>341</v>
+      </c>
       <c r="D37" t="n">
         <v>36</v>
       </c>
       <c r="E37" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F37" t="s">
-        <v>306</v>
+        <v>342</v>
       </c>
       <c r="G37" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H37" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I37" t="s">
-        <v>307</v>
+        <v>343</v>
       </c>
       <c r="J37" t="s">
-        <v>308</v>
+        <v>344</v>
       </c>
       <c r="K37" t="s"/>
       <c r="L37" t="s"/>
@@ -4388,10 +4733,10 @@
         <v>5</v>
       </c>
       <c r="N37" t="s">
-        <v>309</v>
+        <v>345</v>
       </c>
       <c r="O37" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P37" t="n">
         <v>5</v>
@@ -4412,36 +4757,37 @@
       <c r="V37" t="n">
         <v>0</v>
       </c>
-      <c r="W37" t="s"/>
-      <c r="X37" t="s"/>
-      <c r="Y37" t="s"/>
     </row>
     <row r="38">
       <c r="A38" t="n">
         <v>5203</v>
       </c>
-      <c r="B38" t="s"/>
-      <c r="C38" t="s"/>
+      <c r="B38" t="n">
+        <v>2273</v>
+      </c>
+      <c r="C38" t="s">
+        <v>346</v>
+      </c>
       <c r="D38" t="n">
         <v>37</v>
       </c>
       <c r="E38" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F38" t="s">
-        <v>310</v>
+        <v>347</v>
       </c>
       <c r="G38" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H38" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I38" t="s">
-        <v>311</v>
+        <v>348</v>
       </c>
       <c r="J38" t="s">
-        <v>312</v>
+        <v>349</v>
       </c>
       <c r="K38" t="s"/>
       <c r="L38" t="s"/>
@@ -4449,10 +4795,10 @@
         <v>5</v>
       </c>
       <c r="N38" t="s">
-        <v>309</v>
+        <v>345</v>
       </c>
       <c r="O38" t="s">
-        <v>129</v>
+        <v>141</v>
       </c>
       <c r="P38" t="n">
         <v>4</v>
@@ -4473,51 +4819,52 @@
       <c r="V38" t="n">
         <v>0</v>
       </c>
-      <c r="W38" t="s"/>
-      <c r="X38" t="s"/>
-      <c r="Y38" t="s"/>
     </row>
     <row r="39">
       <c r="A39" t="n">
         <v>5203</v>
       </c>
-      <c r="B39" t="s"/>
-      <c r="C39" t="s"/>
+      <c r="B39" t="n">
+        <v>178228</v>
+      </c>
+      <c r="C39" t="s">
+        <v>350</v>
+      </c>
       <c r="D39" t="n">
         <v>38</v>
       </c>
       <c r="E39" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F39" t="s">
-        <v>313</v>
+        <v>351</v>
       </c>
       <c r="G39" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H39" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I39" t="s">
-        <v>314</v>
+        <v>352</v>
       </c>
       <c r="J39" t="s">
-        <v>315</v>
+        <v>353</v>
       </c>
       <c r="K39" t="s">
-        <v>316</v>
+        <v>354</v>
       </c>
       <c r="L39" t="s">
-        <v>317</v>
+        <v>355</v>
       </c>
       <c r="M39" t="n">
         <v>5</v>
       </c>
       <c r="N39" t="s">
-        <v>309</v>
+        <v>345</v>
       </c>
       <c r="O39" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="P39" t="n">
         <v>5</v>
@@ -4541,50 +4888,54 @@
       <c r="W39" t="s"/>
       <c r="X39" t="s"/>
       <c r="Y39" t="s">
-        <v>317</v>
+        <v>355</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="n">
         <v>5203</v>
       </c>
-      <c r="B40" t="s"/>
-      <c r="C40" t="s"/>
+      <c r="B40" t="n">
+        <v>178229</v>
+      </c>
+      <c r="C40" t="s">
+        <v>356</v>
+      </c>
       <c r="D40" t="n">
         <v>39</v>
       </c>
       <c r="E40" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F40" t="s">
-        <v>318</v>
+        <v>357</v>
       </c>
       <c r="G40" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H40" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I40" t="s">
-        <v>319</v>
+        <v>358</v>
       </c>
       <c r="J40" t="s">
-        <v>320</v>
+        <v>359</v>
       </c>
       <c r="K40" t="s">
-        <v>321</v>
+        <v>360</v>
       </c>
       <c r="L40" t="s">
-        <v>322</v>
+        <v>361</v>
       </c>
       <c r="M40" t="n">
         <v>4</v>
       </c>
       <c r="N40" t="s">
-        <v>309</v>
+        <v>345</v>
       </c>
       <c r="O40" t="s">
-        <v>129</v>
+        <v>141</v>
       </c>
       <c r="P40" t="n">
         <v>4</v>
@@ -4606,50 +4957,54 @@
       <c r="W40" t="s"/>
       <c r="X40" t="s"/>
       <c r="Y40" t="s">
-        <v>323</v>
+        <v>362</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="n">
         <v>5203</v>
       </c>
-      <c r="B41" t="s"/>
-      <c r="C41" t="s"/>
+      <c r="B41" t="n">
+        <v>178230</v>
+      </c>
+      <c r="C41" t="s">
+        <v>363</v>
+      </c>
       <c r="D41" t="n">
         <v>40</v>
       </c>
       <c r="E41" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F41" t="s">
-        <v>324</v>
+        <v>364</v>
       </c>
       <c r="G41" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H41" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I41" t="s">
-        <v>325</v>
+        <v>365</v>
       </c>
       <c r="J41" t="s">
-        <v>326</v>
+        <v>366</v>
       </c>
       <c r="K41" t="s">
-        <v>327</v>
+        <v>367</v>
       </c>
       <c r="L41" t="s">
-        <v>328</v>
+        <v>368</v>
       </c>
       <c r="M41" t="n">
         <v>2</v>
       </c>
       <c r="N41" t="s">
-        <v>329</v>
+        <v>369</v>
       </c>
       <c r="O41" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P41" t="n">
         <v>3</v>
@@ -4673,48 +5028,52 @@
       <c r="W41" t="s"/>
       <c r="X41" t="s"/>
       <c r="Y41" t="s">
-        <v>330</v>
+        <v>370</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="n">
         <v>5203</v>
       </c>
-      <c r="B42" t="s"/>
-      <c r="C42" t="s"/>
+      <c r="B42" t="n">
+        <v>70551</v>
+      </c>
+      <c r="C42" t="s">
+        <v>341</v>
+      </c>
       <c r="D42" t="n">
         <v>41</v>
       </c>
       <c r="E42" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F42" t="s">
-        <v>331</v>
+        <v>371</v>
       </c>
       <c r="G42" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H42" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I42" t="s">
-        <v>332</v>
+        <v>372</v>
       </c>
       <c r="J42" t="s">
-        <v>333</v>
+        <v>373</v>
       </c>
       <c r="K42" t="s"/>
       <c r="L42" t="s">
-        <v>334</v>
+        <v>374</v>
       </c>
       <c r="M42" t="n">
         <v>4</v>
       </c>
       <c r="N42" t="s">
-        <v>335</v>
+        <v>375</v>
       </c>
       <c r="O42" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="P42" t="n">
         <v>5</v>
@@ -4738,50 +5097,54 @@
       <c r="W42" t="s"/>
       <c r="X42" t="s"/>
       <c r="Y42" t="s">
-        <v>336</v>
+        <v>376</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="n">
         <v>5203</v>
       </c>
-      <c r="B43" t="s"/>
-      <c r="C43" t="s"/>
+      <c r="B43" t="n">
+        <v>178231</v>
+      </c>
+      <c r="C43" t="s">
+        <v>377</v>
+      </c>
       <c r="D43" t="n">
         <v>42</v>
       </c>
       <c r="E43" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F43" t="s">
-        <v>337</v>
+        <v>378</v>
       </c>
       <c r="G43" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H43" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I43" t="s">
-        <v>338</v>
+        <v>379</v>
       </c>
       <c r="J43" t="s">
-        <v>339</v>
+        <v>380</v>
       </c>
       <c r="K43" t="s">
-        <v>340</v>
+        <v>381</v>
       </c>
       <c r="L43" t="s">
-        <v>341</v>
+        <v>382</v>
       </c>
       <c r="M43" t="n">
         <v>5</v>
       </c>
       <c r="N43" t="s">
-        <v>342</v>
+        <v>383</v>
       </c>
       <c r="O43" t="s">
-        <v>299</v>
+        <v>333</v>
       </c>
       <c r="P43" t="n">
         <v>5</v>
@@ -4805,35 +5168,39 @@
       <c r="W43" t="s"/>
       <c r="X43" t="s"/>
       <c r="Y43" t="s">
-        <v>341</v>
+        <v>382</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="n">
         <v>5203</v>
       </c>
-      <c r="B44" t="s"/>
-      <c r="C44" t="s"/>
+      <c r="B44" t="n">
+        <v>34268</v>
+      </c>
+      <c r="C44" t="s">
+        <v>384</v>
+      </c>
       <c r="D44" t="n">
         <v>43</v>
       </c>
       <c r="E44" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F44" t="s">
-        <v>343</v>
+        <v>385</v>
       </c>
       <c r="G44" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H44" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I44" t="s">
-        <v>344</v>
+        <v>386</v>
       </c>
       <c r="J44" t="s">
-        <v>345</v>
+        <v>387</v>
       </c>
       <c r="K44" t="s"/>
       <c r="L44" t="s"/>
@@ -4841,10 +5208,10 @@
         <v>5</v>
       </c>
       <c r="N44" t="s">
-        <v>346</v>
+        <v>388</v>
       </c>
       <c r="O44" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="P44" t="n">
         <v>5</v>
@@ -4865,51 +5232,52 @@
       <c r="V44" t="n">
         <v>0</v>
       </c>
-      <c r="W44" t="s"/>
-      <c r="X44" t="s"/>
-      <c r="Y44" t="s"/>
     </row>
     <row r="45">
       <c r="A45" t="n">
         <v>5203</v>
       </c>
-      <c r="B45" t="s"/>
-      <c r="C45" t="s"/>
+      <c r="B45" t="n">
+        <v>178232</v>
+      </c>
+      <c r="C45" t="s">
+        <v>389</v>
+      </c>
       <c r="D45" t="n">
         <v>44</v>
       </c>
       <c r="E45" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F45" t="s">
-        <v>347</v>
+        <v>390</v>
       </c>
       <c r="G45" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H45" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I45" t="s">
-        <v>348</v>
+        <v>391</v>
       </c>
       <c r="J45" t="s">
-        <v>349</v>
+        <v>392</v>
       </c>
       <c r="K45" t="s">
-        <v>350</v>
+        <v>393</v>
       </c>
       <c r="L45" t="s">
-        <v>351</v>
+        <v>394</v>
       </c>
       <c r="M45" t="n">
         <v>5</v>
       </c>
       <c r="N45" t="s">
-        <v>352</v>
+        <v>395</v>
       </c>
       <c r="O45" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="P45" t="n">
         <v>5</v>
@@ -4933,50 +5301,54 @@
       <c r="W45" t="s"/>
       <c r="X45" t="s"/>
       <c r="Y45" t="s">
-        <v>351</v>
+        <v>394</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="n">
         <v>5203</v>
       </c>
-      <c r="B46" t="s"/>
-      <c r="C46" t="s"/>
+      <c r="B46" t="n">
+        <v>7</v>
+      </c>
+      <c r="C46" t="s">
+        <v>307</v>
+      </c>
       <c r="D46" t="n">
         <v>45</v>
       </c>
       <c r="E46" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F46" t="s">
-        <v>353</v>
+        <v>396</v>
       </c>
       <c r="G46" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H46" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I46" t="s">
-        <v>354</v>
+        <v>397</v>
       </c>
       <c r="J46" t="s">
-        <v>355</v>
+        <v>398</v>
       </c>
       <c r="K46" t="s">
-        <v>356</v>
+        <v>399</v>
       </c>
       <c r="L46" t="s">
-        <v>357</v>
+        <v>400</v>
       </c>
       <c r="M46" t="n">
         <v>5</v>
       </c>
       <c r="N46" t="s">
-        <v>352</v>
+        <v>395</v>
       </c>
       <c r="O46" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="P46" t="n">
         <v>5</v>
@@ -5000,35 +5372,39 @@
       <c r="W46" t="s"/>
       <c r="X46" t="s"/>
       <c r="Y46" t="s">
-        <v>357</v>
+        <v>400</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="n">
         <v>5203</v>
       </c>
-      <c r="B47" t="s"/>
-      <c r="C47" t="s"/>
+      <c r="B47" t="n">
+        <v>178233</v>
+      </c>
+      <c r="C47" t="s">
+        <v>401</v>
+      </c>
       <c r="D47" t="n">
         <v>46</v>
       </c>
       <c r="E47" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F47" t="s">
-        <v>358</v>
+        <v>402</v>
       </c>
       <c r="G47" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H47" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I47" t="s">
-        <v>359</v>
+        <v>403</v>
       </c>
       <c r="J47" t="s">
-        <v>360</v>
+        <v>404</v>
       </c>
       <c r="K47" t="s"/>
       <c r="L47" t="s"/>
@@ -5036,10 +5412,10 @@
         <v>5</v>
       </c>
       <c r="N47" t="s">
-        <v>361</v>
+        <v>405</v>
       </c>
       <c r="O47" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="P47" t="n">
         <v>5</v>
@@ -5060,51 +5436,52 @@
       <c r="V47" t="n">
         <v>0</v>
       </c>
-      <c r="W47" t="s"/>
-      <c r="X47" t="s"/>
-      <c r="Y47" t="s"/>
     </row>
     <row r="48">
       <c r="A48" t="n">
         <v>5203</v>
       </c>
-      <c r="B48" t="s"/>
-      <c r="C48" t="s"/>
+      <c r="B48" t="n">
+        <v>178234</v>
+      </c>
+      <c r="C48" t="s">
+        <v>406</v>
+      </c>
       <c r="D48" t="n">
         <v>47</v>
       </c>
       <c r="E48" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F48" t="s">
-        <v>362</v>
+        <v>407</v>
       </c>
       <c r="G48" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H48" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I48" t="s">
-        <v>363</v>
+        <v>408</v>
       </c>
       <c r="J48" t="s">
-        <v>364</v>
+        <v>409</v>
       </c>
       <c r="K48" t="s">
-        <v>365</v>
+        <v>410</v>
       </c>
       <c r="L48" t="s">
-        <v>366</v>
+        <v>411</v>
       </c>
       <c r="M48" t="n">
         <v>4</v>
       </c>
       <c r="N48" t="s">
-        <v>367</v>
+        <v>412</v>
       </c>
       <c r="O48" t="s">
-        <v>129</v>
+        <v>141</v>
       </c>
       <c r="P48" t="n">
         <v>4</v>
@@ -5128,50 +5505,54 @@
       <c r="W48" t="s"/>
       <c r="X48" t="s"/>
       <c r="Y48" t="s">
-        <v>366</v>
+        <v>411</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="n">
         <v>5203</v>
       </c>
-      <c r="B49" t="s"/>
-      <c r="C49" t="s"/>
+      <c r="B49" t="n">
+        <v>178209</v>
+      </c>
+      <c r="C49" t="s">
+        <v>101</v>
+      </c>
       <c r="D49" t="n">
         <v>48</v>
       </c>
       <c r="E49" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F49" t="s">
-        <v>368</v>
+        <v>413</v>
       </c>
       <c r="G49" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H49" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I49" t="s">
-        <v>369</v>
+        <v>414</v>
       </c>
       <c r="J49" t="s">
-        <v>370</v>
+        <v>415</v>
       </c>
       <c r="K49" t="s">
-        <v>371</v>
+        <v>416</v>
       </c>
       <c r="L49" t="s">
-        <v>372</v>
+        <v>417</v>
       </c>
       <c r="M49" t="n">
         <v>4</v>
       </c>
       <c r="N49" t="s">
-        <v>373</v>
+        <v>418</v>
       </c>
       <c r="O49" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="P49" t="n">
         <v>5</v>
@@ -5195,50 +5576,54 @@
       <c r="W49" t="s"/>
       <c r="X49" t="s"/>
       <c r="Y49" t="s">
-        <v>374</v>
+        <v>419</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" t="n">
         <v>5203</v>
       </c>
-      <c r="B50" t="s"/>
-      <c r="C50" t="s"/>
+      <c r="B50" t="n">
+        <v>7</v>
+      </c>
+      <c r="C50" t="s">
+        <v>307</v>
+      </c>
       <c r="D50" t="n">
         <v>49</v>
       </c>
       <c r="E50" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F50" t="s">
-        <v>375</v>
+        <v>420</v>
       </c>
       <c r="G50" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H50" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I50" t="s">
-        <v>376</v>
+        <v>421</v>
       </c>
       <c r="J50" t="s">
-        <v>377</v>
+        <v>422</v>
       </c>
       <c r="K50" t="s">
-        <v>378</v>
+        <v>423</v>
       </c>
       <c r="L50" t="s">
-        <v>379</v>
+        <v>424</v>
       </c>
       <c r="M50" t="n">
         <v>5</v>
       </c>
       <c r="N50" t="s">
-        <v>380</v>
+        <v>425</v>
       </c>
       <c r="O50" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="P50" t="n">
         <v>5</v>
@@ -5262,50 +5647,54 @@
       <c r="W50" t="s"/>
       <c r="X50" t="s"/>
       <c r="Y50" t="s">
-        <v>379</v>
+        <v>424</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" t="n">
         <v>5203</v>
       </c>
-      <c r="B51" t="s"/>
-      <c r="C51" t="s"/>
+      <c r="B51" t="n">
+        <v>136946</v>
+      </c>
+      <c r="C51" t="s">
+        <v>426</v>
+      </c>
       <c r="D51" t="n">
         <v>50</v>
       </c>
       <c r="E51" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F51" t="s">
-        <v>381</v>
+        <v>427</v>
       </c>
       <c r="G51" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H51" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I51" t="s">
-        <v>382</v>
+        <v>428</v>
       </c>
       <c r="J51" t="s">
-        <v>383</v>
+        <v>429</v>
       </c>
       <c r="K51" t="s">
-        <v>384</v>
+        <v>430</v>
       </c>
       <c r="L51" t="s">
-        <v>385</v>
+        <v>431</v>
       </c>
       <c r="M51" t="n">
         <v>5</v>
       </c>
       <c r="N51" t="s">
-        <v>380</v>
+        <v>425</v>
       </c>
       <c r="O51" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P51" t="n">
         <v>5</v>
@@ -5329,41 +5718,45 @@
       <c r="W51" t="s"/>
       <c r="X51" t="s"/>
       <c r="Y51" t="s">
-        <v>386</v>
+        <v>432</v>
       </c>
     </row>
     <row r="52">
       <c r="A52" t="n">
         <v>5203</v>
       </c>
-      <c r="B52" t="s"/>
-      <c r="C52" t="s"/>
+      <c r="B52" t="n">
+        <v>178235</v>
+      </c>
+      <c r="C52" t="s">
+        <v>433</v>
+      </c>
       <c r="D52" t="n">
         <v>51</v>
       </c>
       <c r="E52" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F52" t="s">
-        <v>387</v>
+        <v>434</v>
       </c>
       <c r="G52" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H52" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I52" t="s">
-        <v>388</v>
+        <v>435</v>
       </c>
       <c r="J52" t="s">
-        <v>389</v>
+        <v>436</v>
       </c>
       <c r="K52" t="s">
-        <v>390</v>
+        <v>437</v>
       </c>
       <c r="L52" t="s">
-        <v>391</v>
+        <v>438</v>
       </c>
       <c r="M52" t="n">
         <v>2</v>
@@ -5392,50 +5785,54 @@
       <c r="W52" t="s"/>
       <c r="X52" t="s"/>
       <c r="Y52" t="s">
-        <v>392</v>
+        <v>439</v>
       </c>
     </row>
     <row r="53">
       <c r="A53" t="n">
         <v>5203</v>
       </c>
-      <c r="B53" t="s"/>
-      <c r="C53" t="s"/>
+      <c r="B53" t="n">
+        <v>7</v>
+      </c>
+      <c r="C53" t="s">
+        <v>307</v>
+      </c>
       <c r="D53" t="n">
         <v>52</v>
       </c>
       <c r="E53" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F53" t="s">
-        <v>393</v>
+        <v>440</v>
       </c>
       <c r="G53" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H53" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I53" t="s">
-        <v>394</v>
+        <v>441</v>
       </c>
       <c r="J53" t="s">
-        <v>395</v>
+        <v>442</v>
       </c>
       <c r="K53" t="s">
-        <v>396</v>
+        <v>443</v>
       </c>
       <c r="L53" t="s">
-        <v>397</v>
+        <v>444</v>
       </c>
       <c r="M53" t="n">
         <v>4</v>
       </c>
       <c r="N53" t="s">
-        <v>398</v>
+        <v>445</v>
       </c>
       <c r="O53" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="P53" t="n">
         <v>5</v>
@@ -5459,35 +5856,39 @@
       <c r="W53" t="s"/>
       <c r="X53" t="s"/>
       <c r="Y53" t="s">
-        <v>397</v>
+        <v>444</v>
       </c>
     </row>
     <row r="54">
       <c r="A54" t="n">
         <v>5203</v>
       </c>
-      <c r="B54" t="s"/>
-      <c r="C54" t="s"/>
+      <c r="B54" t="n">
+        <v>178236</v>
+      </c>
+      <c r="C54" t="s">
+        <v>446</v>
+      </c>
       <c r="D54" t="n">
         <v>53</v>
       </c>
       <c r="E54" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F54" t="s">
-        <v>399</v>
+        <v>447</v>
       </c>
       <c r="G54" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H54" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I54" t="s">
-        <v>400</v>
+        <v>448</v>
       </c>
       <c r="J54" t="s">
-        <v>401</v>
+        <v>449</v>
       </c>
       <c r="K54" t="s"/>
       <c r="L54" t="s"/>
@@ -5495,10 +5896,10 @@
         <v>4</v>
       </c>
       <c r="N54" t="s">
-        <v>398</v>
+        <v>445</v>
       </c>
       <c r="O54" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="P54" t="n">
         <v>5</v>
@@ -5519,36 +5920,37 @@
       <c r="V54" t="n">
         <v>0</v>
       </c>
-      <c r="W54" t="s"/>
-      <c r="X54" t="s"/>
-      <c r="Y54" t="s"/>
     </row>
     <row r="55">
       <c r="A55" t="n">
         <v>5203</v>
       </c>
-      <c r="B55" t="s"/>
-      <c r="C55" t="s"/>
+      <c r="B55" t="n">
+        <v>70551</v>
+      </c>
+      <c r="C55" t="s">
+        <v>341</v>
+      </c>
       <c r="D55" t="n">
         <v>54</v>
       </c>
       <c r="E55" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F55" t="s">
-        <v>402</v>
+        <v>450</v>
       </c>
       <c r="G55" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H55" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I55" t="s">
-        <v>403</v>
+        <v>451</v>
       </c>
       <c r="J55" t="s">
-        <v>404</v>
+        <v>452</v>
       </c>
       <c r="K55" t="s"/>
       <c r="L55" t="s"/>
@@ -5556,10 +5958,10 @@
         <v>5</v>
       </c>
       <c r="N55" t="s">
-        <v>398</v>
+        <v>445</v>
       </c>
       <c r="O55" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P55" t="n">
         <v>5</v>
@@ -5580,51 +5982,52 @@
       <c r="V55" t="n">
         <v>0</v>
       </c>
-      <c r="W55" t="s"/>
-      <c r="X55" t="s"/>
-      <c r="Y55" t="s"/>
     </row>
     <row r="56">
       <c r="A56" t="n">
         <v>5203</v>
       </c>
-      <c r="B56" t="s"/>
-      <c r="C56" t="s"/>
+      <c r="B56" t="n">
+        <v>178237</v>
+      </c>
+      <c r="C56" t="s">
+        <v>453</v>
+      </c>
       <c r="D56" t="n">
         <v>55</v>
       </c>
       <c r="E56" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F56" t="s">
-        <v>405</v>
+        <v>454</v>
       </c>
       <c r="G56" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H56" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I56" t="s">
-        <v>406</v>
+        <v>455</v>
       </c>
       <c r="J56" t="s">
-        <v>407</v>
+        <v>456</v>
       </c>
       <c r="K56" t="s">
-        <v>408</v>
+        <v>457</v>
       </c>
       <c r="L56" t="s">
-        <v>409</v>
+        <v>458</v>
       </c>
       <c r="M56" t="n">
         <v>2</v>
       </c>
       <c r="N56" t="s">
-        <v>410</v>
+        <v>459</v>
       </c>
       <c r="O56" t="s">
-        <v>139</v>
+        <v>152</v>
       </c>
       <c r="P56" t="s"/>
       <c r="Q56" t="n">
@@ -5644,50 +6047,54 @@
       <c r="W56" t="s"/>
       <c r="X56" t="s"/>
       <c r="Y56" t="s">
-        <v>409</v>
+        <v>458</v>
       </c>
     </row>
     <row r="57">
       <c r="A57" t="n">
         <v>5203</v>
       </c>
-      <c r="B57" t="s"/>
-      <c r="C57" t="s"/>
+      <c r="B57" t="n">
+        <v>178238</v>
+      </c>
+      <c r="C57" t="s">
+        <v>460</v>
+      </c>
       <c r="D57" t="n">
         <v>56</v>
       </c>
       <c r="E57" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F57" t="s">
-        <v>411</v>
+        <v>461</v>
       </c>
       <c r="G57" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H57" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I57" t="s">
-        <v>412</v>
+        <v>462</v>
       </c>
       <c r="J57" t="s">
-        <v>413</v>
+        <v>463</v>
       </c>
       <c r="K57" t="s">
-        <v>414</v>
+        <v>464</v>
       </c>
       <c r="L57" t="s">
-        <v>415</v>
+        <v>465</v>
       </c>
       <c r="M57" t="n">
         <v>3</v>
       </c>
       <c r="N57" t="s">
-        <v>410</v>
+        <v>459</v>
       </c>
       <c r="O57" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="P57" t="n">
         <v>5</v>
@@ -5711,50 +6118,54 @@
       <c r="W57" t="s"/>
       <c r="X57" t="s"/>
       <c r="Y57" t="s">
-        <v>415</v>
+        <v>465</v>
       </c>
     </row>
     <row r="58">
       <c r="A58" t="n">
         <v>5203</v>
       </c>
-      <c r="B58" t="s"/>
-      <c r="C58" t="s"/>
+      <c r="B58" t="n">
+        <v>178239</v>
+      </c>
+      <c r="C58" t="s">
+        <v>466</v>
+      </c>
       <c r="D58" t="n">
         <v>57</v>
       </c>
       <c r="E58" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F58" t="s">
-        <v>416</v>
+        <v>467</v>
       </c>
       <c r="G58" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H58" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I58" t="s">
-        <v>417</v>
+        <v>468</v>
       </c>
       <c r="J58" t="s">
-        <v>418</v>
+        <v>469</v>
       </c>
       <c r="K58" t="s">
-        <v>419</v>
+        <v>470</v>
       </c>
       <c r="L58" t="s">
-        <v>420</v>
+        <v>471</v>
       </c>
       <c r="M58" t="n">
         <v>4</v>
       </c>
       <c r="N58" t="s">
-        <v>421</v>
+        <v>472</v>
       </c>
       <c r="O58" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="P58" t="n">
         <v>5</v>
@@ -5778,50 +6189,54 @@
       <c r="W58" t="s"/>
       <c r="X58" t="s"/>
       <c r="Y58" t="s">
-        <v>420</v>
+        <v>471</v>
       </c>
     </row>
     <row r="59">
       <c r="A59" t="n">
         <v>5203</v>
       </c>
-      <c r="B59" t="s"/>
-      <c r="C59" t="s"/>
+      <c r="B59" t="n">
+        <v>178240</v>
+      </c>
+      <c r="C59" t="s">
+        <v>473</v>
+      </c>
       <c r="D59" t="n">
         <v>58</v>
       </c>
       <c r="E59" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F59" t="s">
-        <v>422</v>
+        <v>474</v>
       </c>
       <c r="G59" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H59" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I59" t="s">
-        <v>423</v>
+        <v>475</v>
       </c>
       <c r="J59" t="s">
-        <v>424</v>
+        <v>476</v>
       </c>
       <c r="K59" t="s">
-        <v>425</v>
+        <v>477</v>
       </c>
       <c r="L59" t="s">
-        <v>426</v>
+        <v>478</v>
       </c>
       <c r="M59" t="n">
         <v>5</v>
       </c>
       <c r="N59" t="s">
-        <v>427</v>
+        <v>479</v>
       </c>
       <c r="O59" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P59" t="n">
         <v>5</v>
@@ -5845,50 +6260,54 @@
       <c r="W59" t="s"/>
       <c r="X59" t="s"/>
       <c r="Y59" t="s">
-        <v>426</v>
+        <v>478</v>
       </c>
     </row>
     <row r="60">
       <c r="A60" t="n">
         <v>5203</v>
       </c>
-      <c r="B60" t="s"/>
-      <c r="C60" t="s"/>
+      <c r="B60" t="n">
+        <v>178241</v>
+      </c>
+      <c r="C60" t="s">
+        <v>480</v>
+      </c>
       <c r="D60" t="n">
         <v>59</v>
       </c>
       <c r="E60" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F60" t="s">
-        <v>428</v>
+        <v>481</v>
       </c>
       <c r="G60" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H60" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I60" t="s">
-        <v>429</v>
+        <v>482</v>
       </c>
       <c r="J60" t="s">
-        <v>430</v>
+        <v>483</v>
       </c>
       <c r="K60" t="s">
-        <v>431</v>
+        <v>484</v>
       </c>
       <c r="L60" t="s">
-        <v>432</v>
+        <v>485</v>
       </c>
       <c r="M60" t="n">
         <v>4</v>
       </c>
       <c r="N60" t="s">
-        <v>421</v>
+        <v>472</v>
       </c>
       <c r="O60" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="P60" t="n">
         <v>5</v>
@@ -5912,50 +6331,54 @@
       <c r="W60" t="s"/>
       <c r="X60" t="s"/>
       <c r="Y60" t="s">
-        <v>432</v>
+        <v>485</v>
       </c>
     </row>
     <row r="61">
       <c r="A61" t="n">
         <v>5203</v>
       </c>
-      <c r="B61" t="s"/>
-      <c r="C61" t="s"/>
+      <c r="B61" t="n">
+        <v>70722</v>
+      </c>
+      <c r="C61" t="s">
+        <v>486</v>
+      </c>
       <c r="D61" t="n">
         <v>60</v>
       </c>
       <c r="E61" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F61" t="s">
-        <v>433</v>
+        <v>487</v>
       </c>
       <c r="G61" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H61" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I61" t="s">
-        <v>434</v>
+        <v>488</v>
       </c>
       <c r="J61" t="s">
-        <v>435</v>
+        <v>489</v>
       </c>
       <c r="K61" t="s">
-        <v>436</v>
+        <v>490</v>
       </c>
       <c r="L61" t="s">
-        <v>437</v>
+        <v>491</v>
       </c>
       <c r="M61" t="n">
         <v>4</v>
       </c>
       <c r="N61" t="s">
-        <v>421</v>
+        <v>472</v>
       </c>
       <c r="O61" t="s">
-        <v>129</v>
+        <v>141</v>
       </c>
       <c r="P61" t="s"/>
       <c r="Q61" t="n">
@@ -5977,50 +6400,54 @@
       <c r="W61" t="s"/>
       <c r="X61" t="s"/>
       <c r="Y61" t="s">
-        <v>437</v>
+        <v>491</v>
       </c>
     </row>
     <row r="62">
       <c r="A62" t="n">
         <v>5203</v>
       </c>
-      <c r="B62" t="s"/>
-      <c r="C62" t="s"/>
+      <c r="B62" t="n">
+        <v>178242</v>
+      </c>
+      <c r="C62" t="s">
+        <v>492</v>
+      </c>
       <c r="D62" t="n">
         <v>61</v>
       </c>
       <c r="E62" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F62" t="s">
-        <v>438</v>
+        <v>493</v>
       </c>
       <c r="G62" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H62" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I62" t="s">
-        <v>439</v>
+        <v>494</v>
       </c>
       <c r="J62" t="s">
-        <v>440</v>
+        <v>495</v>
       </c>
       <c r="K62" t="s">
-        <v>441</v>
+        <v>496</v>
       </c>
       <c r="L62" t="s">
-        <v>442</v>
+        <v>497</v>
       </c>
       <c r="M62" t="n">
         <v>3</v>
       </c>
       <c r="N62" t="s">
-        <v>443</v>
+        <v>498</v>
       </c>
       <c r="O62" t="s">
-        <v>129</v>
+        <v>141</v>
       </c>
       <c r="P62" t="n">
         <v>4</v>
@@ -6044,41 +6471,45 @@
       <c r="W62" t="s"/>
       <c r="X62" t="s"/>
       <c r="Y62" t="s">
-        <v>442</v>
+        <v>497</v>
       </c>
     </row>
     <row r="63">
       <c r="A63" t="n">
         <v>5203</v>
       </c>
-      <c r="B63" t="s"/>
-      <c r="C63" t="s"/>
+      <c r="B63" t="n">
+        <v>178243</v>
+      </c>
+      <c r="C63" t="s">
+        <v>499</v>
+      </c>
       <c r="D63" t="n">
         <v>62</v>
       </c>
       <c r="E63" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F63" t="s">
-        <v>444</v>
+        <v>500</v>
       </c>
       <c r="G63" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H63" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I63" t="s">
-        <v>445</v>
+        <v>501</v>
       </c>
       <c r="J63" t="s">
-        <v>446</v>
+        <v>502</v>
       </c>
       <c r="K63" t="s">
-        <v>447</v>
+        <v>503</v>
       </c>
       <c r="L63" t="s">
-        <v>448</v>
+        <v>504</v>
       </c>
       <c r="M63" t="n">
         <v>2</v>
@@ -6107,50 +6538,54 @@
       <c r="W63" t="s"/>
       <c r="X63" t="s"/>
       <c r="Y63" t="s">
-        <v>448</v>
+        <v>504</v>
       </c>
     </row>
     <row r="64">
       <c r="A64" t="n">
         <v>5203</v>
       </c>
-      <c r="B64" t="s"/>
-      <c r="C64" t="s"/>
+      <c r="B64" t="n">
+        <v>178244</v>
+      </c>
+      <c r="C64" t="s">
+        <v>505</v>
+      </c>
       <c r="D64" t="n">
         <v>63</v>
       </c>
       <c r="E64" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F64" t="s">
-        <v>449</v>
+        <v>506</v>
       </c>
       <c r="G64" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H64" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I64" t="s">
-        <v>450</v>
+        <v>507</v>
       </c>
       <c r="J64" t="s">
-        <v>451</v>
+        <v>508</v>
       </c>
       <c r="K64" t="s">
-        <v>452</v>
+        <v>509</v>
       </c>
       <c r="L64" t="s">
-        <v>453</v>
+        <v>510</v>
       </c>
       <c r="M64" t="n">
         <v>4</v>
       </c>
       <c r="N64" t="s">
-        <v>454</v>
+        <v>511</v>
       </c>
       <c r="O64" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="P64" t="n">
         <v>5</v>
@@ -6172,50 +6607,54 @@
       <c r="W64" t="s"/>
       <c r="X64" t="s"/>
       <c r="Y64" t="s">
-        <v>453</v>
+        <v>510</v>
       </c>
     </row>
     <row r="65">
       <c r="A65" t="n">
         <v>5203</v>
       </c>
-      <c r="B65" t="s"/>
-      <c r="C65" t="s"/>
+      <c r="B65" t="n">
+        <v>178245</v>
+      </c>
+      <c r="C65" t="s">
+        <v>512</v>
+      </c>
       <c r="D65" t="n">
         <v>64</v>
       </c>
       <c r="E65" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F65" t="s">
-        <v>455</v>
+        <v>513</v>
       </c>
       <c r="G65" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H65" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I65" t="s">
-        <v>456</v>
+        <v>514</v>
       </c>
       <c r="J65" t="s">
-        <v>457</v>
+        <v>515</v>
       </c>
       <c r="K65" t="s">
-        <v>458</v>
+        <v>516</v>
       </c>
       <c r="L65" t="s">
-        <v>459</v>
+        <v>517</v>
       </c>
       <c r="M65" t="n">
         <v>3</v>
       </c>
       <c r="N65" t="s">
-        <v>460</v>
+        <v>518</v>
       </c>
       <c r="O65" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="P65" t="n">
         <v>3</v>
@@ -6235,50 +6674,54 @@
       <c r="W65" t="s"/>
       <c r="X65" t="s"/>
       <c r="Y65" t="s">
-        <v>459</v>
+        <v>517</v>
       </c>
     </row>
     <row r="66">
       <c r="A66" t="n">
         <v>5203</v>
       </c>
-      <c r="B66" t="s"/>
-      <c r="C66" t="s"/>
+      <c r="B66" t="n">
+        <v>178246</v>
+      </c>
+      <c r="C66" t="s">
+        <v>519</v>
+      </c>
       <c r="D66" t="n">
         <v>65</v>
       </c>
       <c r="E66" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F66" t="s">
-        <v>461</v>
+        <v>520</v>
       </c>
       <c r="G66" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H66" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I66" t="s">
-        <v>462</v>
+        <v>521</v>
       </c>
       <c r="J66" t="s">
-        <v>463</v>
+        <v>522</v>
       </c>
       <c r="K66" t="s">
-        <v>464</v>
+        <v>523</v>
       </c>
       <c r="L66" t="s">
-        <v>465</v>
+        <v>524</v>
       </c>
       <c r="M66" t="n">
         <v>1</v>
       </c>
       <c r="N66" t="s">
-        <v>460</v>
+        <v>518</v>
       </c>
       <c r="O66" t="s">
-        <v>299</v>
+        <v>333</v>
       </c>
       <c r="P66" t="n">
         <v>1</v>
@@ -6298,50 +6741,54 @@
       <c r="W66" t="s"/>
       <c r="X66" t="s"/>
       <c r="Y66" t="s">
-        <v>466</v>
+        <v>525</v>
       </c>
     </row>
     <row r="67">
       <c r="A67" t="n">
         <v>5203</v>
       </c>
-      <c r="B67" t="s"/>
-      <c r="C67" t="s"/>
+      <c r="B67" t="n">
+        <v>178247</v>
+      </c>
+      <c r="C67" t="s">
+        <v>526</v>
+      </c>
       <c r="D67" t="n">
         <v>66</v>
       </c>
       <c r="E67" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F67" t="s">
-        <v>467</v>
+        <v>527</v>
       </c>
       <c r="G67" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H67" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I67" t="s">
-        <v>468</v>
+        <v>528</v>
       </c>
       <c r="J67" t="s">
-        <v>469</v>
+        <v>529</v>
       </c>
       <c r="K67" t="s">
-        <v>470</v>
+        <v>530</v>
       </c>
       <c r="L67" t="s">
-        <v>471</v>
+        <v>531</v>
       </c>
       <c r="M67" t="n">
         <v>3</v>
       </c>
       <c r="N67" t="s">
-        <v>460</v>
+        <v>518</v>
       </c>
       <c r="O67" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P67" t="n">
         <v>3</v>
@@ -6361,50 +6808,54 @@
       <c r="W67" t="s"/>
       <c r="X67" t="s"/>
       <c r="Y67" t="s">
-        <v>472</v>
+        <v>532</v>
       </c>
     </row>
     <row r="68">
       <c r="A68" t="n">
         <v>5203</v>
       </c>
-      <c r="B68" t="s"/>
-      <c r="C68" t="s"/>
+      <c r="B68" t="n">
+        <v>178248</v>
+      </c>
+      <c r="C68" t="s">
+        <v>533</v>
+      </c>
       <c r="D68" t="n">
         <v>67</v>
       </c>
       <c r="E68" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F68" t="s">
-        <v>473</v>
+        <v>534</v>
       </c>
       <c r="G68" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H68" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I68" t="s">
-        <v>474</v>
+        <v>535</v>
       </c>
       <c r="J68" t="s">
-        <v>475</v>
+        <v>536</v>
       </c>
       <c r="K68" t="s">
-        <v>476</v>
+        <v>537</v>
       </c>
       <c r="L68" t="s">
-        <v>477</v>
+        <v>538</v>
       </c>
       <c r="M68" t="n">
         <v>3</v>
       </c>
       <c r="N68" t="s">
-        <v>478</v>
+        <v>539</v>
       </c>
       <c r="O68" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P68" t="n">
         <v>3</v>
@@ -6428,50 +6879,54 @@
       <c r="W68" t="s"/>
       <c r="X68" t="s"/>
       <c r="Y68" t="s">
-        <v>477</v>
+        <v>538</v>
       </c>
     </row>
     <row r="69">
       <c r="A69" t="n">
         <v>5203</v>
       </c>
-      <c r="B69" t="s"/>
-      <c r="C69" t="s"/>
+      <c r="B69" t="n">
+        <v>178249</v>
+      </c>
+      <c r="C69" t="s">
+        <v>540</v>
+      </c>
       <c r="D69" t="n">
         <v>68</v>
       </c>
       <c r="E69" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F69" t="s">
-        <v>479</v>
+        <v>541</v>
       </c>
       <c r="G69" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H69" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I69" t="s">
-        <v>480</v>
+        <v>542</v>
       </c>
       <c r="J69" t="s">
-        <v>481</v>
+        <v>543</v>
       </c>
       <c r="K69" t="s">
-        <v>482</v>
+        <v>544</v>
       </c>
       <c r="L69" t="s">
-        <v>483</v>
+        <v>545</v>
       </c>
       <c r="M69" t="n">
         <v>4</v>
       </c>
       <c r="N69" t="s">
-        <v>484</v>
+        <v>546</v>
       </c>
       <c r="O69" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="P69" t="n">
         <v>5</v>
@@ -6495,50 +6950,54 @@
       <c r="W69" t="s"/>
       <c r="X69" t="s"/>
       <c r="Y69" t="s">
-        <v>485</v>
+        <v>547</v>
       </c>
     </row>
     <row r="70">
       <c r="A70" t="n">
         <v>5203</v>
       </c>
-      <c r="B70" t="s"/>
-      <c r="C70" t="s"/>
+      <c r="B70" t="n">
+        <v>142289</v>
+      </c>
+      <c r="C70" t="s">
+        <v>548</v>
+      </c>
       <c r="D70" t="n">
         <v>69</v>
       </c>
       <c r="E70" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F70" t="s">
-        <v>486</v>
+        <v>549</v>
       </c>
       <c r="G70" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H70" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I70" t="s">
-        <v>487</v>
+        <v>550</v>
       </c>
       <c r="J70" t="s">
-        <v>481</v>
+        <v>543</v>
       </c>
       <c r="K70" t="s">
-        <v>488</v>
+        <v>551</v>
       </c>
       <c r="L70" t="s">
-        <v>489</v>
+        <v>552</v>
       </c>
       <c r="M70" t="n">
         <v>4</v>
       </c>
       <c r="N70" t="s">
-        <v>484</v>
+        <v>546</v>
       </c>
       <c r="O70" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="P70" t="n">
         <v>4</v>
@@ -6562,50 +7021,54 @@
       <c r="W70" t="s"/>
       <c r="X70" t="s"/>
       <c r="Y70" t="s">
-        <v>489</v>
+        <v>552</v>
       </c>
     </row>
     <row r="71">
       <c r="A71" t="n">
         <v>5203</v>
       </c>
-      <c r="B71" t="s"/>
-      <c r="C71" t="s"/>
+      <c r="B71" t="n">
+        <v>45377</v>
+      </c>
+      <c r="C71" t="s">
+        <v>553</v>
+      </c>
       <c r="D71" t="n">
         <v>70</v>
       </c>
       <c r="E71" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F71" t="s">
-        <v>490</v>
+        <v>554</v>
       </c>
       <c r="G71" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H71" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I71" t="s">
-        <v>491</v>
+        <v>555</v>
       </c>
       <c r="J71" t="s">
-        <v>492</v>
+        <v>556</v>
       </c>
       <c r="K71" t="s">
-        <v>493</v>
+        <v>557</v>
       </c>
       <c r="L71" t="s">
-        <v>494</v>
+        <v>558</v>
       </c>
       <c r="M71" t="n">
         <v>5</v>
       </c>
       <c r="N71" t="s">
-        <v>495</v>
+        <v>559</v>
       </c>
       <c r="O71" t="s">
-        <v>129</v>
+        <v>141</v>
       </c>
       <c r="P71" t="n">
         <v>4</v>
@@ -6629,50 +7092,54 @@
       <c r="W71" t="s"/>
       <c r="X71" t="s"/>
       <c r="Y71" t="s">
-        <v>494</v>
+        <v>558</v>
       </c>
     </row>
     <row r="72">
       <c r="A72" t="n">
         <v>5203</v>
       </c>
-      <c r="B72" t="s"/>
-      <c r="C72" t="s"/>
+      <c r="B72" t="n">
+        <v>125755</v>
+      </c>
+      <c r="C72" t="s">
+        <v>560</v>
+      </c>
       <c r="D72" t="n">
         <v>71</v>
       </c>
       <c r="E72" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F72" t="s">
-        <v>496</v>
+        <v>561</v>
       </c>
       <c r="G72" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H72" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I72" t="s">
-        <v>497</v>
+        <v>562</v>
       </c>
       <c r="J72" t="s">
-        <v>498</v>
+        <v>563</v>
       </c>
       <c r="K72" t="s">
-        <v>499</v>
+        <v>564</v>
       </c>
       <c r="L72" t="s">
-        <v>500</v>
+        <v>565</v>
       </c>
       <c r="M72" t="n">
         <v>5</v>
       </c>
       <c r="N72" t="s">
-        <v>501</v>
+        <v>566</v>
       </c>
       <c r="O72" t="s">
-        <v>299</v>
+        <v>333</v>
       </c>
       <c r="P72" t="n">
         <v>5</v>
@@ -6696,50 +7163,54 @@
       <c r="W72" t="s"/>
       <c r="X72" t="s"/>
       <c r="Y72" t="s">
-        <v>500</v>
+        <v>565</v>
       </c>
     </row>
     <row r="73">
       <c r="A73" t="n">
         <v>5203</v>
       </c>
-      <c r="B73" t="s"/>
-      <c r="C73" t="s"/>
+      <c r="B73" t="n">
+        <v>178250</v>
+      </c>
+      <c r="C73" t="s">
+        <v>567</v>
+      </c>
       <c r="D73" t="n">
         <v>72</v>
       </c>
       <c r="E73" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F73" t="s">
-        <v>502</v>
+        <v>568</v>
       </c>
       <c r="G73" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H73" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I73" t="s">
-        <v>503</v>
+        <v>569</v>
       </c>
       <c r="J73" t="s">
-        <v>504</v>
+        <v>570</v>
       </c>
       <c r="K73" t="s">
-        <v>505</v>
+        <v>571</v>
       </c>
       <c r="L73" t="s">
-        <v>506</v>
+        <v>572</v>
       </c>
       <c r="M73" t="n">
         <v>4</v>
       </c>
       <c r="N73" t="s">
-        <v>507</v>
+        <v>573</v>
       </c>
       <c r="O73" t="s">
-        <v>299</v>
+        <v>333</v>
       </c>
       <c r="P73" t="n">
         <v>4</v>
@@ -6763,50 +7234,54 @@
       <c r="W73" t="s"/>
       <c r="X73" t="s"/>
       <c r="Y73" t="s">
-        <v>506</v>
+        <v>572</v>
       </c>
     </row>
     <row r="74">
       <c r="A74" t="n">
         <v>5203</v>
       </c>
-      <c r="B74" t="s"/>
-      <c r="C74" t="s"/>
+      <c r="B74" t="n">
+        <v>178251</v>
+      </c>
+      <c r="C74" t="s">
+        <v>574</v>
+      </c>
       <c r="D74" t="n">
         <v>73</v>
       </c>
       <c r="E74" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F74" t="s">
-        <v>508</v>
+        <v>575</v>
       </c>
       <c r="G74" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H74" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I74" t="s">
-        <v>509</v>
+        <v>576</v>
       </c>
       <c r="J74" t="s">
-        <v>510</v>
+        <v>577</v>
       </c>
       <c r="K74" t="s">
-        <v>511</v>
+        <v>578</v>
       </c>
       <c r="L74" t="s">
-        <v>512</v>
+        <v>579</v>
       </c>
       <c r="M74" t="n">
         <v>1</v>
       </c>
       <c r="N74" t="s">
-        <v>513</v>
+        <v>580</v>
       </c>
       <c r="O74" t="s">
-        <v>299</v>
+        <v>333</v>
       </c>
       <c r="P74" t="n">
         <v>1</v>
@@ -6830,7 +7305,7 @@
       <c r="W74" t="s"/>
       <c r="X74" t="s"/>
       <c r="Y74" t="s">
-        <v>512</v>
+        <v>579</v>
       </c>
     </row>
   </sheetData>
